--- a/data.xlsx
+++ b/data.xlsx
@@ -28,9 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>betalgeuse</t>
-  </si>
-  <si>
     <t>class1_omp</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>conv5_omp</t>
+  </si>
+  <si>
+    <t>ale</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +446,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -463,127 +463,223 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>40095</v>
+      </c>
+      <c r="C3">
+        <v>57939</v>
+      </c>
+      <c r="D3">
+        <v>138641</v>
+      </c>
+      <c r="E3">
+        <v>11762233</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>31662</v>
+      </c>
+      <c r="C4">
+        <v>93823</v>
+      </c>
+      <c r="D4">
+        <v>116276</v>
+      </c>
+      <c r="E4">
+        <v>4029743</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>46922</v>
+      </c>
+      <c r="C5">
+        <v>101927</v>
+      </c>
+      <c r="D5">
+        <v>128558</v>
+      </c>
+      <c r="E5">
+        <v>15613955</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>38217</v>
+      </c>
+      <c r="C6">
+        <v>71346</v>
+      </c>
+      <c r="D6">
+        <v>90176</v>
+      </c>
+      <c r="E6">
+        <v>4111614</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>375485</v>
+      </c>
+      <c r="C7">
+        <v>495794</v>
+      </c>
+      <c r="D7">
+        <v>434452</v>
+      </c>
+      <c r="E7">
+        <v>4004177</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>4878322</v>
+      </c>
+      <c r="C8">
+        <v>5484645</v>
+      </c>
+      <c r="D8">
+        <v>3629706</v>
+      </c>
+      <c r="E8">
+        <v>7445210</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>47260477</v>
+      </c>
+      <c r="C9">
+        <v>47405558</v>
+      </c>
+      <c r="D9">
+        <v>39485704</v>
+      </c>
+      <c r="E9">
+        <v>35810069</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>358520148</v>
+      </c>
+      <c r="C10">
+        <v>467047849</v>
+      </c>
+      <c r="D10">
+        <v>427695019</v>
+      </c>
+      <c r="E10">
+        <v>381688955</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Dropbox\courses\cs758programming_multicore_processors\cs758workloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\courses\cs758programming_multicore_processors\cs758workloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>class1_omp</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>ale</t>
+  </si>
+  <si>
+    <t>godel omp classifer non-blocked</t>
+  </si>
+  <si>
+    <t>godel omp classifer blocked</t>
+  </si>
+  <si>
+    <t>speedup</t>
   </si>
 </sst>
 </file>
@@ -433,10 +442,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E27"/>
+  <dimension ref="A2:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +453,7 @@
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -460,8 +469,11 @@
       <c r="E2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -478,7 +490,7 @@
         <v>11762233</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -495,7 +507,7 @@
         <v>4029743</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -511,8 +523,12 @@
       <c r="E5">
         <v>15613955</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>D5/B5</f>
+        <v>2.7398235369336343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -528,8 +544,12 @@
       <c r="E6">
         <v>4111614</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" ref="F6:F10" si="0">D6/B6</f>
+        <v>2.359578198184054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -545,8 +565,12 @@
       <c r="E7">
         <v>4004177</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.1570422253884975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -562,8 +586,15 @@
       <c r="E8">
         <v>7445210</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.74404805586839085</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -579,8 +610,39 @@
       <c r="E9">
         <v>35810069</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.83549101715583618</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>32</v>
+      </c>
+      <c r="N9">
+        <v>64</v>
+      </c>
+      <c r="O9">
+        <v>128</v>
+      </c>
+      <c r="P9">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -596,88 +658,248 @@
       <c r="E10">
         <v>381688955</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1.1929455607610651</v>
+      </c>
+      <c r="H10">
+        <v>115</v>
+      </c>
+      <c r="I10">
+        <v>71</v>
+      </c>
+      <c r="J10">
+        <v>84</v>
+      </c>
+      <c r="K10">
+        <v>51</v>
+      </c>
+      <c r="L10">
+        <v>52</v>
+      </c>
+      <c r="M10">
+        <v>54</v>
+      </c>
+      <c r="N10">
+        <v>47</v>
+      </c>
+      <c r="O10">
+        <v>34</v>
+      </c>
+      <c r="P10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f>$H$10/H10</f>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I11:P11" si="1">$H$10/I10</f>
+        <v>1.619718309859155</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>1.3690476190476191</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>2.2549019607843137</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>2.2115384615384617</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>2.1296296296296298</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>2.4468085106382977</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>3.3823529411764706</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>2.2549019607843137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>16</v>
+      </c>
+      <c r="M15">
+        <v>32</v>
+      </c>
+      <c r="N15">
+        <v>64</v>
+      </c>
+      <c r="O15">
+        <v>128</v>
+      </c>
+      <c r="P15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>115</v>
+      </c>
+      <c r="I16">
+        <v>69</v>
+      </c>
+      <c r="J16">
+        <v>66</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <v>52</v>
+      </c>
+      <c r="M16">
+        <v>54</v>
+      </c>
+      <c r="N16">
+        <v>38</v>
+      </c>
+      <c r="O16">
+        <v>35</v>
+      </c>
+      <c r="P16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f>$H$16/H16</f>
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:P17" si="2">$H$16/I16</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>1.7424242424242424</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>2.2115384615384617</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>2.1296296296296298</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>3.0263157894736841</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>2.1296296296296298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10425" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="omp" sheetId="1" r:id="rId2"/>
     <sheet name="omp_blocked" sheetId="2" r:id="rId3"/>
+    <sheet name="omp_godel" sheetId="4" r:id="rId4"/>
+    <sheet name="pthread_godel" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>class1_omp</t>
   </si>
@@ -113,6 +115,90 @@
   </si>
   <si>
     <t>speedup</t>
+  </si>
+  <si>
+    <t>godel pthread classifer blocked</t>
+  </si>
+  <si>
+    <t>due to thread create and join within loop</t>
+  </si>
+  <si>
+    <t>godel</t>
+  </si>
+  <si>
+    <t>class1p_pthread</t>
+  </si>
+  <si>
+    <t>class3p_pthread</t>
+  </si>
+  <si>
+    <t>class1_pthread</t>
+  </si>
+  <si>
+    <t>class3_pthread</t>
+  </si>
+  <si>
+    <t>class4_pthread</t>
+  </si>
+  <si>
+    <t>class5_pthread</t>
+  </si>
+  <si>
+    <t>class6_pthread</t>
+  </si>
+  <si>
+    <t>class7_pthread</t>
+  </si>
+  <si>
+    <t>pool1p_pthread</t>
+  </si>
+  <si>
+    <t>pool3p_pthread</t>
+  </si>
+  <si>
+    <t>pool5p_pthread</t>
+  </si>
+  <si>
+    <t>pool1_pthread</t>
+  </si>
+  <si>
+    <t>pool3_pthread</t>
+  </si>
+  <si>
+    <t>pool5_pthread</t>
+  </si>
+  <si>
+    <t>pool6_pthread</t>
+  </si>
+  <si>
+    <t>conv1p_pthread</t>
+  </si>
+  <si>
+    <t>conv2p_pthread</t>
+  </si>
+  <si>
+    <t>conv3p_pthread</t>
+  </si>
+  <si>
+    <t>conv4p_pthread</t>
+  </si>
+  <si>
+    <t>conv5p_pthread</t>
+  </si>
+  <si>
+    <t>conv1_pthread</t>
+  </si>
+  <si>
+    <t>conv2_pthread</t>
+  </si>
+  <si>
+    <t>conv3_pthread</t>
+  </si>
+  <si>
+    <t>conv4_pthread</t>
+  </si>
+  <si>
+    <t>conv5_pthread</t>
   </si>
 </sst>
 </file>
@@ -444,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,31 +749,31 @@
         <v>1.1929455607610651</v>
       </c>
       <c r="H10">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="I10">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="J10">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="K10">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="L10">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="M10">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="N10">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="O10">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="P10">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -700,35 +786,35 @@
       </c>
       <c r="I11">
         <f t="shared" ref="I11:P11" si="1">$H$10/I10</f>
-        <v>1.619718309859155</v>
+        <v>1.9259259259259258</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>1.3690476190476191</v>
+        <v>3.7142857142857144</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>2.2549019607843137</v>
+        <v>5.7777777777777777</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>2.2115384615384617</v>
+        <v>7.4285714285714288</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>2.1296296296296298</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>2.4468085106382977</v>
+        <v>5.7777777777777777</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>3.3823529411764706</v>
+        <v>2.6</v>
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
-        <v>2.2549019607843137</v>
+        <v>1.4857142857142858</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -748,6 +834,9 @@
       <c r="H14" t="s">
         <v>27</v>
       </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -868,20 +957,113 @@
       <c r="A20" t="s">
         <v>17</v>
       </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <v>16</v>
+      </c>
+      <c r="M21">
+        <v>32</v>
+      </c>
+      <c r="N21">
+        <v>64</v>
+      </c>
+      <c r="O21">
+        <v>128</v>
+      </c>
+      <c r="P21">
+        <v>256</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
+      <c r="H22">
+        <v>115</v>
+      </c>
+      <c r="I22">
+        <v>56</v>
+      </c>
+      <c r="J22">
+        <v>29</v>
+      </c>
+      <c r="K22">
+        <v>17</v>
+      </c>
+      <c r="L22">
+        <v>13</v>
+      </c>
+      <c r="M22">
+        <v>14</v>
+      </c>
+      <c r="N22">
+        <v>21</v>
+      </c>
+      <c r="O22">
+        <v>39</v>
+      </c>
+      <c r="P22">
+        <v>62</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
+      </c>
+      <c r="H23">
+        <f>$H$16/H22</f>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23" si="3">$H$16/I22</f>
+        <v>2.0535714285714284</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23" si="4">$H$16/J22</f>
+        <v>3.9655172413793105</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23" si="5">$H$16/K22</f>
+        <v>6.7647058823529411</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23" si="6">$H$16/L22</f>
+        <v>8.8461538461538467</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23" si="7">$H$16/M22</f>
+        <v>8.2142857142857135</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23" si="8">$H$16/N22</f>
+        <v>5.4761904761904763</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23" si="9">$H$16/O22</f>
+        <v>2.9487179487179489</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23" si="10">$H$16/P22</f>
+        <v>1.8548387096774193</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -921,4 +1103,3471 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:T27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>64</v>
+      </c>
+      <c r="I2">
+        <v>128</v>
+      </c>
+      <c r="J2">
+        <v>256</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>16</v>
+      </c>
+      <c r="Q2">
+        <v>32</v>
+      </c>
+      <c r="R2">
+        <v>64</v>
+      </c>
+      <c r="S2">
+        <v>128</v>
+      </c>
+      <c r="T2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>99128</v>
+      </c>
+      <c r="C3">
+        <v>271752</v>
+      </c>
+      <c r="D3">
+        <v>472725</v>
+      </c>
+      <c r="E3">
+        <v>801040</v>
+      </c>
+      <c r="F3">
+        <v>1526806</v>
+      </c>
+      <c r="G3">
+        <v>3009561</v>
+      </c>
+      <c r="H3">
+        <v>5734299</v>
+      </c>
+      <c r="I3">
+        <v>14675696</v>
+      </c>
+      <c r="J3">
+        <v>37208268</v>
+      </c>
+      <c r="L3">
+        <f>$B5/B5</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f>$B5/C5</f>
+        <v>0.28701001233347889</v>
+      </c>
+      <c r="N3">
+        <f>$B5/D5</f>
+        <v>0.1720988238428483</v>
+      </c>
+      <c r="O3">
+        <f>$B5/E5</f>
+        <v>9.8826849904050967E-2</v>
+      </c>
+      <c r="P3">
+        <f>$B5/F5</f>
+        <v>4.9591261899467373E-2</v>
+      </c>
+      <c r="Q3">
+        <f>$B5/G5</f>
+        <v>2.4480525547864961E-2</v>
+      </c>
+      <c r="R3">
+        <f>$B5/H5</f>
+        <v>1.2666692811907083E-2</v>
+      </c>
+      <c r="S3">
+        <f>$B5/I5</f>
+        <v>5.2291004338020745E-3</v>
+      </c>
+      <c r="T3">
+        <f>$B5/J5</f>
+        <v>2.1959709156060465E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>98607</v>
+      </c>
+      <c r="C4">
+        <v>266060</v>
+      </c>
+      <c r="D4">
+        <v>405089</v>
+      </c>
+      <c r="E4">
+        <v>812027</v>
+      </c>
+      <c r="F4">
+        <v>1480916</v>
+      </c>
+      <c r="G4">
+        <v>3037792</v>
+      </c>
+      <c r="H4">
+        <v>5964412</v>
+      </c>
+      <c r="I4">
+        <v>14575597</v>
+      </c>
+      <c r="J4">
+        <v>28900534</v>
+      </c>
+      <c r="L4">
+        <f>$B6/B6</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>$B6/C6</f>
+        <v>0.25057804899417568</v>
+      </c>
+      <c r="N4">
+        <f>$B6/D6</f>
+        <v>0.15643385412950941</v>
+      </c>
+      <c r="O4">
+        <f>$B6/E6</f>
+        <v>8.3657839917997967E-2</v>
+      </c>
+      <c r="P4">
+        <f>$B6/F6</f>
+        <v>4.2606246826326209E-2</v>
+      </c>
+      <c r="Q4">
+        <f>$B6/G6</f>
+        <v>2.0639335595496383E-2</v>
+      </c>
+      <c r="R4">
+        <f>$B6/H6</f>
+        <v>1.0943079087210594E-2</v>
+      </c>
+      <c r="S4">
+        <f>$B6/I6</f>
+        <v>4.5481906177372378E-3</v>
+      </c>
+      <c r="T4">
+        <f>$B6/J6</f>
+        <v>2.2756968192862797E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>74932</v>
+      </c>
+      <c r="C5">
+        <v>261078</v>
+      </c>
+      <c r="D5">
+        <v>435401</v>
+      </c>
+      <c r="E5">
+        <v>758215</v>
+      </c>
+      <c r="F5">
+        <v>1510992</v>
+      </c>
+      <c r="G5">
+        <v>3060882</v>
+      </c>
+      <c r="H5">
+        <v>5915672</v>
+      </c>
+      <c r="I5">
+        <v>14329807</v>
+      </c>
+      <c r="J5">
+        <v>34122492</v>
+      </c>
+      <c r="L5">
+        <f>$B3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f>$B3/C3</f>
+        <v>0.36477376431452208</v>
+      </c>
+      <c r="N5">
+        <f>$B3/D3</f>
+        <v>0.20969485430218415</v>
+      </c>
+      <c r="O5">
+        <f>$B3/E3</f>
+        <v>0.12374912613602317</v>
+      </c>
+      <c r="P5">
+        <f>$B3/F3</f>
+        <v>6.4925078890179885E-2</v>
+      </c>
+      <c r="Q5">
+        <f>$B3/G3</f>
+        <v>3.293769423513928E-2</v>
+      </c>
+      <c r="R5">
+        <f>$B3/H3</f>
+        <v>1.7286855812715732E-2</v>
+      </c>
+      <c r="S5">
+        <f>$B3/I3</f>
+        <v>6.7545689144828296E-3</v>
+      </c>
+      <c r="T5">
+        <f>$B3/J3</f>
+        <v>2.6641390564054205E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>65782</v>
+      </c>
+      <c r="C6">
+        <v>262521</v>
+      </c>
+      <c r="D6">
+        <v>420510</v>
+      </c>
+      <c r="E6">
+        <v>786322</v>
+      </c>
+      <c r="F6">
+        <v>1543952</v>
+      </c>
+      <c r="G6">
+        <v>3187215</v>
+      </c>
+      <c r="H6">
+        <v>6011288</v>
+      </c>
+      <c r="I6">
+        <v>14463334</v>
+      </c>
+      <c r="J6">
+        <v>28906311</v>
+      </c>
+      <c r="L6">
+        <f>$B4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f>$B4/C4</f>
+        <v>0.37061940915582953</v>
+      </c>
+      <c r="N6">
+        <f>$B4/D4</f>
+        <v>0.24342058164995842</v>
+      </c>
+      <c r="O6">
+        <f>$B4/E4</f>
+        <v>0.12143315431629736</v>
+      </c>
+      <c r="P6">
+        <f>$B4/F4</f>
+        <v>6.6585140548147223E-2</v>
+      </c>
+      <c r="Q6">
+        <f>$B4/G4</f>
+        <v>3.2460089433377928E-2</v>
+      </c>
+      <c r="R6">
+        <f>$B4/H4</f>
+        <v>1.6532560124954479E-2</v>
+      </c>
+      <c r="S6">
+        <f>$B4/I4</f>
+        <v>6.7652117439855122E-3</v>
+      </c>
+      <c r="T6">
+        <f>$B4/J4</f>
+        <v>3.4119438761927375E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>518257</v>
+      </c>
+      <c r="C7">
+        <v>507814</v>
+      </c>
+      <c r="D7">
+        <v>529645</v>
+      </c>
+      <c r="E7">
+        <v>860752</v>
+      </c>
+      <c r="F7">
+        <v>1573867</v>
+      </c>
+      <c r="G7">
+        <v>3073272</v>
+      </c>
+      <c r="H7">
+        <v>6187199</v>
+      </c>
+      <c r="I7">
+        <v>14483644</v>
+      </c>
+      <c r="J7">
+        <v>37169362</v>
+      </c>
+      <c r="L7">
+        <f>$B7/B7</f>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f>$B7/C7</f>
+        <v>1.0205646161783646</v>
+      </c>
+      <c r="N7">
+        <f>$B7/D7</f>
+        <v>0.97849880580388748</v>
+      </c>
+      <c r="O7">
+        <f>$B7/E7</f>
+        <v>0.60209793297023995</v>
+      </c>
+      <c r="P7">
+        <f>$B7/F7</f>
+        <v>0.32928894245828905</v>
+      </c>
+      <c r="Q7">
+        <f>$B7/G7</f>
+        <v>0.1686336256602084</v>
+      </c>
+      <c r="R7">
+        <f>$B7/H7</f>
+        <v>8.3762781833912239E-2</v>
+      </c>
+      <c r="S7">
+        <f>$B7/I7</f>
+        <v>3.5782224418109146E-2</v>
+      </c>
+      <c r="T7">
+        <f>$B7/J7</f>
+        <v>1.3943123371340084E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5308618</v>
+      </c>
+      <c r="C8">
+        <v>3073235</v>
+      </c>
+      <c r="D8">
+        <v>1778541</v>
+      </c>
+      <c r="E8">
+        <v>1687581</v>
+      </c>
+      <c r="F8">
+        <v>2102903</v>
+      </c>
+      <c r="G8">
+        <v>3372846</v>
+      </c>
+      <c r="H8">
+        <v>6520633</v>
+      </c>
+      <c r="I8">
+        <v>14544601</v>
+      </c>
+      <c r="J8">
+        <v>29049246</v>
+      </c>
+      <c r="L8">
+        <f>$B8/B8</f>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f>$B8/C8</f>
+        <v>1.7273713204489731</v>
+      </c>
+      <c r="N8">
+        <f>$B8/D8</f>
+        <v>2.9848162060925221</v>
+      </c>
+      <c r="O8">
+        <f>$B8/E8</f>
+        <v>3.1456967102616114</v>
+      </c>
+      <c r="P8">
+        <f>$B8/F8</f>
+        <v>2.5244236182077824</v>
+      </c>
+      <c r="Q8">
+        <f>$B8/G8</f>
+        <v>1.5739283679124396</v>
+      </c>
+      <c r="R8">
+        <f>$B8/H8</f>
+        <v>0.81412617456004654</v>
+      </c>
+      <c r="S8">
+        <f>$B8/I8</f>
+        <v>0.36498890550521118</v>
+      </c>
+      <c r="T8">
+        <f>$B8/J8</f>
+        <v>0.18274546609574652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>52842021</v>
+      </c>
+      <c r="C9">
+        <v>26602539</v>
+      </c>
+      <c r="D9">
+        <v>13854236</v>
+      </c>
+      <c r="E9">
+        <v>9019697</v>
+      </c>
+      <c r="F9">
+        <v>7164287</v>
+      </c>
+      <c r="G9">
+        <v>6214297</v>
+      </c>
+      <c r="H9">
+        <v>9251834</v>
+      </c>
+      <c r="I9">
+        <v>21008909</v>
+      </c>
+      <c r="J9">
+        <v>35163218</v>
+      </c>
+      <c r="L9">
+        <f>$B9/B9</f>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f>$B9/C9</f>
+        <v>1.9863525432666409</v>
+      </c>
+      <c r="N9">
+        <f>$B9/D9</f>
+        <v>3.8141418263699274</v>
+      </c>
+      <c r="O9">
+        <f>$B9/E9</f>
+        <v>5.8585139833411253</v>
+      </c>
+      <c r="P9">
+        <f>$B9/F9</f>
+        <v>7.3757543493162681</v>
+      </c>
+      <c r="Q9">
+        <f>$B9/G9</f>
+        <v>8.5032982813663391</v>
+      </c>
+      <c r="R9">
+        <f>$B9/H9</f>
+        <v>5.7115184946033404</v>
+      </c>
+      <c r="S9">
+        <f>$B9/I9</f>
+        <v>2.5152196622870804</v>
+      </c>
+      <c r="T9">
+        <f>$B9/J9</f>
+        <v>1.502764081489925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>519568365</v>
+      </c>
+      <c r="C10">
+        <v>265384385</v>
+      </c>
+      <c r="D10">
+        <v>132068081</v>
+      </c>
+      <c r="E10">
+        <v>79713525</v>
+      </c>
+      <c r="F10">
+        <v>53249036</v>
+      </c>
+      <c r="G10">
+        <v>29426107</v>
+      </c>
+      <c r="H10">
+        <v>32892722</v>
+      </c>
+      <c r="I10">
+        <v>45983116</v>
+      </c>
+      <c r="J10">
+        <v>61415047</v>
+      </c>
+      <c r="L10">
+        <f>$B10/B10</f>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f>$B10/C10</f>
+        <v>1.9577955387239532</v>
+      </c>
+      <c r="N10">
+        <f>$B10/D10</f>
+        <v>3.9340949082163159</v>
+      </c>
+      <c r="O10">
+        <f>$B10/E10</f>
+        <v>6.5179449158721807</v>
+      </c>
+      <c r="P10">
+        <f>$B10/F10</f>
+        <v>9.7573290340880536</v>
+      </c>
+      <c r="Q10">
+        <f>$B10/G10</f>
+        <v>17.656714325139916</v>
+      </c>
+      <c r="R10">
+        <f>$B10/H10</f>
+        <v>15.795845810510908</v>
+      </c>
+      <c r="S10">
+        <f>$B10/I10</f>
+        <v>11.299111721789362</v>
+      </c>
+      <c r="T10">
+        <f>$B10/J10</f>
+        <v>8.4599522491613488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>5680428</v>
+      </c>
+      <c r="C11">
+        <v>5899640</v>
+      </c>
+      <c r="D11">
+        <v>5700967</v>
+      </c>
+      <c r="E11">
+        <v>6392811</v>
+      </c>
+      <c r="F11">
+        <v>6717856</v>
+      </c>
+      <c r="G11">
+        <v>8552122</v>
+      </c>
+      <c r="H11">
+        <v>13481868</v>
+      </c>
+      <c r="I11">
+        <v>27747309</v>
+      </c>
+      <c r="J11">
+        <v>3680199201</v>
+      </c>
+      <c r="L11">
+        <f>$B14/B14</f>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f>$B14/C14</f>
+        <v>1.1304533006439637</v>
+      </c>
+      <c r="N11">
+        <f>$B14/D14</f>
+        <v>1.0665683557201666</v>
+      </c>
+      <c r="O11">
+        <f>$B14/E14</f>
+        <v>0.89717288439043441</v>
+      </c>
+      <c r="P11">
+        <f>$B14/F14</f>
+        <v>0.69776072799003386</v>
+      </c>
+      <c r="Q11">
+        <f>$B14/G14</f>
+        <v>0.51046266145843699</v>
+      </c>
+      <c r="R11">
+        <f>$B14/H14</f>
+        <v>0.30799815042882484</v>
+      </c>
+      <c r="S11">
+        <f>$B14/I14</f>
+        <v>0.15941864427592559</v>
+      </c>
+      <c r="T11">
+        <f>$B14/J14</f>
+        <v>9.4785637938592444E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>177956</v>
+      </c>
+      <c r="C12">
+        <v>390773</v>
+      </c>
+      <c r="D12">
+        <v>575902</v>
+      </c>
+      <c r="E12">
+        <v>913814</v>
+      </c>
+      <c r="F12">
+        <v>1692655</v>
+      </c>
+      <c r="G12">
+        <v>3125935</v>
+      </c>
+      <c r="H12">
+        <v>6185375</v>
+      </c>
+      <c r="I12">
+        <v>14430241</v>
+      </c>
+      <c r="J12">
+        <v>175171861</v>
+      </c>
+      <c r="L12">
+        <f>$B15/B15</f>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f>$B15/C15</f>
+        <v>0.40967734198232003</v>
+      </c>
+      <c r="N12">
+        <f>$B15/D15</f>
+        <v>0.27797729483799333</v>
+      </c>
+      <c r="O12">
+        <f>$B15/E15</f>
+        <v>0.16159490370868723</v>
+      </c>
+      <c r="P12">
+        <f>$B15/F15</f>
+        <v>9.1285365789930004E-2</v>
+      </c>
+      <c r="Q12">
+        <f>$B15/G15</f>
+        <v>4.9275241532731134E-2</v>
+      </c>
+      <c r="R12">
+        <f>$B15/H15</f>
+        <v>2.4489888254788386E-2</v>
+      </c>
+      <c r="S12">
+        <f>$B15/I15</f>
+        <v>1.0306354617658796E-2</v>
+      </c>
+      <c r="T12">
+        <f>$B15/J15</f>
+        <v>8.5845982159859938E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>13226787</v>
+      </c>
+      <c r="C13">
+        <v>8552750</v>
+      </c>
+      <c r="D13">
+        <v>5733726</v>
+      </c>
+      <c r="E13">
+        <v>5923788</v>
+      </c>
+      <c r="F13">
+        <v>6447577</v>
+      </c>
+      <c r="G13">
+        <v>7505482</v>
+      </c>
+      <c r="H13">
+        <v>10410740</v>
+      </c>
+      <c r="I13">
+        <v>24385621</v>
+      </c>
+      <c r="J13">
+        <v>69202803</v>
+      </c>
+      <c r="L13">
+        <f>$B16/B16</f>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f>$B16/C16</f>
+        <v>1.6322850083257239</v>
+      </c>
+      <c r="N13">
+        <f>$B16/D16</f>
+        <v>2.2015966259491742</v>
+      </c>
+      <c r="O13">
+        <f>$B16/E16</f>
+        <v>2.4284138961438804</v>
+      </c>
+      <c r="P13">
+        <f>$B16/F16</f>
+        <v>2.2901002407190281</v>
+      </c>
+      <c r="Q13">
+        <f>$B16/G16</f>
+        <v>1.727490461261409</v>
+      </c>
+      <c r="R13">
+        <f>$B16/H16</f>
+        <v>1.309295551634468</v>
+      </c>
+      <c r="S13">
+        <f>$B16/I16</f>
+        <v>0.64518806818249141</v>
+      </c>
+      <c r="T13">
+        <f>$B16/J16</f>
+        <v>0.22522549290600882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>3463701</v>
+      </c>
+      <c r="C14">
+        <v>3063993</v>
+      </c>
+      <c r="D14">
+        <v>3247519</v>
+      </c>
+      <c r="E14">
+        <v>3860684</v>
+      </c>
+      <c r="F14">
+        <v>4964024</v>
+      </c>
+      <c r="G14">
+        <v>6785415</v>
+      </c>
+      <c r="H14">
+        <v>11245850</v>
+      </c>
+      <c r="I14">
+        <v>21727076</v>
+      </c>
+      <c r="J14">
+        <v>3654246651</v>
+      </c>
+      <c r="L14">
+        <f>$B17/B17</f>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f>$B17/C17</f>
+        <v>1.6137688435927096</v>
+      </c>
+      <c r="N14">
+        <f>$B17/D17</f>
+        <v>2.2326313252653529</v>
+      </c>
+      <c r="O14">
+        <f>$B17/E17</f>
+        <v>2.324317509307694</v>
+      </c>
+      <c r="P14">
+        <f>$B17/F17</f>
+        <v>2.1584477795674375</v>
+      </c>
+      <c r="Q14">
+        <f>$B17/G17</f>
+        <v>1.6847975969558795</v>
+      </c>
+      <c r="R14">
+        <f>$B17/H17</f>
+        <v>1.2276837714720175</v>
+      </c>
+      <c r="S14">
+        <f>$B17/I17</f>
+        <v>0.58205352414664713</v>
+      </c>
+      <c r="T14">
+        <f>$B17/J17</f>
+        <v>0.18488297001833973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>153722</v>
+      </c>
+      <c r="C15">
+        <v>375227</v>
+      </c>
+      <c r="D15">
+        <v>553002</v>
+      </c>
+      <c r="E15">
+        <v>951280</v>
+      </c>
+      <c r="F15">
+        <v>1683972</v>
+      </c>
+      <c r="G15">
+        <v>3119660</v>
+      </c>
+      <c r="H15">
+        <v>6276958</v>
+      </c>
+      <c r="I15">
+        <v>14915264</v>
+      </c>
+      <c r="J15">
+        <v>179067204</v>
+      </c>
+      <c r="L15">
+        <f>$B11/B11</f>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f>$B11/C11</f>
+        <v>0.96284315653158503</v>
+      </c>
+      <c r="N15">
+        <f>$B11/D11</f>
+        <v>0.99639727786531651</v>
+      </c>
+      <c r="O15">
+        <f>$B11/E11</f>
+        <v>0.88856498338524326</v>
+      </c>
+      <c r="P15">
+        <f>$B11/F11</f>
+        <v>0.84557156330829364</v>
+      </c>
+      <c r="Q15">
+        <f>$B11/G11</f>
+        <v>0.66421269481422274</v>
+      </c>
+      <c r="R15">
+        <f>$B11/H11</f>
+        <v>0.42133834866206965</v>
+      </c>
+      <c r="S15">
+        <f>$B11/I11</f>
+        <v>0.20471996041129611</v>
+      </c>
+      <c r="T15">
+        <f>$B11/J11</f>
+        <v>1.5435110138756862E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>13613936</v>
+      </c>
+      <c r="C16">
+        <v>8340416</v>
+      </c>
+      <c r="D16">
+        <v>6183665</v>
+      </c>
+      <c r="E16">
+        <v>5606102</v>
+      </c>
+      <c r="F16">
+        <v>5944690</v>
+      </c>
+      <c r="G16">
+        <v>7880759</v>
+      </c>
+      <c r="H16">
+        <v>10397909</v>
+      </c>
+      <c r="I16">
+        <v>21100725</v>
+      </c>
+      <c r="J16">
+        <v>60445804</v>
+      </c>
+      <c r="L16">
+        <f>$B12/B12</f>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f>$B12/C12</f>
+        <v>0.45539482001059439</v>
+      </c>
+      <c r="N16">
+        <f>$B12/D12</f>
+        <v>0.30900396247972745</v>
+      </c>
+      <c r="O16">
+        <f>$B12/E12</f>
+        <v>0.19473984859063223</v>
+      </c>
+      <c r="P16">
+        <f>$B12/F12</f>
+        <v>0.10513424176810986</v>
+      </c>
+      <c r="Q16">
+        <f>$B12/G12</f>
+        <v>5.6928886877046385E-2</v>
+      </c>
+      <c r="R16">
+        <f>$B12/H12</f>
+        <v>2.8770446415940829E-2</v>
+      </c>
+      <c r="S16">
+        <f>$B12/I12</f>
+        <v>1.2332157169100641E-2</v>
+      </c>
+      <c r="T16">
+        <f>$B12/J12</f>
+        <v>1.0158937570458305E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>12904906</v>
+      </c>
+      <c r="C17">
+        <v>7996750</v>
+      </c>
+      <c r="D17">
+        <v>5780133</v>
+      </c>
+      <c r="E17">
+        <v>5552127</v>
+      </c>
+      <c r="F17">
+        <v>5978790</v>
+      </c>
+      <c r="G17">
+        <v>7659618</v>
+      </c>
+      <c r="H17">
+        <v>10511588</v>
+      </c>
+      <c r="I17">
+        <v>22171339</v>
+      </c>
+      <c r="J17">
+        <v>69800404</v>
+      </c>
+      <c r="L17">
+        <f>$B13/B13</f>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f>$B13/C13</f>
+        <v>1.5464952208354039</v>
+      </c>
+      <c r="N17">
+        <f>$B13/D13</f>
+        <v>2.3068397408596084</v>
+      </c>
+      <c r="O17">
+        <f>$B13/E13</f>
+        <v>2.2328258539974759</v>
+      </c>
+      <c r="P17">
+        <f>$B13/F13</f>
+        <v>2.0514352911178881</v>
+      </c>
+      <c r="Q17">
+        <f>$B13/G13</f>
+        <v>1.7622834882556511</v>
+      </c>
+      <c r="R17">
+        <f>$B13/H13</f>
+        <v>1.2704944125009365</v>
+      </c>
+      <c r="S17">
+        <f>$B13/I13</f>
+        <v>0.54240107315700514</v>
+      </c>
+      <c r="T17">
+        <f>$B13/J13</f>
+        <v>0.19113079856028375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>100676207053</v>
+      </c>
+      <c r="C18">
+        <v>60468042134</v>
+      </c>
+      <c r="D18">
+        <v>35084498504</v>
+      </c>
+      <c r="E18">
+        <v>36280619727</v>
+      </c>
+      <c r="F18">
+        <v>31448465710</v>
+      </c>
+      <c r="G18">
+        <v>28887101000</v>
+      </c>
+      <c r="H18">
+        <v>23680934184</v>
+      </c>
+      <c r="I18">
+        <v>26433726828</v>
+      </c>
+      <c r="J18">
+        <v>31778758717</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L4:L27" si="0">$B18/B18</f>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M3:T18" si="1">$B18/C18</f>
+        <v>1.6649490127346414</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>2.8695353032200774</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>2.7749307429298642</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>3.2013074336083407</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>3.4851613200300022</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>4.2513612964230854</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>3.8086270508916074</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>3.168034596616998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>9059318748</v>
+      </c>
+      <c r="C19">
+        <v>5134934757</v>
+      </c>
+      <c r="D19">
+        <v>3277433520</v>
+      </c>
+      <c r="E19">
+        <v>2704252240</v>
+      </c>
+      <c r="F19">
+        <v>2395832831</v>
+      </c>
+      <c r="G19">
+        <v>2078268781</v>
+      </c>
+      <c r="H19">
+        <v>1168616483</v>
+      </c>
+      <c r="I19">
+        <v>1550038029</v>
+      </c>
+      <c r="J19">
+        <v>1320734851</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:M27" si="2">$B19/C19</f>
+        <v>1.7642519674958355</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:N27" si="3">$B19/D19</f>
+        <v>2.7641502696292677</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O27" si="4">$B19/E19</f>
+        <v>3.3500272696455267</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19:P27" si="5">$B19/F19</f>
+        <v>3.7812816615501168</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19:Q27" si="6">$B19/G19</f>
+        <v>4.3590698329409205</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19:R27" si="7">$B19/H19</f>
+        <v>7.7521743701094108</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ref="S19:S27" si="8">$B19/I19</f>
+        <v>5.8445783771154174</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ref="T19:T27" si="9">$B19/J19</f>
+        <v>6.8593016540304808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>1899743344</v>
+      </c>
+      <c r="C20">
+        <v>982774380</v>
+      </c>
+      <c r="D20">
+        <v>539907404</v>
+      </c>
+      <c r="E20">
+        <v>309180965</v>
+      </c>
+      <c r="F20">
+        <v>191087255</v>
+      </c>
+      <c r="G20">
+        <v>143502370</v>
+      </c>
+      <c r="H20">
+        <v>147717368</v>
+      </c>
+      <c r="I20">
+        <v>156216124</v>
+      </c>
+      <c r="J20">
+        <v>177837863</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>1.9330411767551368</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>3.5186465862950085</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>6.1444382386218379</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>9.9417585123612771</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="6"/>
+        <v>13.238410933561585</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="7"/>
+        <v>12.860663371689645</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="8"/>
+        <v>12.160993982925859</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="9"/>
+        <v>10.682445863623542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>1096967193</v>
+      </c>
+      <c r="C21">
+        <v>721439467</v>
+      </c>
+      <c r="D21">
+        <v>349767884</v>
+      </c>
+      <c r="E21">
+        <v>217778739</v>
+      </c>
+      <c r="F21">
+        <v>282478736</v>
+      </c>
+      <c r="G21">
+        <v>252532972</v>
+      </c>
+      <c r="H21">
+        <v>271087300</v>
+      </c>
+      <c r="I21">
+        <v>275706443</v>
+      </c>
+      <c r="J21">
+        <v>281316431</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>1.5205256202042521</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>3.1362719196940336</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>5.0370720210662991</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>3.8833620134862117</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="6"/>
+        <v>4.3438572963850444</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="7"/>
+        <v>4.0465458654831856</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="8"/>
+        <v>3.9787506634366174</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="9"/>
+        <v>3.8994067609225427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>82616663182</v>
+      </c>
+      <c r="C23">
+        <v>44739867234</v>
+      </c>
+      <c r="D23">
+        <v>34391413863</v>
+      </c>
+      <c r="E23">
+        <v>31930079421</v>
+      </c>
+      <c r="F23">
+        <v>32387209006</v>
+      </c>
+      <c r="G23">
+        <v>26974666497</v>
+      </c>
+      <c r="H23">
+        <v>21037036624</v>
+      </c>
+      <c r="I23">
+        <v>24810853831</v>
+      </c>
+      <c r="J23">
+        <v>29384015611</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>1.846600544205808</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>2.402246779126552</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>2.5874242933346445</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>2.5509040673030694</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="6"/>
+        <v>3.0627501248695048</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="7"/>
+        <v>3.9272006156868686</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="8"/>
+        <v>3.3298597357731539</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="9"/>
+        <v>2.8116192244014528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>4548908252</v>
+      </c>
+      <c r="C24">
+        <v>2416506946</v>
+      </c>
+      <c r="D24">
+        <v>1597107727</v>
+      </c>
+      <c r="E24">
+        <v>1354070952</v>
+      </c>
+      <c r="F24">
+        <v>1197073203</v>
+      </c>
+      <c r="G24">
+        <v>1173714743</v>
+      </c>
+      <c r="H24">
+        <v>728747908</v>
+      </c>
+      <c r="I24">
+        <v>816737289</v>
+      </c>
+      <c r="J24">
+        <v>1026518519</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>1.8824312752461669</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>2.8482162944290859</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>3.359431236067163</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="5"/>
+        <v>3.8000251284549051</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="6"/>
+        <v>3.8756506034618328</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="7"/>
+        <v>6.2420875615055627</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="8"/>
+        <v>5.569610097721398</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="9"/>
+        <v>4.4313942396591095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>1444720479</v>
+      </c>
+      <c r="C25">
+        <v>771962966</v>
+      </c>
+      <c r="D25">
+        <v>415987419</v>
+      </c>
+      <c r="E25">
+        <v>243301262</v>
+      </c>
+      <c r="F25">
+        <v>144875292</v>
+      </c>
+      <c r="G25">
+        <v>120463426</v>
+      </c>
+      <c r="H25">
+        <v>127903854</v>
+      </c>
+      <c r="I25">
+        <v>125983094</v>
+      </c>
+      <c r="J25">
+        <v>172827502</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>1.8714893623536857</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>3.472990799753009</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>5.9379900750370957</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="5"/>
+        <v>9.9721661233994272</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>11.993021674479024</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="7"/>
+        <v>11.295363148322332</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="8"/>
+        <v>11.467574204837357</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="9"/>
+        <v>8.359320491712019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>1148573756</v>
+      </c>
+      <c r="C26">
+        <v>1567677961</v>
+      </c>
+      <c r="D26">
+        <v>684783750</v>
+      </c>
+      <c r="E26">
+        <v>372886540</v>
+      </c>
+      <c r="F26">
+        <v>296936398</v>
+      </c>
+      <c r="G26">
+        <v>279578654</v>
+      </c>
+      <c r="H26">
+        <v>300393250</v>
+      </c>
+      <c r="I26">
+        <v>285343119</v>
+      </c>
+      <c r="J26">
+        <v>308265183</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>0.73265924799206894</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>1.6772795148833481</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>3.0802231584974882</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>3.8680800458824183</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="6"/>
+        <v>4.108231224262207</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="7"/>
+        <v>3.8235671274238019</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="8"/>
+        <v>4.0252372653149555</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="9"/>
+        <v>3.7259276082437114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>3240705497965</v>
+      </c>
+      <c r="E27">
+        <v>504988396173</v>
+      </c>
+      <c r="F27">
+        <v>163889639648</v>
+      </c>
+      <c r="G27">
+        <v>163889639648</v>
+      </c>
+      <c r="H27">
+        <v>89180929454</v>
+      </c>
+      <c r="I27">
+        <v>116466535294</v>
+      </c>
+      <c r="J27">
+        <v>176068091163</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M27" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>6.4173860677281622</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="5"/>
+        <v>19.773705677340828</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="6"/>
+        <v>19.773705677340828</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="7"/>
+        <v>36.338548138103597</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="8"/>
+        <v>27.825207384974483</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="9"/>
+        <v>18.405978485703155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:T27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>64</v>
+      </c>
+      <c r="I2">
+        <v>128</v>
+      </c>
+      <c r="J2">
+        <v>256</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>16</v>
+      </c>
+      <c r="Q2">
+        <v>32</v>
+      </c>
+      <c r="R2">
+        <v>64</v>
+      </c>
+      <c r="S2">
+        <v>128</v>
+      </c>
+      <c r="T2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>439670</v>
+      </c>
+      <c r="C3">
+        <v>412680</v>
+      </c>
+      <c r="D3">
+        <v>565900</v>
+      </c>
+      <c r="E3">
+        <v>1507000</v>
+      </c>
+      <c r="F3">
+        <v>2495550</v>
+      </c>
+      <c r="G3">
+        <v>4208320</v>
+      </c>
+      <c r="H3">
+        <v>8574496</v>
+      </c>
+      <c r="I3">
+        <v>16206885</v>
+      </c>
+      <c r="J3">
+        <v>31196203</v>
+      </c>
+      <c r="L3">
+        <f>$B3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:T3" si="0">$B3/C3</f>
+        <v>1.065401764078705</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>0.77693938858455558</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>0.29175182481751827</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>0.17618160325379176</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>0.10447637061820395</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>5.1276483189216022E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>2.7128593804423243E-2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>1.4093702364996151E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>448158</v>
+      </c>
+      <c r="C4">
+        <v>404949</v>
+      </c>
+      <c r="D4">
+        <v>702600</v>
+      </c>
+      <c r="E4">
+        <v>1417634</v>
+      </c>
+      <c r="F4">
+        <v>2234878</v>
+      </c>
+      <c r="G4">
+        <v>4095362</v>
+      </c>
+      <c r="H4">
+        <v>8015579</v>
+      </c>
+      <c r="I4">
+        <v>16528145</v>
+      </c>
+      <c r="J4">
+        <v>30884924</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L27" si="1">$B4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M27" si="2">$B4/C4</f>
+        <v>1.1067023254780231</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N27" si="3">$B4/D4</f>
+        <v>0.63785653287788213</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O27" si="4">$B4/E4</f>
+        <v>0.31613096187027118</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P27" si="5">$B4/F4</f>
+        <v>0.20052906691103498</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q27" si="6">$B4/G4</f>
+        <v>0.10943061932009918</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R27" si="7">$B4/H4</f>
+        <v>5.5910870568426807E-2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S27" si="8">$B4/I4</f>
+        <v>2.7114839566085607E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T27" si="9">$B4/J4</f>
+        <v>1.451057480342189E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>422943</v>
+      </c>
+      <c r="C5">
+        <v>395184</v>
+      </c>
+      <c r="D5">
+        <v>644602</v>
+      </c>
+      <c r="E5">
+        <v>1173821</v>
+      </c>
+      <c r="F5">
+        <v>2772505</v>
+      </c>
+      <c r="G5">
+        <v>5004597</v>
+      </c>
+      <c r="H5">
+        <v>8546369</v>
+      </c>
+      <c r="I5">
+        <v>15522446</v>
+      </c>
+      <c r="J5">
+        <v>31071799</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>1.0702432284707883</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>0.65613044948665999</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>0.36031302898823586</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>0.15254904860406024</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="6"/>
+        <v>8.4510900677916723E-2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="7"/>
+        <v>4.9488034041123195E-2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="8"/>
+        <v>2.7247187717708923E-2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="9"/>
+        <v>1.3611796343044057E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>430062</v>
+      </c>
+      <c r="C6">
+        <v>425441</v>
+      </c>
+      <c r="D6">
+        <v>656855</v>
+      </c>
+      <c r="E6">
+        <v>1606201</v>
+      </c>
+      <c r="F6">
+        <v>2231170</v>
+      </c>
+      <c r="G6">
+        <v>4256788</v>
+      </c>
+      <c r="H6">
+        <v>8704523</v>
+      </c>
+      <c r="I6">
+        <v>16717745</v>
+      </c>
+      <c r="J6">
+        <v>31717896</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>1.0108616705959228</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>0.65472897366998806</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>0.26775104734712529</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>0.19275178493794737</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>0.10102969656933819</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="7"/>
+        <v>4.9406727973491479E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="8"/>
+        <v>2.5724880957330071E-2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="9"/>
+        <v>1.355896998968658E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>852684</v>
+      </c>
+      <c r="C7">
+        <v>556216</v>
+      </c>
+      <c r="D7">
+        <v>708023</v>
+      </c>
+      <c r="E7">
+        <v>1090735</v>
+      </c>
+      <c r="F7">
+        <v>2035076</v>
+      </c>
+      <c r="G7">
+        <v>3751640</v>
+      </c>
+      <c r="H7">
+        <v>8250451</v>
+      </c>
+      <c r="I7">
+        <v>15348231</v>
+      </c>
+      <c r="J7">
+        <v>31057068</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>1.5330087591870785</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>1.2043168089172245</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>0.78175175455083046</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>0.41899368868779346</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>0.22728300156731457</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="7"/>
+        <v>0.10334998656437085</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="8"/>
+        <v>5.5555848748953543E-2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="9"/>
+        <v>2.7455392762768205E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>5277950</v>
+      </c>
+      <c r="C8">
+        <v>2870910</v>
+      </c>
+      <c r="D8">
+        <v>1916340</v>
+      </c>
+      <c r="E8">
+        <v>1705913</v>
+      </c>
+      <c r="F8">
+        <v>2389120</v>
+      </c>
+      <c r="G8">
+        <v>4032230</v>
+      </c>
+      <c r="H8">
+        <v>8104383</v>
+      </c>
+      <c r="I8">
+        <v>15849971</v>
+      </c>
+      <c r="J8">
+        <v>31914318</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>1.8384240536972598</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>2.7541824519657263</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>3.0939151058699945</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>2.2091606951513527</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>1.3089407102273432</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="7"/>
+        <v>0.65124636878587794</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="8"/>
+        <v>0.33299430011575415</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="9"/>
+        <v>0.16537874943779152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>51792340</v>
+      </c>
+      <c r="C9">
+        <v>26266810</v>
+      </c>
+      <c r="D9">
+        <v>13408504</v>
+      </c>
+      <c r="E9">
+        <v>7110268</v>
+      </c>
+      <c r="F9">
+        <v>4772679</v>
+      </c>
+      <c r="G9">
+        <v>4640523</v>
+      </c>
+      <c r="H9">
+        <v>8159563</v>
+      </c>
+      <c r="I9">
+        <v>17161860</v>
+      </c>
+      <c r="J9">
+        <v>31350400</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>1.971778834201793</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>3.862648659388102</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>7.2841614408908359</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>10.851838139543849</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>11.160884236539717</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="7"/>
+        <v>6.3474404205225206</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="8"/>
+        <v>3.0178745194285468</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="9"/>
+        <v>1.6520471828110646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>505969341</v>
+      </c>
+      <c r="C10">
+        <v>256021380</v>
+      </c>
+      <c r="D10">
+        <v>158166294</v>
+      </c>
+      <c r="E10">
+        <v>73845612</v>
+      </c>
+      <c r="F10">
+        <v>34823153</v>
+      </c>
+      <c r="G10">
+        <v>4079961</v>
+      </c>
+      <c r="H10">
+        <v>8479549</v>
+      </c>
+      <c r="I10">
+        <v>15314829</v>
+      </c>
+      <c r="J10">
+        <v>31435127</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>1.9762776882149451</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>3.1989707048456228</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>6.8517184338590083</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>14.529682048032813</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>124.01327880340033</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="7"/>
+        <v>59.669369326128077</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="8"/>
+        <v>33.037870746059262</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="9"/>
+        <v>16.095667149682583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>3088191</v>
+      </c>
+      <c r="C11">
+        <v>1963752</v>
+      </c>
+      <c r="D11">
+        <v>1512653</v>
+      </c>
+      <c r="E11">
+        <v>2819189</v>
+      </c>
+      <c r="F11">
+        <v>4094621</v>
+      </c>
+      <c r="G11">
+        <v>6348260</v>
+      </c>
+      <c r="H11">
+        <v>10749484</v>
+      </c>
+      <c r="I11">
+        <v>18767426</v>
+      </c>
+      <c r="J11">
+        <v>33878898</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>1.5725972526062355</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>2.0415726541381267</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>1.0954182213395414</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>0.7542067996036752</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
+        <v>0.48646258974900208</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="7"/>
+        <v>0.28728737118916592</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="8"/>
+        <v>0.16455058887670584</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="9"/>
+        <v>9.1153820882839812E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>496879</v>
+      </c>
+      <c r="C12">
+        <v>583876</v>
+      </c>
+      <c r="D12">
+        <v>698993</v>
+      </c>
+      <c r="E12">
+        <v>1419855</v>
+      </c>
+      <c r="F12">
+        <v>2588471</v>
+      </c>
+      <c r="G12">
+        <v>4233350</v>
+      </c>
+      <c r="H12">
+        <v>7678805</v>
+      </c>
+      <c r="I12">
+        <v>16251350</v>
+      </c>
+      <c r="J12">
+        <v>32729928</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0.85100089745082863</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>0.71084975099893699</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>0.34995052311679714</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>0.19195849596151551</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>0.11737253002940934</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="7"/>
+        <v>6.4707854933156922E-2</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="8"/>
+        <v>3.0574629184652351E-2</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="9"/>
+        <v>1.5181182188973956E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>21055373</v>
+      </c>
+      <c r="C13">
+        <v>11588506</v>
+      </c>
+      <c r="D13">
+        <v>6888026</v>
+      </c>
+      <c r="E13">
+        <v>5435980</v>
+      </c>
+      <c r="F13">
+        <v>7230200</v>
+      </c>
+      <c r="G13">
+        <v>9608960</v>
+      </c>
+      <c r="H13">
+        <v>14657001</v>
+      </c>
+      <c r="I13">
+        <v>22896048</v>
+      </c>
+      <c r="J13">
+        <v>39754830</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>1.8169186778692612</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>3.0568080027572484</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>3.8733352587757865</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>2.9121425410085475</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>2.1912228794791528</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="7"/>
+        <v>1.4365403263600787</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="8"/>
+        <v>0.91960730515589417</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="9"/>
+        <v>0.52963056312905876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>4026106</v>
+      </c>
+      <c r="C14">
+        <v>2389836</v>
+      </c>
+      <c r="D14">
+        <v>1835762</v>
+      </c>
+      <c r="E14">
+        <v>2602297</v>
+      </c>
+      <c r="F14">
+        <v>4160155</v>
+      </c>
+      <c r="G14">
+        <v>5983724</v>
+      </c>
+      <c r="H14">
+        <v>9215211</v>
+      </c>
+      <c r="I14">
+        <v>18745024</v>
+      </c>
+      <c r="J14">
+        <v>34128110</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>1.6846787813054955</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>2.1931524892660379</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>1.5471354730071165</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>0.96777788327598369</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>0.67284286507867008</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="7"/>
+        <v>0.43689786376025463</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="8"/>
+        <v>0.21478265378587938</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="9"/>
+        <v>0.11797037691217005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>434210</v>
+      </c>
+      <c r="C15">
+        <v>468923</v>
+      </c>
+      <c r="D15">
+        <v>739041</v>
+      </c>
+      <c r="E15">
+        <v>1241782</v>
+      </c>
+      <c r="F15">
+        <v>2416694</v>
+      </c>
+      <c r="G15">
+        <v>4266770</v>
+      </c>
+      <c r="H15">
+        <v>8198863</v>
+      </c>
+      <c r="I15">
+        <v>16516025</v>
+      </c>
+      <c r="J15">
+        <v>32569209</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>0.92597292092731642</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>0.58753167956852193</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>0.34966684973691037</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>0.17967107130650384</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>0.10176550411669717</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="7"/>
+        <v>5.2959782350308821E-2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="8"/>
+        <v>2.6290224191353549E-2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="9"/>
+        <v>1.3331917271923921E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>21290741</v>
+      </c>
+      <c r="C16">
+        <v>11219442</v>
+      </c>
+      <c r="D16">
+        <v>6402299</v>
+      </c>
+      <c r="E16">
+        <v>5617650</v>
+      </c>
+      <c r="F16">
+        <v>6342166</v>
+      </c>
+      <c r="G16">
+        <v>10162457</v>
+      </c>
+      <c r="H16">
+        <v>14206507</v>
+      </c>
+      <c r="I16">
+        <v>22473460</v>
+      </c>
+      <c r="J16">
+        <v>40592380</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>1.8976648749554568</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>3.3254837051502903</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>3.7899728534173542</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>3.3570141494246601</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>2.0950387293151644</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="7"/>
+        <v>1.4986612120769729</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="8"/>
+        <v>0.94737263420941853</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="9"/>
+        <v>0.52450092849938834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>21194836</v>
+      </c>
+      <c r="C17">
+        <v>11352510</v>
+      </c>
+      <c r="D17">
+        <v>6660812</v>
+      </c>
+      <c r="E17">
+        <v>5117802</v>
+      </c>
+      <c r="F17">
+        <v>7048286</v>
+      </c>
+      <c r="G17">
+        <v>10325560</v>
+      </c>
+      <c r="H17">
+        <v>14276591</v>
+      </c>
+      <c r="I17">
+        <v>22761150</v>
+      </c>
+      <c r="J17">
+        <v>39880820</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>1.8669735591512362</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>3.1820198498321224</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>4.1413942938785047</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>3.0070908019339737</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>2.0526572892898787</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="7"/>
+        <v>1.484586621554123</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="8"/>
+        <v>0.93118475999674888</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="9"/>
+        <v>0.531454368290321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>92698143030</v>
+      </c>
+      <c r="C18">
+        <v>46423238218</v>
+      </c>
+      <c r="D18">
+        <v>23215904883</v>
+      </c>
+      <c r="E18">
+        <v>11390715777</v>
+      </c>
+      <c r="F18">
+        <v>6171858096</v>
+      </c>
+      <c r="G18">
+        <v>3356506820</v>
+      </c>
+      <c r="H18">
+        <v>1933264320</v>
+      </c>
+      <c r="I18">
+        <v>1125774889</v>
+      </c>
+      <c r="J18">
+        <v>931246653</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>1.9968047596054495</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>3.9928722786023658</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>8.1380437230446052</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>15.019487095803118</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="6"/>
+        <v>27.617445159846273</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="7"/>
+        <v>47.949026975266371</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="8"/>
+        <v>82.341633248136873</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="9"/>
+        <v>99.541987862586183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>8367889628</v>
+      </c>
+      <c r="C19">
+        <v>4246328153</v>
+      </c>
+      <c r="D19">
+        <v>2147228244</v>
+      </c>
+      <c r="E19">
+        <v>1020220638</v>
+      </c>
+      <c r="F19">
+        <v>483647219</v>
+      </c>
+      <c r="G19">
+        <v>320559659</v>
+      </c>
+      <c r="H19">
+        <v>190723962</v>
+      </c>
+      <c r="I19">
+        <v>105486308</v>
+      </c>
+      <c r="J19">
+        <v>33325394</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>1.9706177493814618</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>3.8970657410931486</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>8.2020391632187319</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>17.301639085823009</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="6"/>
+        <v>26.104000902995718</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="7"/>
+        <v>43.874348772179971</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="8"/>
+        <v>79.326784552929851</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="9"/>
+        <v>251.09649500317985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>1429651811</v>
+      </c>
+      <c r="C20">
+        <v>713164050</v>
+      </c>
+      <c r="D20">
+        <v>356730625</v>
+      </c>
+      <c r="E20">
+        <v>187221771</v>
+      </c>
+      <c r="F20">
+        <v>116177540</v>
+      </c>
+      <c r="G20">
+        <v>70946706</v>
+      </c>
+      <c r="H20">
+        <v>7990430</v>
+      </c>
+      <c r="I20">
+        <v>15750030</v>
+      </c>
+      <c r="J20">
+        <v>31257320</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>2.004660513944863</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>4.0076509018534647</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>7.6361408364201404</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>12.305750414408843</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="6"/>
+        <v>20.151066788076108</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="7"/>
+        <v>178.92051003512952</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="8"/>
+        <v>90.771370657706683</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="9"/>
+        <v>45.738144249091093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>1753244360</v>
+      </c>
+      <c r="C21">
+        <v>887206600</v>
+      </c>
+      <c r="D21">
+        <v>493123872</v>
+      </c>
+      <c r="E21">
+        <v>232765333</v>
+      </c>
+      <c r="F21">
+        <v>136638801</v>
+      </c>
+      <c r="G21">
+        <v>73960296</v>
+      </c>
+      <c r="H21">
+        <v>8936071</v>
+      </c>
+      <c r="I21">
+        <v>16158880</v>
+      </c>
+      <c r="J21">
+        <v>32136790</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>1.9761398979673956</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>3.5553832607803662</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>7.5322400350742953</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>12.831233494210769</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="6"/>
+        <v>23.70521015762295</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="7"/>
+        <v>196.19857093794354</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="8"/>
+        <v>108.500363886606</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="9"/>
+        <v>54.555677776156237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>69913530464</v>
+      </c>
+      <c r="C23">
+        <v>34925460842</v>
+      </c>
+      <c r="D23">
+        <v>17480435810</v>
+      </c>
+      <c r="E23">
+        <v>8822810141</v>
+      </c>
+      <c r="F23">
+        <v>4511264200</v>
+      </c>
+      <c r="G23">
+        <v>2706271849</v>
+      </c>
+      <c r="H23">
+        <v>1433988675</v>
+      </c>
+      <c r="I23">
+        <v>844914163</v>
+      </c>
+      <c r="J23">
+        <v>694248190</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>2.0017926400537198</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>3.9995301732697475</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>7.9241794107195673</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>15.497547331411004</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="6"/>
+        <v>25.833890445940931</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="7"/>
+        <v>48.754590383358504</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="8"/>
+        <v>82.746311430928159</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="9"/>
+        <v>100.70394344708339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24">
+        <v>8843462280</v>
+      </c>
+      <c r="C24">
+        <v>3573876517</v>
+      </c>
+      <c r="D24">
+        <v>1757537029</v>
+      </c>
+      <c r="E24">
+        <v>760159404</v>
+      </c>
+      <c r="F24">
+        <v>528738354</v>
+      </c>
+      <c r="G24">
+        <v>257038146</v>
+      </c>
+      <c r="H24">
+        <v>176887200</v>
+      </c>
+      <c r="I24">
+        <v>81999790</v>
+      </c>
+      <c r="J24">
+        <v>32765145</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>2.4744733730821289</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>5.0317359657746366</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>11.633694503370243</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="5"/>
+        <v>16.725592560285499</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="6"/>
+        <v>34.405252362814664</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="7"/>
+        <v>49.994924901293025</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="8"/>
+        <v>107.84737717011227</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="9"/>
+        <v>269.90456718564803</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25">
+        <v>1172509640</v>
+      </c>
+      <c r="C25">
+        <v>633281626</v>
+      </c>
+      <c r="D25">
+        <v>293911500</v>
+      </c>
+      <c r="E25">
+        <v>147854480</v>
+      </c>
+      <c r="F25">
+        <v>95966274</v>
+      </c>
+      <c r="G25">
+        <v>62768750</v>
+      </c>
+      <c r="H25">
+        <v>8112470</v>
+      </c>
+      <c r="I25">
+        <v>16326831</v>
+      </c>
+      <c r="J25">
+        <v>32649200</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>1.8514821713775729</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>3.9893288966236433</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>7.93015970838354</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="5"/>
+        <v>12.217934396410973</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>18.679830966842577</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="7"/>
+        <v>144.53176899267424</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="8"/>
+        <v>71.814894145716337</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="9"/>
+        <v>35.91235436090318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26">
+        <v>1786472222</v>
+      </c>
+      <c r="C26">
+        <v>890853476</v>
+      </c>
+      <c r="D26">
+        <v>566608940</v>
+      </c>
+      <c r="E26">
+        <v>253999136</v>
+      </c>
+      <c r="F26">
+        <v>144166117</v>
+      </c>
+      <c r="G26">
+        <v>77046622</v>
+      </c>
+      <c r="H26">
+        <v>9125379</v>
+      </c>
+      <c r="I26">
+        <v>16006270</v>
+      </c>
+      <c r="J26">
+        <v>32689910</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>2.0053491063663986</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>3.1529192285600014</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>7.0333791292896368</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>12.39176208096109</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="6"/>
+        <v>23.186898732562213</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="7"/>
+        <v>195.76964660865045</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="8"/>
+        <v>111.61077640199747</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="9"/>
+        <v>54.649040697878945</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1209,39 +1209,39 @@
         <v>37208268</v>
       </c>
       <c r="L3">
-        <f>$B5/B5</f>
+        <f t="shared" ref="L3:T4" si="0">$B5/B5</f>
         <v>1</v>
       </c>
       <c r="M3">
-        <f>$B5/C5</f>
+        <f t="shared" si="0"/>
         <v>0.28701001233347889</v>
       </c>
       <c r="N3">
-        <f>$B5/D5</f>
+        <f t="shared" si="0"/>
         <v>0.1720988238428483</v>
       </c>
       <c r="O3">
-        <f>$B5/E5</f>
+        <f t="shared" si="0"/>
         <v>9.8826849904050967E-2</v>
       </c>
       <c r="P3">
-        <f>$B5/F5</f>
+        <f t="shared" si="0"/>
         <v>4.9591261899467373E-2</v>
       </c>
       <c r="Q3">
-        <f>$B5/G5</f>
+        <f t="shared" si="0"/>
         <v>2.4480525547864961E-2</v>
       </c>
       <c r="R3">
-        <f>$B5/H5</f>
+        <f t="shared" si="0"/>
         <v>1.2666692811907083E-2</v>
       </c>
       <c r="S3">
-        <f>$B5/I5</f>
+        <f t="shared" si="0"/>
         <v>5.2291004338020745E-3</v>
       </c>
       <c r="T3">
-        <f>$B5/J5</f>
+        <f t="shared" si="0"/>
         <v>2.1959709156060465E-3</v>
       </c>
     </row>
@@ -1277,39 +1277,39 @@
         <v>28900534</v>
       </c>
       <c r="L4">
-        <f>$B6/B6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M4">
-        <f>$B6/C6</f>
+        <f t="shared" si="0"/>
         <v>0.25057804899417568</v>
       </c>
       <c r="N4">
-        <f>$B6/D6</f>
+        <f t="shared" si="0"/>
         <v>0.15643385412950941</v>
       </c>
       <c r="O4">
-        <f>$B6/E6</f>
+        <f t="shared" si="0"/>
         <v>8.3657839917997967E-2</v>
       </c>
       <c r="P4">
-        <f>$B6/F6</f>
+        <f t="shared" si="0"/>
         <v>4.2606246826326209E-2</v>
       </c>
       <c r="Q4">
-        <f>$B6/G6</f>
+        <f t="shared" si="0"/>
         <v>2.0639335595496383E-2</v>
       </c>
       <c r="R4">
-        <f>$B6/H6</f>
+        <f t="shared" si="0"/>
         <v>1.0943079087210594E-2</v>
       </c>
       <c r="S4">
-        <f>$B6/I6</f>
+        <f t="shared" si="0"/>
         <v>4.5481906177372378E-3</v>
       </c>
       <c r="T4">
-        <f>$B6/J6</f>
+        <f t="shared" si="0"/>
         <v>2.2756968192862797E-3</v>
       </c>
     </row>
@@ -1345,39 +1345,39 @@
         <v>34122492</v>
       </c>
       <c r="L5">
-        <f>$B3/B3</f>
+        <f t="shared" ref="L5:T6" si="1">$B3/B3</f>
         <v>1</v>
       </c>
       <c r="M5">
-        <f>$B3/C3</f>
+        <f t="shared" si="1"/>
         <v>0.36477376431452208</v>
       </c>
       <c r="N5">
-        <f>$B3/D3</f>
+        <f t="shared" si="1"/>
         <v>0.20969485430218415</v>
       </c>
       <c r="O5">
-        <f>$B3/E3</f>
+        <f t="shared" si="1"/>
         <v>0.12374912613602317</v>
       </c>
       <c r="P5">
-        <f>$B3/F3</f>
+        <f t="shared" si="1"/>
         <v>6.4925078890179885E-2</v>
       </c>
       <c r="Q5">
-        <f>$B3/G3</f>
+        <f t="shared" si="1"/>
         <v>3.293769423513928E-2</v>
       </c>
       <c r="R5">
-        <f>$B3/H3</f>
+        <f t="shared" si="1"/>
         <v>1.7286855812715732E-2</v>
       </c>
       <c r="S5">
-        <f>$B3/I3</f>
+        <f t="shared" si="1"/>
         <v>6.7545689144828296E-3</v>
       </c>
       <c r="T5">
-        <f>$B3/J3</f>
+        <f t="shared" si="1"/>
         <v>2.6641390564054205E-3</v>
       </c>
     </row>
@@ -1413,39 +1413,39 @@
         <v>28906311</v>
       </c>
       <c r="L6">
-        <f>$B4/B4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M6">
-        <f>$B4/C4</f>
+        <f t="shared" si="1"/>
         <v>0.37061940915582953</v>
       </c>
       <c r="N6">
-        <f>$B4/D4</f>
+        <f t="shared" si="1"/>
         <v>0.24342058164995842</v>
       </c>
       <c r="O6">
-        <f>$B4/E4</f>
+        <f t="shared" si="1"/>
         <v>0.12143315431629736</v>
       </c>
       <c r="P6">
-        <f>$B4/F4</f>
+        <f t="shared" si="1"/>
         <v>6.6585140548147223E-2</v>
       </c>
       <c r="Q6">
-        <f>$B4/G4</f>
+        <f t="shared" si="1"/>
         <v>3.2460089433377928E-2</v>
       </c>
       <c r="R6">
-        <f>$B4/H4</f>
+        <f t="shared" si="1"/>
         <v>1.6532560124954479E-2</v>
       </c>
       <c r="S6">
-        <f>$B4/I4</f>
+        <f t="shared" si="1"/>
         <v>6.7652117439855122E-3</v>
       </c>
       <c r="T6">
-        <f>$B4/J4</f>
+        <f t="shared" si="1"/>
         <v>3.4119438761927375E-3</v>
       </c>
     </row>
@@ -1481,39 +1481,39 @@
         <v>37169362</v>
       </c>
       <c r="L7">
-        <f>$B7/B7</f>
+        <f t="shared" ref="L7:T10" si="2">$B7/B7</f>
         <v>1</v>
       </c>
       <c r="M7">
-        <f>$B7/C7</f>
+        <f t="shared" si="2"/>
         <v>1.0205646161783646</v>
       </c>
       <c r="N7">
-        <f>$B7/D7</f>
+        <f t="shared" si="2"/>
         <v>0.97849880580388748</v>
       </c>
       <c r="O7">
-        <f>$B7/E7</f>
+        <f t="shared" si="2"/>
         <v>0.60209793297023995</v>
       </c>
       <c r="P7">
-        <f>$B7/F7</f>
+        <f t="shared" si="2"/>
         <v>0.32928894245828905</v>
       </c>
       <c r="Q7">
-        <f>$B7/G7</f>
+        <f t="shared" si="2"/>
         <v>0.1686336256602084</v>
       </c>
       <c r="R7">
-        <f>$B7/H7</f>
+        <f t="shared" si="2"/>
         <v>8.3762781833912239E-2</v>
       </c>
       <c r="S7">
-        <f>$B7/I7</f>
+        <f t="shared" si="2"/>
         <v>3.5782224418109146E-2</v>
       </c>
       <c r="T7">
-        <f>$B7/J7</f>
+        <f t="shared" si="2"/>
         <v>1.3943123371340084E-2</v>
       </c>
     </row>
@@ -1549,39 +1549,39 @@
         <v>29049246</v>
       </c>
       <c r="L8">
-        <f>$B8/B8</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M8">
-        <f>$B8/C8</f>
+        <f t="shared" si="2"/>
         <v>1.7273713204489731</v>
       </c>
       <c r="N8">
-        <f>$B8/D8</f>
+        <f t="shared" si="2"/>
         <v>2.9848162060925221</v>
       </c>
       <c r="O8">
-        <f>$B8/E8</f>
+        <f t="shared" si="2"/>
         <v>3.1456967102616114</v>
       </c>
       <c r="P8">
-        <f>$B8/F8</f>
+        <f t="shared" si="2"/>
         <v>2.5244236182077824</v>
       </c>
       <c r="Q8">
-        <f>$B8/G8</f>
+        <f t="shared" si="2"/>
         <v>1.5739283679124396</v>
       </c>
       <c r="R8">
-        <f>$B8/H8</f>
+        <f t="shared" si="2"/>
         <v>0.81412617456004654</v>
       </c>
       <c r="S8">
-        <f>$B8/I8</f>
+        <f t="shared" si="2"/>
         <v>0.36498890550521118</v>
       </c>
       <c r="T8">
-        <f>$B8/J8</f>
+        <f t="shared" si="2"/>
         <v>0.18274546609574652</v>
       </c>
     </row>
@@ -1617,39 +1617,39 @@
         <v>35163218</v>
       </c>
       <c r="L9">
-        <f>$B9/B9</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M9">
-        <f>$B9/C9</f>
+        <f t="shared" si="2"/>
         <v>1.9863525432666409</v>
       </c>
       <c r="N9">
-        <f>$B9/D9</f>
+        <f t="shared" si="2"/>
         <v>3.8141418263699274</v>
       </c>
       <c r="O9">
-        <f>$B9/E9</f>
+        <f t="shared" si="2"/>
         <v>5.8585139833411253</v>
       </c>
       <c r="P9">
-        <f>$B9/F9</f>
+        <f t="shared" si="2"/>
         <v>7.3757543493162681</v>
       </c>
       <c r="Q9">
-        <f>$B9/G9</f>
+        <f t="shared" si="2"/>
         <v>8.5032982813663391</v>
       </c>
       <c r="R9">
-        <f>$B9/H9</f>
+        <f t="shared" si="2"/>
         <v>5.7115184946033404</v>
       </c>
       <c r="S9">
-        <f>$B9/I9</f>
+        <f t="shared" si="2"/>
         <v>2.5152196622870804</v>
       </c>
       <c r="T9">
-        <f>$B9/J9</f>
+        <f t="shared" si="2"/>
         <v>1.502764081489925</v>
       </c>
     </row>
@@ -1685,39 +1685,39 @@
         <v>61415047</v>
       </c>
       <c r="L10">
-        <f>$B10/B10</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M10">
-        <f>$B10/C10</f>
+        <f t="shared" si="2"/>
         <v>1.9577955387239532</v>
       </c>
       <c r="N10">
-        <f>$B10/D10</f>
+        <f t="shared" si="2"/>
         <v>3.9340949082163159</v>
       </c>
       <c r="O10">
-        <f>$B10/E10</f>
+        <f t="shared" si="2"/>
         <v>6.5179449158721807</v>
       </c>
       <c r="P10">
-        <f>$B10/F10</f>
+        <f t="shared" si="2"/>
         <v>9.7573290340880536</v>
       </c>
       <c r="Q10">
-        <f>$B10/G10</f>
+        <f t="shared" si="2"/>
         <v>17.656714325139916</v>
       </c>
       <c r="R10">
-        <f>$B10/H10</f>
+        <f t="shared" si="2"/>
         <v>15.795845810510908</v>
       </c>
       <c r="S10">
-        <f>$B10/I10</f>
+        <f t="shared" si="2"/>
         <v>11.299111721789362</v>
       </c>
       <c r="T10">
-        <f>$B10/J10</f>
+        <f t="shared" si="2"/>
         <v>8.4599522491613488</v>
       </c>
     </row>
@@ -1753,39 +1753,39 @@
         <v>3680199201</v>
       </c>
       <c r="L11">
-        <f>$B14/B14</f>
+        <f t="shared" ref="L11:T14" si="3">$B14/B14</f>
         <v>1</v>
       </c>
       <c r="M11">
-        <f>$B14/C14</f>
+        <f t="shared" si="3"/>
         <v>1.1304533006439637</v>
       </c>
       <c r="N11">
-        <f>$B14/D14</f>
+        <f t="shared" si="3"/>
         <v>1.0665683557201666</v>
       </c>
       <c r="O11">
-        <f>$B14/E14</f>
+        <f t="shared" si="3"/>
         <v>0.89717288439043441</v>
       </c>
       <c r="P11">
-        <f>$B14/F14</f>
+        <f t="shared" si="3"/>
         <v>0.69776072799003386</v>
       </c>
       <c r="Q11">
-        <f>$B14/G14</f>
+        <f t="shared" si="3"/>
         <v>0.51046266145843699</v>
       </c>
       <c r="R11">
-        <f>$B14/H14</f>
+        <f t="shared" si="3"/>
         <v>0.30799815042882484</v>
       </c>
       <c r="S11">
-        <f>$B14/I14</f>
+        <f t="shared" si="3"/>
         <v>0.15941864427592559</v>
       </c>
       <c r="T11">
-        <f>$B14/J14</f>
+        <f t="shared" si="3"/>
         <v>9.4785637938592444E-4</v>
       </c>
     </row>
@@ -1821,39 +1821,39 @@
         <v>175171861</v>
       </c>
       <c r="L12">
-        <f>$B15/B15</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M12">
-        <f>$B15/C15</f>
+        <f t="shared" si="3"/>
         <v>0.40967734198232003</v>
       </c>
       <c r="N12">
-        <f>$B15/D15</f>
+        <f t="shared" si="3"/>
         <v>0.27797729483799333</v>
       </c>
       <c r="O12">
-        <f>$B15/E15</f>
+        <f t="shared" si="3"/>
         <v>0.16159490370868723</v>
       </c>
       <c r="P12">
-        <f>$B15/F15</f>
+        <f t="shared" si="3"/>
         <v>9.1285365789930004E-2</v>
       </c>
       <c r="Q12">
-        <f>$B15/G15</f>
+        <f t="shared" si="3"/>
         <v>4.9275241532731134E-2</v>
       </c>
       <c r="R12">
-        <f>$B15/H15</f>
+        <f t="shared" si="3"/>
         <v>2.4489888254788386E-2</v>
       </c>
       <c r="S12">
-        <f>$B15/I15</f>
+        <f t="shared" si="3"/>
         <v>1.0306354617658796E-2</v>
       </c>
       <c r="T12">
-        <f>$B15/J15</f>
+        <f t="shared" si="3"/>
         <v>8.5845982159859938E-4</v>
       </c>
     </row>
@@ -1889,39 +1889,39 @@
         <v>69202803</v>
       </c>
       <c r="L13">
-        <f>$B16/B16</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M13">
-        <f>$B16/C16</f>
+        <f t="shared" si="3"/>
         <v>1.6322850083257239</v>
       </c>
       <c r="N13">
-        <f>$B16/D16</f>
+        <f t="shared" si="3"/>
         <v>2.2015966259491742</v>
       </c>
       <c r="O13">
-        <f>$B16/E16</f>
+        <f t="shared" si="3"/>
         <v>2.4284138961438804</v>
       </c>
       <c r="P13">
-        <f>$B16/F16</f>
+        <f t="shared" si="3"/>
         <v>2.2901002407190281</v>
       </c>
       <c r="Q13">
-        <f>$B16/G16</f>
+        <f t="shared" si="3"/>
         <v>1.727490461261409</v>
       </c>
       <c r="R13">
-        <f>$B16/H16</f>
+        <f t="shared" si="3"/>
         <v>1.309295551634468</v>
       </c>
       <c r="S13">
-        <f>$B16/I16</f>
+        <f t="shared" si="3"/>
         <v>0.64518806818249141</v>
       </c>
       <c r="T13">
-        <f>$B16/J16</f>
+        <f t="shared" si="3"/>
         <v>0.22522549290600882</v>
       </c>
     </row>
@@ -1957,39 +1957,39 @@
         <v>3654246651</v>
       </c>
       <c r="L14">
-        <f>$B17/B17</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M14">
-        <f>$B17/C17</f>
+        <f t="shared" si="3"/>
         <v>1.6137688435927096</v>
       </c>
       <c r="N14">
-        <f>$B17/D17</f>
+        <f t="shared" si="3"/>
         <v>2.2326313252653529</v>
       </c>
       <c r="O14">
-        <f>$B17/E17</f>
+        <f t="shared" si="3"/>
         <v>2.324317509307694</v>
       </c>
       <c r="P14">
-        <f>$B17/F17</f>
+        <f t="shared" si="3"/>
         <v>2.1584477795674375</v>
       </c>
       <c r="Q14">
-        <f>$B17/G17</f>
+        <f t="shared" si="3"/>
         <v>1.6847975969558795</v>
       </c>
       <c r="R14">
-        <f>$B17/H17</f>
+        <f t="shared" si="3"/>
         <v>1.2276837714720175</v>
       </c>
       <c r="S14">
-        <f>$B17/I17</f>
+        <f t="shared" si="3"/>
         <v>0.58205352414664713</v>
       </c>
       <c r="T14">
-        <f>$B17/J17</f>
+        <f t="shared" si="3"/>
         <v>0.18488297001833973</v>
       </c>
     </row>
@@ -2025,39 +2025,39 @@
         <v>179067204</v>
       </c>
       <c r="L15">
-        <f>$B11/B11</f>
+        <f t="shared" ref="L15:T17" si="4">$B11/B11</f>
         <v>1</v>
       </c>
       <c r="M15">
-        <f>$B11/C11</f>
+        <f t="shared" si="4"/>
         <v>0.96284315653158503</v>
       </c>
       <c r="N15">
-        <f>$B11/D11</f>
+        <f t="shared" si="4"/>
         <v>0.99639727786531651</v>
       </c>
       <c r="O15">
-        <f>$B11/E11</f>
+        <f t="shared" si="4"/>
         <v>0.88856498338524326</v>
       </c>
       <c r="P15">
-        <f>$B11/F11</f>
+        <f t="shared" si="4"/>
         <v>0.84557156330829364</v>
       </c>
       <c r="Q15">
-        <f>$B11/G11</f>
+        <f t="shared" si="4"/>
         <v>0.66421269481422274</v>
       </c>
       <c r="R15">
-        <f>$B11/H11</f>
+        <f t="shared" si="4"/>
         <v>0.42133834866206965</v>
       </c>
       <c r="S15">
-        <f>$B11/I11</f>
+        <f t="shared" si="4"/>
         <v>0.20471996041129611</v>
       </c>
       <c r="T15">
-        <f>$B11/J11</f>
+        <f t="shared" si="4"/>
         <v>1.5435110138756862E-3</v>
       </c>
     </row>
@@ -2093,39 +2093,39 @@
         <v>60445804</v>
       </c>
       <c r="L16">
-        <f>$B12/B12</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M16">
-        <f>$B12/C12</f>
+        <f t="shared" si="4"/>
         <v>0.45539482001059439</v>
       </c>
       <c r="N16">
-        <f>$B12/D12</f>
+        <f t="shared" si="4"/>
         <v>0.30900396247972745</v>
       </c>
       <c r="O16">
-        <f>$B12/E12</f>
+        <f t="shared" si="4"/>
         <v>0.19473984859063223</v>
       </c>
       <c r="P16">
-        <f>$B12/F12</f>
+        <f t="shared" si="4"/>
         <v>0.10513424176810986</v>
       </c>
       <c r="Q16">
-        <f>$B12/G12</f>
+        <f t="shared" si="4"/>
         <v>5.6928886877046385E-2</v>
       </c>
       <c r="R16">
-        <f>$B12/H12</f>
+        <f t="shared" si="4"/>
         <v>2.8770446415940829E-2</v>
       </c>
       <c r="S16">
-        <f>$B12/I12</f>
+        <f t="shared" si="4"/>
         <v>1.2332157169100641E-2</v>
       </c>
       <c r="T16">
-        <f>$B12/J12</f>
+        <f t="shared" si="4"/>
         <v>1.0158937570458305E-3</v>
       </c>
     </row>
@@ -2161,39 +2161,39 @@
         <v>69800404</v>
       </c>
       <c r="L17">
-        <f>$B13/B13</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M17">
-        <f>$B13/C13</f>
+        <f t="shared" si="4"/>
         <v>1.5464952208354039</v>
       </c>
       <c r="N17">
-        <f>$B13/D13</f>
+        <f t="shared" si="4"/>
         <v>2.3068397408596084</v>
       </c>
       <c r="O17">
-        <f>$B13/E13</f>
+        <f t="shared" si="4"/>
         <v>2.2328258539974759</v>
       </c>
       <c r="P17">
-        <f>$B13/F13</f>
+        <f t="shared" si="4"/>
         <v>2.0514352911178881</v>
       </c>
       <c r="Q17">
-        <f>$B13/G13</f>
+        <f t="shared" si="4"/>
         <v>1.7622834882556511</v>
       </c>
       <c r="R17">
-        <f>$B13/H13</f>
+        <f t="shared" si="4"/>
         <v>1.2704944125009365</v>
       </c>
       <c r="S17">
-        <f>$B13/I13</f>
+        <f t="shared" si="4"/>
         <v>0.54240107315700514</v>
       </c>
       <c r="T17">
-        <f>$B13/J13</f>
+        <f t="shared" si="4"/>
         <v>0.19113079856028375</v>
       </c>
     </row>
@@ -2229,39 +2229,39 @@
         <v>31778758717</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L4:L27" si="0">$B18/B18</f>
+        <f t="shared" ref="L18:L27" si="5">$B18/B18</f>
         <v>1</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M3:T18" si="1">$B18/C18</f>
+        <f t="shared" ref="M18:T18" si="6">$B18/C18</f>
         <v>1.6649490127346414</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.8695353032200774</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.7749307429298642</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.2013074336083407</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.4851613200300022</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4.2513612964230854</v>
       </c>
       <c r="S18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.8086270508916074</v>
       </c>
       <c r="T18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.168034596616998</v>
       </c>
     </row>
@@ -2297,39 +2297,39 @@
         <v>1320734851</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M19">
-        <f t="shared" ref="M19:M27" si="2">$B19/C19</f>
+        <f t="shared" ref="M19:M27" si="7">$B19/C19</f>
         <v>1.7642519674958355</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N27" si="3">$B19/D19</f>
+        <f t="shared" ref="N19:N27" si="8">$B19/D19</f>
         <v>2.7641502696292677</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O27" si="4">$B19/E19</f>
+        <f t="shared" ref="O19:O27" si="9">$B19/E19</f>
         <v>3.3500272696455267</v>
       </c>
       <c r="P19">
-        <f t="shared" ref="P19:P27" si="5">$B19/F19</f>
+        <f t="shared" ref="P19:P27" si="10">$B19/F19</f>
         <v>3.7812816615501168</v>
       </c>
       <c r="Q19">
-        <f t="shared" ref="Q19:Q27" si="6">$B19/G19</f>
+        <f t="shared" ref="Q19:Q27" si="11">$B19/G19</f>
         <v>4.3590698329409205</v>
       </c>
       <c r="R19">
-        <f t="shared" ref="R19:R27" si="7">$B19/H19</f>
+        <f t="shared" ref="R19:R27" si="12">$B19/H19</f>
         <v>7.7521743701094108</v>
       </c>
       <c r="S19">
-        <f t="shared" ref="S19:S27" si="8">$B19/I19</f>
+        <f t="shared" ref="S19:S27" si="13">$B19/I19</f>
         <v>5.8445783771154174</v>
       </c>
       <c r="T19">
-        <f t="shared" ref="T19:T27" si="9">$B19/J19</f>
+        <f t="shared" ref="T19:T27" si="14">$B19/J19</f>
         <v>6.8593016540304808</v>
       </c>
     </row>
@@ -2365,39 +2365,39 @@
         <v>177837863</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.9330411767551368</v>
       </c>
       <c r="N20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.5186465862950085</v>
       </c>
       <c r="O20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6.1444382386218379</v>
       </c>
       <c r="P20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.9417585123612771</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>13.238410933561585</v>
       </c>
       <c r="R20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>12.860663371689645</v>
       </c>
       <c r="S20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>12.160993982925859</v>
       </c>
       <c r="T20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>10.682445863623542</v>
       </c>
     </row>
@@ -2433,39 +2433,39 @@
         <v>281316431</v>
       </c>
       <c r="L21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.5205256202042521</v>
       </c>
       <c r="N21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.1362719196940336</v>
       </c>
       <c r="O21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5.0370720210662991</v>
       </c>
       <c r="P21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.8833620134862117</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.3438572963850444</v>
       </c>
       <c r="R21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4.0465458654831856</v>
       </c>
       <c r="S21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3.9787506634366174</v>
       </c>
       <c r="T21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.8994067609225427</v>
       </c>
     </row>
@@ -2474,39 +2474,39 @@
         <v>19</v>
       </c>
       <c r="L22" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q22" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R22" t="e">
+      <c r="M22" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S22" t="e">
+      <c r="N22" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O22" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T22" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2542,39 +2542,39 @@
         <v>29384015611</v>
       </c>
       <c r="L23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.846600544205808</v>
       </c>
       <c r="N23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.402246779126552</v>
       </c>
       <c r="O23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.5874242933346445</v>
       </c>
       <c r="P23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.5509040673030694</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.0627501248695048</v>
       </c>
       <c r="R23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.9272006156868686</v>
       </c>
       <c r="S23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3.3298597357731539</v>
       </c>
       <c r="T23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.8116192244014528</v>
       </c>
     </row>
@@ -2610,39 +2610,39 @@
         <v>1026518519</v>
       </c>
       <c r="L24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.8824312752461669</v>
       </c>
       <c r="N24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.8482162944290859</v>
       </c>
       <c r="O24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3.359431236067163</v>
       </c>
       <c r="P24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.8000251284549051</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.8756506034618328</v>
       </c>
       <c r="R24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.2420875615055627</v>
       </c>
       <c r="S24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>5.569610097721398</v>
       </c>
       <c r="T24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4.4313942396591095</v>
       </c>
     </row>
@@ -2678,39 +2678,39 @@
         <v>172827502</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.8714893623536857</v>
       </c>
       <c r="N25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.472990799753009</v>
       </c>
       <c r="O25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5.9379900750370957</v>
       </c>
       <c r="P25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.9721661233994272</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>11.993021674479024</v>
       </c>
       <c r="R25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>11.295363148322332</v>
       </c>
       <c r="S25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>11.467574204837357</v>
       </c>
       <c r="T25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8.359320491712019</v>
       </c>
     </row>
@@ -2746,39 +2746,39 @@
         <v>308265183</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.73265924799206894</v>
       </c>
       <c r="N26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.6772795148833481</v>
       </c>
       <c r="O26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3.0802231584974882</v>
       </c>
       <c r="P26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.8680800458824183</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.108231224262207</v>
       </c>
       <c r="R26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.8235671274238019</v>
       </c>
       <c r="S26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4.0252372653149555</v>
       </c>
       <c r="T26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.7259276082437114</v>
       </c>
     </row>
@@ -2808,39 +2808,39 @@
         <v>176068091163</v>
       </c>
       <c r="L27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M27" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6.4173860677281622</v>
       </c>
       <c r="P27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>19.773705677340828</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>19.773705677340828</v>
       </c>
       <c r="R27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>36.338548138103597</v>
       </c>
       <c r="S27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>27.825207384974483</v>
       </c>
       <c r="T27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>18.405978485703155</v>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
   <dimension ref="A2:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -30,6 +30,7 @@
     <definedName name="results" localSheetId="3">'SIFT-DOG pthread'!$A$1:$H$140</definedName>
     <definedName name="results_1" localSheetId="6">'IME-SAD omp'!$A$1:$H$180</definedName>
     <definedName name="results_1" localSheetId="4">'SIFT-DOG omp'!$A$1:$H$180</definedName>
+    <definedName name="results_2" localSheetId="6">'IME-SAD omp'!$A$1:$H$180</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -127,6 +128,20 @@
     </textPr>
   </connection>
   <connection id="7" name="results32" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="\\psf\Dropbox\courses\cs758programming_multicore_processors\cs758workloads\conv-engine\omp\ime-sad\results.txt" space="1" consecutive="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="results33" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="\\psf\Dropbox\courses\cs758programming_multicore_processors\cs758workloads\conv-engine\omp\ime-sad\results.txt" space="1" consecutive="1">
       <textFields count="8">
         <textField/>
@@ -3032,6 +3047,955 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pthread_godel!$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pool1p_pthread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthread_godel!$M$2:$U$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pthread_godel!$M$11:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5725972526062355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0415726541381267</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0954182213395414</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7542067996036752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48646258974900208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28728737118916592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16455058887670584</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1153820882839812E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pthread_godel!$L$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pool3p_pthread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthread_godel!$M$2:$U$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pthread_godel!$M$12:$U$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85100089745082863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71084975099893699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34995052311679714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19195849596151551</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11737253002940934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4707854933156922E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0574629184652351E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5181182188973956E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pthread_godel!$L$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pool5p_pthread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthread_godel!$M$2:$U$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pthread_godel!$M$13:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8169186778692612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0568080027572484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8733352587757865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9121425410085475</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1912228794791528</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4365403263600787</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91960730515589417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52963056312905876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pthread_godel!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pool1_pthread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthread_godel!$M$2:$U$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pthread_godel!$M$14:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6846787813054955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1931524892660379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5471354730071165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96777788327598369</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67284286507867008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43689786376025463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21478265378587938</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11797037691217005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pthread_godel!$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pool3_pthread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthread_godel!$M$2:$U$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pthread_godel!$M$15:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92597292092731642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58753167956852193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34966684973691037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17967107130650384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10176550411669717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2959782350308821E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6290224191353549E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3331917271923921E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pthread_godel!$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pool5_pthread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthread_godel!$M$2:$U$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pthread_godel!$M$16:$U$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8976648749554568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3254837051502903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7899728534173542</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3570141494246601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0950387293151644</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4986612120769729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94737263420941853</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52450092849938834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pthread_godel!$L$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pool6_pthread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>pthread_godel!$M$2:$U$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pthread_godel!$M$17:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8669735591512362</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1820198498321224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1413942938785047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0070908019339737</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0526572892898787</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.484586621554123</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93118475999674888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.531454368290321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="254012496"/>
+        <c:axId val="254015296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="254012496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254015296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="254015296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254012496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -5669,7 +6633,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6316,7 +7280,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6963,7 +7927,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7610,7 +8574,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8246,7 +9210,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8369,28 +9333,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83517573520213195</c:v>
+                  <c:v>0.28939195076887475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97620971643709331</c:v>
+                  <c:v>0.16927365322144017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81103249283302081</c:v>
+                  <c:v>9.3494472427552822E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97485305691317514</c:v>
+                  <c:v>4.7185845779078181E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80226940310934336</c:v>
+                  <c:v>2.3395098247837566E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79726577109052299</c:v>
+                  <c:v>1.2394146174675109E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0074270291070515</c:v>
+                  <c:v>5.0330625259197561E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95562120636281533</c:v>
+                  <c:v>1.9790186635964243E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8469,28 +9433,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7964411631078725</c:v>
+                  <c:v>1.4883156934744521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77363985319213135</c:v>
+                  <c:v>1.6784034318501677</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81704035384048723</c:v>
+                  <c:v>1.1954484643796217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78595908683304361</c:v>
+                  <c:v>0.71656915190175452</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99378512684997555</c:v>
+                  <c:v>0.36602938450950462</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0164501964759531</c:v>
+                  <c:v>0.18650130048505228</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98057492398208368</c:v>
+                  <c:v>7.7421306859909333E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80378251916664567</c:v>
+                  <c:v>3.11698887143145E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8569,28 +9533,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9352289950349828</c:v>
+                  <c:v>1.8703996122442992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98970661517945968</c:v>
+                  <c:v>3.2702612603844283</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97617926032751456</c:v>
+                  <c:v>4.6326751565687081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83481752587553881</c:v>
+                  <c:v>4.6081471968184466</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88132149280393268</c:v>
+                  <c:v>3.1703042933122769</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81894709694398504</c:v>
+                  <c:v>1.9903845597848957</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83680334284021685</c:v>
+                  <c:v>1.0522199933564251</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81717921254936665</c:v>
+                  <c:v>0.46964650684469855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8669,28 +9633,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98022200796754633</c:v>
+                  <c:v>1.9879401308808013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9796409158653665</c:v>
+                  <c:v>3.9420211008206212</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9793437850008585</c:v>
+                  <c:v>7.614528283848875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99377807818181918</c:v>
+                  <c:v>13.571983566287329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9663208152678604</c:v>
+                  <c:v>13.861376231815902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0217056639752791</c:v>
+                  <c:v>12.405226327876129</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99005493923764887</c:v>
+                  <c:v>8.5548078573289299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0020469069661928</c:v>
+                  <c:v>4.6014914880416873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8893,7 +9857,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9015,28 +9979,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83517573520213195</c:v>
+                  <c:v>0.28939195076887475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97620971643709331</c:v>
+                  <c:v>0.16927365322144017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81103249283302081</c:v>
+                  <c:v>9.3494472427552822E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97485305691317514</c:v>
+                  <c:v>4.7185845779078181E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80226940310934336</c:v>
+                  <c:v>2.3395098247837566E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79726577109052299</c:v>
+                  <c:v>1.2394146174675109E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0074270291070515</c:v>
+                  <c:v>5.0330625259197561E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95562120636281533</c:v>
+                  <c:v>1.9790186635964243E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9112,28 +10076,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7964411631078725</c:v>
+                  <c:v>1.4883156934744521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77363985319213135</c:v>
+                  <c:v>1.6784034318501677</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81704035384048723</c:v>
+                  <c:v>1.1954484643796217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78595908683304361</c:v>
+                  <c:v>0.71656915190175452</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99378512684997555</c:v>
+                  <c:v>0.36602938450950462</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0164501964759531</c:v>
+                  <c:v>0.18650130048505228</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98057492398208368</c:v>
+                  <c:v>7.7421306859909333E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80378251916664567</c:v>
+                  <c:v>3.11698887143145E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9209,28 +10173,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9352289950349828</c:v>
+                  <c:v>1.8703996122442992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98970661517945968</c:v>
+                  <c:v>3.2702612603844283</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97617926032751456</c:v>
+                  <c:v>4.6326751565687081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83481752587553881</c:v>
+                  <c:v>4.6081471968184466</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88132149280393268</c:v>
+                  <c:v>3.1703042933122769</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81894709694398504</c:v>
+                  <c:v>1.9903845597848957</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83680334284021685</c:v>
+                  <c:v>1.0522199933564251</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81717921254936665</c:v>
+                  <c:v>0.46964650684469855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9306,28 +10270,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98022200796754633</c:v>
+                  <c:v>1.9879401308808013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9796409158653665</c:v>
+                  <c:v>3.9420211008206212</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9793437850008585</c:v>
+                  <c:v>7.614528283848875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99377807818181918</c:v>
+                  <c:v>13.571983566287329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9663208152678604</c:v>
+                  <c:v>13.861376231815902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0217056639752791</c:v>
+                  <c:v>12.405226327876129</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99005493923764887</c:v>
+                  <c:v>8.5548078573289299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0020469069661928</c:v>
+                  <c:v>4.6014914880416873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9810,6 +10774,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13977,20 +14981,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14004,6 +15524,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14447,10 +15997,14 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -15285,7 +16839,7 @@
   <dimension ref="A2:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:U25"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34679,7 +36233,7 @@
   <dimension ref="A1:S180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection sqref="A1:H180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34721,7 +36275,7 @@
         <v>1</v>
       </c>
       <c r="H1">
-        <v>44246114</v>
+        <v>80059</v>
       </c>
       <c r="K1" t="s">
         <v>57</v>
@@ -34753,7 +36307,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>41545080</v>
+        <v>82546</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -34809,7 +36363,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>35406700</v>
+        <v>80038</v>
       </c>
       <c r="I3" t="s">
         <v>58</v>
@@ -34819,39 +36373,39 @@
       </c>
       <c r="K3">
         <f ca="1">MIN(OFFSET($H1,(COLUMN()-11)*5,0,1,1):OFFSET($H1,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>32091722</v>
+        <v>80038</v>
       </c>
       <c r="L3">
         <f ca="1">MIN(OFFSET($H1,(COLUMN()-11)*5,0,1,1):OFFSET($H1,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>38425113</v>
+        <v>276573</v>
       </c>
       <c r="M3">
         <f ca="1">MIN(OFFSET($H1,(COLUMN()-11)*5,0,1,1):OFFSET($H1,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>32873799</v>
+        <v>472832</v>
       </c>
       <c r="N3">
         <f ca="1">MIN(OFFSET($H1,(COLUMN()-11)*5,0,1,1):OFFSET($H1,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>39568972</v>
+        <v>856072</v>
       </c>
       <c r="O3">
         <f ca="1">MIN(OFFSET($H1,(COLUMN()-11)*5,0,1,1):OFFSET($H1,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>32919548</v>
+        <v>1696229</v>
       </c>
       <c r="P3">
         <f ca="1">MIN(OFFSET($H1,(COLUMN()-11)*5,0,1,1):OFFSET($H1,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>40001179</v>
+        <v>3421144</v>
       </c>
       <c r="Q3">
         <f ca="1">MIN(OFFSET($H1,(COLUMN()-11)*5,0,1,1):OFFSET($H1,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>40252226</v>
+        <v>6457726</v>
       </c>
       <c r="R3">
         <f ca="1">MIN(OFFSET($H1,(COLUMN()-11)*5,0,1,1):OFFSET($H1,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>31855133</v>
+        <v>15902445</v>
       </c>
       <c r="S3">
         <f ca="1">MIN(OFFSET($H1,(COLUMN()-11)*5,0,1,1):OFFSET($H1,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>33582053</v>
+        <v>40443277</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -34880,46 +36434,46 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>37943205</v>
+        <v>84290</v>
       </c>
       <c r="J4" t="s">
         <v>60</v>
       </c>
       <c r="K4">
         <f ca="1">MIN(OFFSET($H46,(COLUMN()-11)*5,0,1,1):OFFSET($H46,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>31678327</v>
+        <v>1240273</v>
       </c>
       <c r="L4">
         <f ca="1">MIN(OFFSET($H46,(COLUMN()-11)*5,0,1,1):OFFSET($H46,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>39774849</v>
+        <v>833340</v>
       </c>
       <c r="M4">
         <f ca="1">MIN(OFFSET($H46,(COLUMN()-11)*5,0,1,1):OFFSET($H46,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>40947124</v>
+        <v>738960</v>
       </c>
       <c r="N4">
         <f ca="1">MIN(OFFSET($H46,(COLUMN()-11)*5,0,1,1):OFFSET($H46,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>38772047</v>
+        <v>1037496</v>
       </c>
       <c r="O4">
         <f ca="1">MIN(OFFSET($H46,(COLUMN()-11)*5,0,1,1):OFFSET($H46,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>40305313</v>
+        <v>1730849</v>
       </c>
       <c r="P4">
         <f ca="1">MIN(OFFSET($H46,(COLUMN()-11)*5,0,1,1):OFFSET($H46,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>31876435</v>
+        <v>3388452</v>
       </c>
       <c r="Q4">
         <f ca="1">MIN(OFFSET($H46,(COLUMN()-11)*5,0,1,1):OFFSET($H46,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>31165646</v>
+        <v>6650211</v>
       </c>
       <c r="R4">
         <f ca="1">MIN(OFFSET($H46,(COLUMN()-11)*5,0,1,1):OFFSET($H46,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>32305871</v>
+        <v>16019789</v>
       </c>
       <c r="S4">
         <f ca="1">MIN(OFFSET($H46,(COLUMN()-11)*5,0,1,1):OFFSET($H46,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>39411565</v>
+        <v>39790742</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -34948,46 +36502,46 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>32091722</v>
+        <v>81364</v>
       </c>
       <c r="J5" t="s">
         <v>61</v>
       </c>
       <c r="K5">
         <f ca="1">MIN(OFFSET($H91,(COLUMN()-11)*5,0,1,1):OFFSET($H91,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>32611407</v>
+        <v>15489720</v>
       </c>
       <c r="L5">
         <f ca="1">MIN(OFFSET($H91,(COLUMN()-11)*5,0,1,1):OFFSET($H91,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>34869970</v>
+        <v>8281503</v>
       </c>
       <c r="M5">
         <f ca="1">MIN(OFFSET($H91,(COLUMN()-11)*5,0,1,1):OFFSET($H91,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>32950580</v>
+        <v>4736539</v>
       </c>
       <c r="N5">
         <f ca="1">MIN(OFFSET($H91,(COLUMN()-11)*5,0,1,1):OFFSET($H91,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>33407191</v>
+        <v>3343580</v>
       </c>
       <c r="O5">
         <f ca="1">MIN(OFFSET($H91,(COLUMN()-11)*5,0,1,1):OFFSET($H91,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>39064114</v>
+        <v>3361377</v>
       </c>
       <c r="P5">
         <f ca="1">MIN(OFFSET($H91,(COLUMN()-11)*5,0,1,1):OFFSET($H91,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>37002850</v>
+        <v>4885878</v>
       </c>
       <c r="Q5">
         <f ca="1">MIN(OFFSET($H91,(COLUMN()-11)*5,0,1,1):OFFSET($H91,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>39821140</v>
+        <v>7782275</v>
       </c>
       <c r="R5">
         <f ca="1">MIN(OFFSET($H91,(COLUMN()-11)*5,0,1,1):OFFSET($H91,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>38971411</v>
+        <v>14720990</v>
       </c>
       <c r="S5">
         <f ca="1">MIN(OFFSET($H91,(COLUMN()-11)*5,0,1,1):OFFSET($H91,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>39907289</v>
+        <v>32981657</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -35016,46 +36570,46 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>40591614</v>
+        <v>277511</v>
       </c>
       <c r="J6" t="s">
         <v>62</v>
       </c>
       <c r="K6">
         <f ca="1">MIN(OFFSET($H136,(COLUMN()-11)*5,0,1,1):OFFSET($H136,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>42117745</v>
+        <v>232734600</v>
       </c>
       <c r="L6">
         <f ca="1">MIN(OFFSET($H136,(COLUMN()-11)*5,0,1,1):OFFSET($H136,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>42967557</v>
+        <v>117073244</v>
       </c>
       <c r="M6">
         <f ca="1">MIN(OFFSET($H136,(COLUMN()-11)*5,0,1,1):OFFSET($H136,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>42993044</v>
+        <v>59039410</v>
       </c>
       <c r="N6">
         <f ca="1">MIN(OFFSET($H136,(COLUMN()-11)*5,0,1,1):OFFSET($H136,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>43006088</v>
+        <v>30564546</v>
       </c>
       <c r="O6">
         <f ca="1">MIN(OFFSET($H136,(COLUMN()-11)*5,0,1,1):OFFSET($H136,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>42381439</v>
+        <v>17148164</v>
       </c>
       <c r="P6">
         <f ca="1">MIN(OFFSET($H136,(COLUMN()-11)*5,0,1,1):OFFSET($H136,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>43585675</v>
+        <v>16790151</v>
       </c>
       <c r="Q6">
         <f ca="1">MIN(OFFSET($H136,(COLUMN()-11)*5,0,1,1):OFFSET($H136,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>41222973</v>
+        <v>18761012</v>
       </c>
       <c r="R6">
         <f ca="1">MIN(OFFSET($H136,(COLUMN()-11)*5,0,1,1):OFFSET($H136,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>42540816</v>
+        <v>27205123</v>
       </c>
       <c r="S6">
         <f ca="1">MIN(OFFSET($H136,(COLUMN()-11)*5,0,1,1):OFFSET($H136,(COLUMN()+1-11)*5-1,0,1,1))</f>
-        <v>42031710</v>
+        <v>50578079</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -35084,7 +36638,7 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>38425113</v>
+        <v>277867</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -35113,7 +36667,7 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>41766690</v>
+        <v>283648</v>
       </c>
       <c r="K8">
         <f>COLUMN()</f>
@@ -35146,7 +36700,7 @@
         <v>2</v>
       </c>
       <c r="H9">
-        <v>40183867</v>
+        <v>276573</v>
       </c>
       <c r="K9">
         <f>ROW()</f>
@@ -35183,7 +36737,7 @@
         <v>2</v>
       </c>
       <c r="H10">
-        <v>41397628</v>
+        <v>328882</v>
       </c>
       <c r="M10" t="e">
         <f ca="1">B(column-5)</f>
@@ -35216,7 +36770,7 @@
         <v>4</v>
       </c>
       <c r="H11">
-        <v>41686756</v>
+        <v>472832</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -35245,7 +36799,7 @@
         <v>4</v>
       </c>
       <c r="H12">
-        <v>41712472</v>
+        <v>482721</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -35274,7 +36828,7 @@
         <v>4</v>
       </c>
       <c r="H13">
-        <v>32873799</v>
+        <v>481864</v>
       </c>
       <c r="K13" t="s">
         <v>63</v>
@@ -35306,7 +36860,7 @@
         <v>4</v>
       </c>
       <c r="H14">
-        <v>40615858</v>
+        <v>490051</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -35335,7 +36889,7 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>42743421</v>
+        <v>535794</v>
       </c>
       <c r="K15">
         <f t="shared" ref="K15:S15" si="0">K2</f>
@@ -35400,7 +36954,7 @@
         <v>8</v>
       </c>
       <c r="H16">
-        <v>41048029</v>
+        <v>856072</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" ref="J16:S19" si="1">J3</f>
@@ -35412,35 +36966,35 @@
       </c>
       <c r="L16">
         <f t="shared" ref="L16:S16" ca="1" si="2">$K3/L3</f>
-        <v>0.83517573520213195</v>
+        <v>0.28939195076887475</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97620971643709331</v>
+        <v>0.16927365322144017</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81103249283302081</v>
+        <v>9.3494472427552822E-2</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97485305691317514</v>
+        <v>4.7185845779078181E-2</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80226940310934336</v>
+        <v>2.3395098247837566E-2</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79726577109052299</v>
+        <v>1.2394146174675109E-2</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0074270291070515</v>
+        <v>5.0330625259197561E-3</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95562120636281533</v>
+        <v>1.9790186635964243E-3</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -35469,7 +37023,7 @@
         <v>8</v>
       </c>
       <c r="H17">
-        <v>40103573</v>
+        <v>903957</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="1"/>
@@ -35481,35 +37035,35 @@
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7964411631078725</v>
+        <v>1.4883156934744521</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77363985319213135</v>
+        <v>1.6784034318501677</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81704035384048723</v>
+        <v>1.1954484643796217</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78595908683304361</v>
+        <v>0.71656915190175452</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99378512684997555</v>
+        <v>0.36602938450950462</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0164501964759531</v>
+        <v>0.18650130048505228</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98057492398208368</v>
+        <v>7.7421306859909333E-2</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80378251916664567</v>
+        <v>3.11698887143145E-2</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -35538,7 +37092,7 @@
         <v>8</v>
       </c>
       <c r="H18">
-        <v>40056493</v>
+        <v>928679</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="1"/>
@@ -35550,35 +37104,35 @@
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9352289950349828</v>
+        <v>1.8703996122442992</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98970661517945968</v>
+        <v>3.2702612603844283</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97617926032751456</v>
+        <v>4.6326751565687081</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83481752587553881</v>
+        <v>4.6081471968184466</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88132149280393268</v>
+        <v>3.1703042933122769</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81894709694398504</v>
+        <v>1.9903845597848957</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83680334284021685</v>
+        <v>1.0522199933564251</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81717921254936665</v>
+        <v>0.46964650684469855</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -35607,7 +37161,7 @@
         <v>8</v>
       </c>
       <c r="H19">
-        <v>42071331</v>
+        <v>925366</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="1"/>
@@ -35619,35 +37173,35 @@
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98022200796754633</v>
+        <v>1.9879401308808013</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9796409158653665</v>
+        <v>3.9420211008206212</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9793437850008585</v>
+        <v>7.614528283848875</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99377807818181918</v>
+        <v>13.571983566287329</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9663208152678604</v>
+        <v>13.861376231815902</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0217056639752791</v>
+        <v>12.405226327876129</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99005493923764887</v>
+        <v>8.5548078573289299</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0020469069661928</v>
+        <v>4.6014914880416873</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -35676,7 +37230,7 @@
         <v>8</v>
       </c>
       <c r="H20">
-        <v>39568972</v>
+        <v>912500</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -35705,7 +37259,7 @@
         <v>16</v>
       </c>
       <c r="H21">
-        <v>41094314</v>
+        <v>1731668</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -35734,7 +37288,7 @@
         <v>16</v>
       </c>
       <c r="H22">
-        <v>40786904</v>
+        <v>1782693</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -35763,7 +37317,7 @@
         <v>16</v>
       </c>
       <c r="H23">
-        <v>32919548</v>
+        <v>1853180</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -35792,7 +37346,7 @@
         <v>16</v>
       </c>
       <c r="H24">
-        <v>47470400</v>
+        <v>1782763</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -35821,7 +37375,7 @@
         <v>16</v>
       </c>
       <c r="H25">
-        <v>41180607</v>
+        <v>1696229</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -35850,7 +37404,7 @@
         <v>32</v>
       </c>
       <c r="H26">
-        <v>40001179</v>
+        <v>3446012</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -35879,7 +37433,7 @@
         <v>32</v>
       </c>
       <c r="H27">
-        <v>48102934</v>
+        <v>3432325</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -35908,7 +37462,7 @@
         <v>32</v>
       </c>
       <c r="H28">
-        <v>41706180</v>
+        <v>3444058</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -35937,7 +37491,7 @@
         <v>32</v>
       </c>
       <c r="H29">
-        <v>40823541</v>
+        <v>3539768</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -35966,7 +37520,7 @@
         <v>32</v>
       </c>
       <c r="H30">
-        <v>41771162</v>
+        <v>3421144</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -35995,7 +37549,7 @@
         <v>64</v>
       </c>
       <c r="H31">
-        <v>42015500</v>
+        <v>6999151</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -36024,7 +37578,7 @@
         <v>64</v>
       </c>
       <c r="H32">
-        <v>42368090</v>
+        <v>7845778</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -36053,7 +37607,7 @@
         <v>64</v>
       </c>
       <c r="H33">
-        <v>40427236</v>
+        <v>6750240</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -36082,7 +37636,7 @@
         <v>64</v>
       </c>
       <c r="H34">
-        <v>40252226</v>
+        <v>6457726</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -36111,7 +37665,7 @@
         <v>64</v>
       </c>
       <c r="H35">
-        <v>41133300</v>
+        <v>6818228</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -36140,7 +37694,7 @@
         <v>128</v>
       </c>
       <c r="H36">
-        <v>40729609</v>
+        <v>16550093</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -36169,7 +37723,7 @@
         <v>128</v>
       </c>
       <c r="H37">
-        <v>36483016</v>
+        <v>16350384</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -36198,7 +37752,7 @@
         <v>128</v>
       </c>
       <c r="H38">
-        <v>31855133</v>
+        <v>15994721</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -36227,7 +37781,7 @@
         <v>128</v>
       </c>
       <c r="H39">
-        <v>40721133</v>
+        <v>16195241</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -36256,7 +37810,7 @@
         <v>128</v>
       </c>
       <c r="H40">
-        <v>32243285</v>
+        <v>15902445</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -36285,7 +37839,7 @@
         <v>256</v>
       </c>
       <c r="H41">
-        <v>40473351</v>
+        <v>40663851</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -36314,7 +37868,7 @@
         <v>256</v>
       </c>
       <c r="H42">
-        <v>41033987</v>
+        <v>40443277</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -36343,7 +37897,7 @@
         <v>256</v>
       </c>
       <c r="H43">
-        <v>33582053</v>
+        <v>41961944</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -36372,7 +37926,7 @@
         <v>256</v>
       </c>
       <c r="H44">
-        <v>40948466</v>
+        <v>40447615</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -36401,7 +37955,7 @@
         <v>256</v>
       </c>
       <c r="H45">
-        <v>39618158</v>
+        <v>41489594</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -36430,7 +37984,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>39165220</v>
+        <v>1260364</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -36459,7 +38013,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>32688561</v>
+        <v>1285487</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -36488,7 +38042,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>40754383</v>
+        <v>1245650</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -36517,7 +38071,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>31678327</v>
+        <v>1246198</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -36546,7 +38100,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>47686318</v>
+        <v>1240273</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -36575,7 +38129,7 @@
         <v>2</v>
       </c>
       <c r="H51">
-        <v>41706163</v>
+        <v>872682</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -36604,7 +38158,7 @@
         <v>2</v>
       </c>
       <c r="H52">
-        <v>40094197</v>
+        <v>885079</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -36633,7 +38187,7 @@
         <v>2</v>
       </c>
       <c r="H53">
-        <v>39774849</v>
+        <v>889398</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -36662,7 +38216,7 @@
         <v>2</v>
       </c>
       <c r="H54">
-        <v>40663626</v>
+        <v>909768</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -36691,7 +38245,7 @@
         <v>2</v>
       </c>
       <c r="H55">
-        <v>41365061</v>
+        <v>833340</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -36720,7 +38274,7 @@
         <v>4</v>
       </c>
       <c r="H56">
-        <v>47671503</v>
+        <v>765960</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -36749,7 +38303,7 @@
         <v>4</v>
       </c>
       <c r="H57">
-        <v>41512811</v>
+        <v>840541</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -36778,7 +38332,7 @@
         <v>4</v>
       </c>
       <c r="H58">
-        <v>41358155</v>
+        <v>862139</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -36807,7 +38361,7 @@
         <v>4</v>
       </c>
       <c r="H59">
-        <v>41706513</v>
+        <v>802234</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -36836,7 +38390,7 @@
         <v>4</v>
       </c>
       <c r="H60">
-        <v>40947124</v>
+        <v>738960</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -36865,7 +38419,7 @@
         <v>8</v>
       </c>
       <c r="H61">
-        <v>38772047</v>
+        <v>1053643</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -36894,7 +38448,7 @@
         <v>8</v>
       </c>
       <c r="H62">
-        <v>41428640</v>
+        <v>1053136</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -36923,7 +38477,7 @@
         <v>8</v>
       </c>
       <c r="H63">
-        <v>40438688</v>
+        <v>1042241</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -36952,7 +38506,7 @@
         <v>8</v>
       </c>
       <c r="H64">
-        <v>40440230</v>
+        <v>1037496</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -36981,7 +38535,7 @@
         <v>8</v>
       </c>
       <c r="H65">
-        <v>41296527</v>
+        <v>1077552</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -37010,7 +38564,7 @@
         <v>16</v>
       </c>
       <c r="H66">
-        <v>40770906</v>
+        <v>2617613</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -37039,7 +38593,7 @@
         <v>16</v>
       </c>
       <c r="H67">
-        <v>41410204</v>
+        <v>1828233</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -37068,7 +38622,7 @@
         <v>16</v>
       </c>
       <c r="H68">
-        <v>40305313</v>
+        <v>1805084</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -37097,7 +38651,7 @@
         <v>16</v>
       </c>
       <c r="H69">
-        <v>42340628</v>
+        <v>1860848</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -37126,7 +38680,7 @@
         <v>16</v>
       </c>
       <c r="H70">
-        <v>41149123</v>
+        <v>1730849</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -37155,7 +38709,7 @@
         <v>32</v>
       </c>
       <c r="H71">
-        <v>40142040</v>
+        <v>3388452</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -37184,7 +38738,7 @@
         <v>32</v>
       </c>
       <c r="H72">
-        <v>40875600</v>
+        <v>3626349</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -37213,7 +38767,7 @@
         <v>32</v>
       </c>
       <c r="H73">
-        <v>31876435</v>
+        <v>3620950</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -37242,7 +38796,7 @@
         <v>32</v>
       </c>
       <c r="H74">
-        <v>40399790</v>
+        <v>3503615</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -37271,7 +38825,7 @@
         <v>32</v>
       </c>
       <c r="H75">
-        <v>41759717</v>
+        <v>3590468</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -37300,7 +38854,7 @@
         <v>64</v>
       </c>
       <c r="H76">
-        <v>40026715</v>
+        <v>6738485</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -37329,7 +38883,7 @@
         <v>64</v>
       </c>
       <c r="H77">
-        <v>42038662</v>
+        <v>6898595</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -37358,7 +38912,7 @@
         <v>64</v>
       </c>
       <c r="H78">
-        <v>40392070</v>
+        <v>6650211</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -37387,7 +38941,7 @@
         <v>64</v>
       </c>
       <c r="H79">
-        <v>41937656</v>
+        <v>6872296</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -37416,7 +38970,7 @@
         <v>64</v>
       </c>
       <c r="H80">
-        <v>31165646</v>
+        <v>6905021</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -37445,7 +38999,7 @@
         <v>128</v>
       </c>
       <c r="H81">
-        <v>41352304</v>
+        <v>17053568</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -37474,7 +39028,7 @@
         <v>128</v>
       </c>
       <c r="H82">
-        <v>38989127</v>
+        <v>16457348</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -37503,7 +39057,7 @@
         <v>128</v>
       </c>
       <c r="H83">
-        <v>39984278</v>
+        <v>16298061</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -37532,7 +39086,7 @@
         <v>128</v>
       </c>
       <c r="H84">
-        <v>38558105</v>
+        <v>16076501</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -37561,7 +39115,7 @@
         <v>128</v>
       </c>
       <c r="H85">
-        <v>32305871</v>
+        <v>16019789</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -37590,7 +39144,7 @@
         <v>256</v>
       </c>
       <c r="H86">
-        <v>41175090</v>
+        <v>41754468</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -37619,7 +39173,7 @@
         <v>256</v>
       </c>
       <c r="H87">
-        <v>39774981</v>
+        <v>39790742</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -37648,7 +39202,7 @@
         <v>256</v>
       </c>
       <c r="H88">
-        <v>39809496</v>
+        <v>42562845</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -37677,7 +39231,7 @@
         <v>256</v>
       </c>
       <c r="H89">
-        <v>39411565</v>
+        <v>41174611</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -37706,7 +39260,7 @@
         <v>256</v>
       </c>
       <c r="H90">
-        <v>47464610</v>
+        <v>48578495</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -37735,7 +39289,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>39770295</v>
+        <v>15489720</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -37764,7 +39318,7 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>32611407</v>
+        <v>15860997</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -37793,7 +39347,7 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>40234574</v>
+        <v>16117678</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -37822,7 +39376,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>39983377</v>
+        <v>15573802</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -37851,7 +39405,7 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>40162052</v>
+        <v>16201525</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -37880,7 +39434,7 @@
         <v>2</v>
       </c>
       <c r="H96">
-        <v>34869970</v>
+        <v>8640125</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -37909,7 +39463,7 @@
         <v>2</v>
       </c>
       <c r="H97">
-        <v>41503054</v>
+        <v>8582136</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -37938,7 +39492,7 @@
         <v>2</v>
       </c>
       <c r="H98">
-        <v>37856950</v>
+        <v>8299400</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -37967,7 +39521,7 @@
         <v>2</v>
       </c>
       <c r="H99">
-        <v>35843208</v>
+        <v>8281503</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -37996,7 +39550,7 @@
         <v>2</v>
       </c>
       <c r="H100">
-        <v>41548983</v>
+        <v>8458350</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -38025,7 +39579,7 @@
         <v>4</v>
       </c>
       <c r="H101">
-        <v>33209334</v>
+        <v>5354327</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -38054,7 +39608,7 @@
         <v>4</v>
       </c>
       <c r="H102">
-        <v>41565830</v>
+        <v>4879380</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -38083,7 +39637,7 @@
         <v>4</v>
       </c>
       <c r="H103">
-        <v>32950580</v>
+        <v>4736539</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -38112,7 +39666,7 @@
         <v>4</v>
       </c>
       <c r="H104">
-        <v>40508287</v>
+        <v>4947960</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -38141,7 +39695,7 @@
         <v>4</v>
       </c>
       <c r="H105">
-        <v>41536478</v>
+        <v>4951313</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -38170,7 +39724,7 @@
         <v>8</v>
       </c>
       <c r="H106">
-        <v>38970140</v>
+        <v>4672866</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -38199,7 +39753,7 @@
         <v>8</v>
       </c>
       <c r="H107">
-        <v>41699980</v>
+        <v>3343580</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -38228,7 +39782,7 @@
         <v>8</v>
       </c>
       <c r="H108">
-        <v>40531562</v>
+        <v>3582141</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -38257,7 +39811,7 @@
         <v>8</v>
       </c>
       <c r="H109">
-        <v>41026414</v>
+        <v>3408737</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -38286,7 +39840,7 @@
         <v>8</v>
       </c>
       <c r="H110">
-        <v>33407191</v>
+        <v>3588263</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -38315,7 +39869,7 @@
         <v>16</v>
       </c>
       <c r="H111">
-        <v>42413695</v>
+        <v>3746465</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -38344,7 +39898,7 @@
         <v>16</v>
       </c>
       <c r="H112">
-        <v>41939303</v>
+        <v>3692635</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -38373,7 +39927,7 @@
         <v>16</v>
       </c>
       <c r="H113">
-        <v>39064114</v>
+        <v>3439705</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -38402,7 +39956,7 @@
         <v>16</v>
       </c>
       <c r="H114">
-        <v>39964138</v>
+        <v>3361377</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -38431,7 +39985,7 @@
         <v>16</v>
       </c>
       <c r="H115">
-        <v>40672645</v>
+        <v>3393426</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -38460,7 +40014,7 @@
         <v>32</v>
       </c>
       <c r="H116">
-        <v>41570585</v>
+        <v>4885878</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -38489,7 +40043,7 @@
         <v>32</v>
       </c>
       <c r="H117">
-        <v>37002850</v>
+        <v>5027002</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -38518,7 +40072,7 @@
         <v>32</v>
       </c>
       <c r="H118">
-        <v>41346730</v>
+        <v>5061477</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -38547,7 +40101,7 @@
         <v>32</v>
       </c>
       <c r="H119">
-        <v>40225490</v>
+        <v>4980998</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -38576,7 +40130,7 @@
         <v>32</v>
       </c>
       <c r="H120">
-        <v>41035827</v>
+        <v>5205811</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -38605,7 +40159,7 @@
         <v>64</v>
       </c>
       <c r="H121">
-        <v>40470728</v>
+        <v>10434376</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -38634,7 +40188,7 @@
         <v>64</v>
       </c>
       <c r="H122">
-        <v>39821140</v>
+        <v>8108366</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -38663,7 +40217,7 @@
         <v>64</v>
       </c>
       <c r="H123">
-        <v>40222694</v>
+        <v>7935304</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -38692,7 +40246,7 @@
         <v>64</v>
       </c>
       <c r="H124">
-        <v>40463653</v>
+        <v>7917069</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -38721,7 +40275,7 @@
         <v>64</v>
       </c>
       <c r="H125">
-        <v>42407690</v>
+        <v>7782275</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -38750,7 +40304,7 @@
         <v>128</v>
       </c>
       <c r="H126">
-        <v>40753956</v>
+        <v>21428011</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -38779,7 +40333,7 @@
         <v>128</v>
       </c>
       <c r="H127">
-        <v>38971411</v>
+        <v>14720990</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -38808,7 +40362,7 @@
         <v>128</v>
       </c>
       <c r="H128">
-        <v>40831015</v>
+        <v>14851480</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -38837,7 +40391,7 @@
         <v>128</v>
       </c>
       <c r="H129">
-        <v>39662343</v>
+        <v>14923675</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -38866,7 +40420,7 @@
         <v>128</v>
       </c>
       <c r="H130">
-        <v>40889743</v>
+        <v>16813359</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -38895,7 +40449,7 @@
         <v>256</v>
       </c>
       <c r="H131">
-        <v>40113861</v>
+        <v>40517988</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -38924,7 +40478,7 @@
         <v>256</v>
       </c>
       <c r="H132">
-        <v>41287634</v>
+        <v>40249894</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -38953,7 +40507,7 @@
         <v>256</v>
       </c>
       <c r="H133">
-        <v>42809568</v>
+        <v>35924498</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -38982,7 +40536,7 @@
         <v>256</v>
       </c>
       <c r="H134">
-        <v>39907289</v>
+        <v>32981657</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -39011,7 +40565,7 @@
         <v>256</v>
       </c>
       <c r="H135">
-        <v>40710190</v>
+        <v>38404883</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -39040,7 +40594,7 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>42117745</v>
+        <v>232734600</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -39069,7 +40623,7 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>44885760</v>
+        <v>232734600</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -39098,7 +40652,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>42117745</v>
+        <v>232734600</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -39127,7 +40681,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>42117745</v>
+        <v>232734600</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -39156,7 +40710,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>42117745</v>
+        <v>232734600</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -39185,7 +40739,7 @@
         <v>2</v>
       </c>
       <c r="H141">
-        <v>42967557</v>
+        <v>117073244</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -39214,7 +40768,7 @@
         <v>2</v>
       </c>
       <c r="H142">
-        <v>42967557</v>
+        <v>117073244</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -39243,7 +40797,7 @@
         <v>2</v>
       </c>
       <c r="H143">
-        <v>42967557</v>
+        <v>117073244</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -39272,7 +40826,7 @@
         <v>2</v>
       </c>
       <c r="H144">
-        <v>42967557</v>
+        <v>117073244</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -39301,7 +40855,7 @@
         <v>2</v>
       </c>
       <c r="H145">
-        <v>42967557</v>
+        <v>117073244</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -39330,7 +40884,7 @@
         <v>4</v>
       </c>
       <c r="H146">
-        <v>42993044</v>
+        <v>59039410</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -39359,7 +40913,7 @@
         <v>4</v>
       </c>
       <c r="H147">
-        <v>42993044</v>
+        <v>59039410</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -39388,7 +40942,7 @@
         <v>4</v>
       </c>
       <c r="H148">
-        <v>42993044</v>
+        <v>59039410</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -39417,7 +40971,7 @@
         <v>4</v>
       </c>
       <c r="H149">
-        <v>42993044</v>
+        <v>59039410</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -39446,7 +41000,7 @@
         <v>4</v>
       </c>
       <c r="H150">
-        <v>42993044</v>
+        <v>59039410</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -39475,7 +41029,7 @@
         <v>8</v>
       </c>
       <c r="H151">
-        <v>43006088</v>
+        <v>30564546</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -39504,7 +41058,7 @@
         <v>8</v>
       </c>
       <c r="H152">
-        <v>43006088</v>
+        <v>30564546</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -39533,7 +41087,7 @@
         <v>8</v>
       </c>
       <c r="H153">
-        <v>43006088</v>
+        <v>30564546</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -39562,7 +41116,7 @@
         <v>8</v>
       </c>
       <c r="H154">
-        <v>43006088</v>
+        <v>30564546</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -39591,7 +41145,7 @@
         <v>8</v>
       </c>
       <c r="H155">
-        <v>43006088</v>
+        <v>30564546</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -39620,7 +41174,7 @@
         <v>16</v>
       </c>
       <c r="H156">
-        <v>42381439</v>
+        <v>17148164</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -39649,7 +41203,7 @@
         <v>16</v>
       </c>
       <c r="H157">
-        <v>42381439</v>
+        <v>17148164</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -39678,7 +41232,7 @@
         <v>16</v>
       </c>
       <c r="H158">
-        <v>42381439</v>
+        <v>17148164</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -39707,7 +41261,7 @@
         <v>16</v>
       </c>
       <c r="H159">
-        <v>42381439</v>
+        <v>17148164</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -39736,7 +41290,7 @@
         <v>16</v>
       </c>
       <c r="H160">
-        <v>42381439</v>
+        <v>17148164</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -39765,7 +41319,7 @@
         <v>32</v>
       </c>
       <c r="H161">
-        <v>43585675</v>
+        <v>16790151</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -39794,7 +41348,7 @@
         <v>32</v>
       </c>
       <c r="H162">
-        <v>43585675</v>
+        <v>16790151</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -39823,7 +41377,7 @@
         <v>32</v>
       </c>
       <c r="H163">
-        <v>43585675</v>
+        <v>16790151</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -39852,7 +41406,7 @@
         <v>32</v>
       </c>
       <c r="H164">
-        <v>43585675</v>
+        <v>16790151</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -39881,7 +41435,7 @@
         <v>32</v>
       </c>
       <c r="H165">
-        <v>43585675</v>
+        <v>16790151</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -39910,7 +41464,7 @@
         <v>64</v>
       </c>
       <c r="H166">
-        <v>41222973</v>
+        <v>18761012</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -39939,7 +41493,7 @@
         <v>64</v>
       </c>
       <c r="H167">
-        <v>41222973</v>
+        <v>18761012</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -39968,7 +41522,7 @@
         <v>64</v>
       </c>
       <c r="H168">
-        <v>41222973</v>
+        <v>18761012</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -39997,7 +41551,7 @@
         <v>64</v>
       </c>
       <c r="H169">
-        <v>41222973</v>
+        <v>18761012</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -40026,7 +41580,7 @@
         <v>64</v>
       </c>
       <c r="H170">
-        <v>41222973</v>
+        <v>18761012</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -40055,11 +41609,11 @@
         <v>128</v>
       </c>
       <c r="H171">
-        <v>42540816</v>
+        <v>27205123</v>
       </c>
       <c r="I171">
         <f>MIN(H171:H175)</f>
-        <v>42540816</v>
+        <v>27205123</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -40088,7 +41642,7 @@
         <v>128</v>
       </c>
       <c r="H172">
-        <v>42540816</v>
+        <v>27205123</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -40117,7 +41671,7 @@
         <v>128</v>
       </c>
       <c r="H173">
-        <v>42540816</v>
+        <v>27205123</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -40146,7 +41700,7 @@
         <v>128</v>
       </c>
       <c r="H174">
-        <v>42540816</v>
+        <v>27205123</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -40175,7 +41729,7 @@
         <v>128</v>
       </c>
       <c r="H175">
-        <v>42540816</v>
+        <v>27205123</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -40204,11 +41758,11 @@
         <v>256</v>
       </c>
       <c r="H176">
-        <v>42031710</v>
+        <v>50578079</v>
       </c>
       <c r="I176">
         <f>MIN(H176:H180)</f>
-        <v>42031710</v>
+        <v>50578079</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -40237,7 +41791,7 @@
         <v>256</v>
       </c>
       <c r="H177">
-        <v>42031710</v>
+        <v>50578079</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -40266,7 +41820,7 @@
         <v>256</v>
       </c>
       <c r="H178">
-        <v>42031710</v>
+        <v>50578079</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -40295,7 +41849,7 @@
         <v>256</v>
       </c>
       <c r="H179">
-        <v>42031710</v>
+        <v>50578079</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -40324,7 +41878,7 @@
         <v>256</v>
       </c>
       <c r="H180">
-        <v>42031710</v>
+        <v>50578079</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10425" tabRatio="736" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10425" tabRatio="736" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="omp" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="ConEng pthread" sheetId="16" r:id="rId10"/>
     <sheet name="ConEng OMP graph" sheetId="12" r:id="rId11"/>
     <sheet name="pthread simulated" sheetId="17" r:id="rId12"/>
+    <sheet name="mpu queueing" sheetId="18" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="results" localSheetId="10">'ConEng OMP graph'!$A$1:$H$140</definedName>
@@ -266,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="91">
   <si>
     <t>class1_omp</t>
   </si>
@@ -522,13 +523,31 @@
   <si>
     <t>sift-dog 2048</t>
   </si>
+  <si>
+    <t>class3</t>
+  </si>
+  <si>
+    <t>class 960x960</t>
+  </si>
+  <si>
+    <t>class7 (9600000 x 20)</t>
+  </si>
+  <si>
+    <t>class8 (10240 x 10240)</t>
+  </si>
+  <si>
+    <t>class8_pthread</t>
+  </si>
+  <si>
+    <t>class8_omp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -561,7 +580,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +638,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1464,7 +1482,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$11</c:f>
+              <c:f>pthread_godel!$L$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1525,7 +1543,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$11:$U$11</c:f>
+              <c:f>pthread_godel!$M$12:$U$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1566,7 +1584,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$12</c:f>
+              <c:f>pthread_godel!$L$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1627,7 +1645,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$12:$U$12</c:f>
+              <c:f>pthread_godel!$M$13:$U$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1668,7 +1686,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$13</c:f>
+              <c:f>pthread_godel!$L$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1729,7 +1747,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$13:$U$13</c:f>
+              <c:f>pthread_godel!$M$14:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1770,7 +1788,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$14</c:f>
+              <c:f>pthread_godel!$L$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1831,7 +1849,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$14:$U$14</c:f>
+              <c:f>pthread_godel!$M$15:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1872,7 +1890,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$15</c:f>
+              <c:f>pthread_godel!$L$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1934,7 +1952,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$15:$U$15</c:f>
+              <c:f>pthread_godel!$M$16:$U$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1975,7 +1993,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$16</c:f>
+              <c:f>pthread_godel!$L$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2037,7 +2055,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$16:$U$16</c:f>
+              <c:f>pthread_godel!$M$17:$U$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2078,7 +2096,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$17</c:f>
+              <c:f>pthread_godel!$L$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2140,7 +2158,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$17:$U$17</c:f>
+              <c:f>pthread_godel!$M$18:$U$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2181,7 +2199,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$18</c:f>
+              <c:f>pthread_godel!$L$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2243,7 +2261,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$18:$U$18</c:f>
+              <c:f>pthread_godel!$M$19:$U$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2284,7 +2302,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$19</c:f>
+              <c:f>pthread_godel!$L$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2346,7 +2364,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$19:$U$19</c:f>
+              <c:f>pthread_godel!$M$20:$U$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2387,7 +2405,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$20</c:f>
+              <c:f>pthread_godel!$L$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2449,7 +2467,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$20:$U$20</c:f>
+              <c:f>pthread_godel!$M$21:$U$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2490,7 +2508,7 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$21</c:f>
+              <c:f>pthread_godel!$L$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2551,7 +2569,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$21:$U$21</c:f>
+              <c:f>pthread_godel!$M$22:$U$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2592,7 +2610,7 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$22</c:f>
+              <c:f>pthread_godel!$L$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2653,7 +2671,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$22:$U$22</c:f>
+              <c:f>pthread_godel!$M$23:$U$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2694,7 +2712,7 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$23</c:f>
+              <c:f>pthread_godel!$L$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2755,7 +2773,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$23:$U$23</c:f>
+              <c:f>pthread_godel!$M$24:$U$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2796,7 +2814,7 @@
           <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$24</c:f>
+              <c:f>pthread_godel!$L$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2857,7 +2875,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$24:$U$24</c:f>
+              <c:f>pthread_godel!$M$25:$U$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2898,7 +2916,7 @@
           <c:order val="22"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$25</c:f>
+              <c:f>pthread_godel!$L$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2959,7 +2977,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$25:$U$25</c:f>
+              <c:f>pthread_godel!$M$26:$U$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3004,11 +3022,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="247240528"/>
-        <c:axId val="247241088"/>
+        <c:axId val="253720592"/>
+        <c:axId val="253721152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247240528"/>
+        <c:axId val="253720592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3045,7 +3063,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3112,7 +3129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247241088"/>
+        <c:crossAx val="253721152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3120,7 +3137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247241088"/>
+        <c:axId val="253721152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3166,7 +3183,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3227,7 +3243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247240528"/>
+        <c:crossAx val="253720592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3241,7 +3257,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3323,7 +3338,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3757,11 +3771,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="249307184"/>
-        <c:axId val="249307744"/>
+        <c:axId val="255552336"/>
+        <c:axId val="255552896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="249307184"/>
+        <c:axId val="255552336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3804,7 +3818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249307744"/>
+        <c:crossAx val="255552896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3812,7 +3826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="249307744"/>
+        <c:axId val="255552896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3863,7 +3877,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249307184"/>
+        <c:crossAx val="255552336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3877,7 +3891,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3959,7 +3972,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4404,11 +4416,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="249640032"/>
-        <c:axId val="249640592"/>
+        <c:axId val="255559616"/>
+        <c:axId val="255601488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="249640032"/>
+        <c:axId val="255559616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4451,7 +4463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249640592"/>
+        <c:crossAx val="255601488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4459,7 +4471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="249640592"/>
+        <c:axId val="255601488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4510,7 +4522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249640032"/>
+        <c:crossAx val="255559616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4524,7 +4536,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4606,7 +4617,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5040,11 +5050,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="249645072"/>
-        <c:axId val="249645632"/>
+        <c:axId val="255605968"/>
+        <c:axId val="255606528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="249645072"/>
+        <c:axId val="255605968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5087,7 +5097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249645632"/>
+        <c:crossAx val="255606528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5095,7 +5105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="249645632"/>
+        <c:axId val="255606528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5146,7 +5156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249645072"/>
+        <c:crossAx val="255605968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5160,7 +5170,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5242,7 +5251,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5687,11 +5695,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="250013264"/>
-        <c:axId val="250013824"/>
+        <c:axId val="254697680"/>
+        <c:axId val="254698240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="250013264"/>
+        <c:axId val="254697680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5734,7 +5742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250013824"/>
+        <c:crossAx val="254698240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5742,7 +5750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250013824"/>
+        <c:axId val="254698240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5793,7 +5801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250013264"/>
+        <c:crossAx val="254697680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5807,7 +5815,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5889,7 +5896,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6323,11 +6329,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="249592960"/>
-        <c:axId val="249593520"/>
+        <c:axId val="256456880"/>
+        <c:axId val="256457440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="249592960"/>
+        <c:axId val="256456880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6370,7 +6376,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249593520"/>
+        <c:crossAx val="256457440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6378,7 +6384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="249593520"/>
+        <c:axId val="256457440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6429,7 +6435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249592960"/>
+        <c:crossAx val="256456880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6443,7 +6449,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6550,7 +6555,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7129,11 +7133,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="250330480"/>
-        <c:axId val="250331040"/>
+        <c:axId val="256666096"/>
+        <c:axId val="256666656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="250330480"/>
+        <c:axId val="256666096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7165,7 +7169,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7232,7 +7235,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250331040"/>
+        <c:crossAx val="256666656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7240,7 +7243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250331040"/>
+        <c:axId val="256666656"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -7288,7 +7291,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7349,7 +7351,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250330480"/>
+        <c:crossAx val="256666096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7363,7 +7365,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7470,7 +7471,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8049,11 +8049,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="250576016"/>
-        <c:axId val="250576576"/>
+        <c:axId val="257062576"/>
+        <c:axId val="257063136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="250576016"/>
+        <c:axId val="257062576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8085,7 +8085,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8152,7 +8151,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250576576"/>
+        <c:crossAx val="257063136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8160,7 +8159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250576576"/>
+        <c:axId val="257063136"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -8208,7 +8207,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8269,7 +8267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250576016"/>
+        <c:crossAx val="257062576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8283,7 +8281,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8607,11 +8604,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="312684544"/>
-        <c:axId val="312683984"/>
+        <c:axId val="257066496"/>
+        <c:axId val="257067056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="312684544"/>
+        <c:axId val="257066496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8654,7 +8651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312683984"/>
+        <c:crossAx val="257067056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8662,7 +8659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312683984"/>
+        <c:axId val="257067056"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8714,7 +8711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312684544"/>
+        <c:crossAx val="257066496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9068,11 +9065,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="304573056"/>
-        <c:axId val="304573616"/>
+        <c:axId val="257741216"/>
+        <c:axId val="257741776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="304573056"/>
+        <c:axId val="257741216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9115,7 +9112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304573616"/>
+        <c:crossAx val="257741776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9123,7 +9120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304573616"/>
+        <c:axId val="257741776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9174,7 +9171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304573056"/>
+        <c:crossAx val="257741216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9528,11 +9525,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="350233664"/>
-        <c:axId val="350235344"/>
+        <c:axId val="257745136"/>
+        <c:axId val="257745696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="350233664"/>
+        <c:axId val="257745136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9575,7 +9572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350235344"/>
+        <c:crossAx val="257745696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9583,7 +9580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350235344"/>
+        <c:axId val="257745696"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9635,7 +9632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350233664"/>
+        <c:crossAx val="257745136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9772,7 +9769,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$11</c:f>
+              <c:f>pthread_godel!$L$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9831,7 +9828,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$11:$U$11</c:f>
+              <c:f>pthread_godel!$M$12:$U$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -9872,7 +9869,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$12</c:f>
+              <c:f>pthread_godel!$L$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9933,7 +9930,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$12:$U$12</c:f>
+              <c:f>pthread_godel!$M$13:$U$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -9974,7 +9971,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$13</c:f>
+              <c:f>pthread_godel!$L$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10033,7 +10030,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$13:$U$13</c:f>
+              <c:f>pthread_godel!$M$14:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -10074,7 +10071,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$14</c:f>
+              <c:f>pthread_godel!$L$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10133,7 +10130,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$14:$U$14</c:f>
+              <c:f>pthread_godel!$M$15:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -10174,7 +10171,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$15</c:f>
+              <c:f>pthread_godel!$L$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10233,7 +10230,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$15:$U$15</c:f>
+              <c:f>pthread_godel!$M$16:$U$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -10274,7 +10271,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$16</c:f>
+              <c:f>pthread_godel!$L$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10333,7 +10330,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$16:$U$16</c:f>
+              <c:f>pthread_godel!$M$17:$U$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -10374,7 +10371,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$17</c:f>
+              <c:f>pthread_godel!$L$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10433,7 +10430,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$17:$U$17</c:f>
+              <c:f>pthread_godel!$M$18:$U$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -10478,11 +10475,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="247891936"/>
-        <c:axId val="247892496"/>
+        <c:axId val="108644768"/>
+        <c:axId val="108645328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247891936"/>
+        <c:axId val="108644768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10525,7 +10522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247892496"/>
+        <c:crossAx val="108645328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10533,7 +10530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247892496"/>
+        <c:axId val="108645328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10584,7 +10581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247891936"/>
+        <c:crossAx val="108644768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10710,7 +10707,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10943,11 +10939,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="277759168"/>
-        <c:axId val="277748528"/>
+        <c:axId val="257659040"/>
+        <c:axId val="257659600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="277759168"/>
+        <c:axId val="257659040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10990,7 +10986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277748528"/>
+        <c:crossAx val="257659600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10998,7 +10994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="277748528"/>
+        <c:axId val="257659600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11050,7 +11046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277759168"/>
+        <c:crossAx val="257659040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11064,7 +11060,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11382,11 +11377,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="302056144"/>
-        <c:axId val="302050544"/>
+        <c:axId val="257662960"/>
+        <c:axId val="257663520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="302056144"/>
+        <c:axId val="257662960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11429,7 +11424,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302050544"/>
+        <c:crossAx val="257663520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11437,7 +11432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302050544"/>
+        <c:axId val="257663520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11489,7 +11484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302056144"/>
+        <c:crossAx val="257662960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11610,7 +11605,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11843,11 +11837,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="440835552"/>
-        <c:axId val="440838912"/>
+        <c:axId val="257666320"/>
+        <c:axId val="257666880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="440835552"/>
+        <c:axId val="257666320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11890,7 +11884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440838912"/>
+        <c:crossAx val="257666880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11898,7 +11892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="440838912"/>
+        <c:axId val="257666880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11949,7 +11943,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440835552"/>
+        <c:crossAx val="257666320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11963,7 +11957,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12303,11 +12296,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="343641504"/>
-        <c:axId val="343643744"/>
+        <c:axId val="257670240"/>
+        <c:axId val="257670800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343641504"/>
+        <c:axId val="257670240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12350,7 +12343,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343643744"/>
+        <c:crossAx val="257670800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12358,7 +12351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343643744"/>
+        <c:axId val="257670800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12409,7 +12402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343641504"/>
+        <c:crossAx val="257670240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12534,7 +12527,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12767,11 +12759,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="459415088"/>
-        <c:axId val="459425728"/>
+        <c:axId val="257674160"/>
+        <c:axId val="257892704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="459415088"/>
+        <c:axId val="257674160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12814,7 +12806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459425728"/>
+        <c:crossAx val="257892704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12822,7 +12814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="459425728"/>
+        <c:axId val="257892704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12873,7 +12865,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459415088"/>
+        <c:crossAx val="257674160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12887,7 +12879,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12917,6 +12908,652 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>class 960x960 runtime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'mpu queueing'!$A$15:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'mpu queueing'!$D$15:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.2566133142857143E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3336974285714285E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1883311428571428E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6156637142857142E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3230885714285715E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000E+00">
+                  <c:v>4.3833828571428576E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00000E+00">
+                  <c:v>2.3582628571428569E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00000E+00">
+                  <c:v>1.1902485714285714E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="287491888"/>
+        <c:axId val="287502528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="287491888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="287502528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="287502528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="287491888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>class7 runtime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'mpu queueing'!$A$26:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'mpu queueing'!$D$26:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.9097940074285717</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4640415145714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73204050057142855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29523812199999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14883780657142859</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000E+00">
+                  <c:v>3.3717428571428572E-5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00000E+00">
+                  <c:v>2.9829428571428571E-5</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00000E+00">
+                  <c:v>2.2559142857142855E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="282324944"/>
+        <c:axId val="282323264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="282324944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="282323264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="282323264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="282324944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -13237,7 +13874,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$16</c:f>
+              <c:f>pthread_godel!$L$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13296,7 +13933,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$16:$U$16</c:f>
+              <c:f>pthread_godel!$M$17:$U$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -13337,7 +13974,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$19</c:f>
+              <c:f>pthread_godel!$L$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13397,7 +14034,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$19:$U$19</c:f>
+              <c:f>pthread_godel!$M$20:$U$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -13438,7 +14075,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>pthread_godel!$L$21</c:f>
+              <c:f>pthread_godel!$L$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13500,7 +14137,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pthread_godel!$M$21:$U$21</c:f>
+              <c:f>pthread_godel!$M$22:$U$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -13545,11 +14182,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="248071184"/>
-        <c:axId val="248071744"/>
+        <c:axId val="254578768"/>
+        <c:axId val="254579328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="248071184"/>
+        <c:axId val="254578768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13653,7 +14290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248071744"/>
+        <c:crossAx val="254579328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13661,7 +14298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248071744"/>
+        <c:axId val="254579328"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -13769,7 +14406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248071184"/>
+        <c:crossAx val="254578768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13890,6 +14527,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14131,7 +14769,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>omp_godel!$L$13</c:f>
+              <c:f>omp_godel!$L$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14190,7 +14828,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>omp_godel!$M$13:$U$13</c:f>
+              <c:f>omp_godel!$M$14:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -14231,7 +14869,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>omp_godel!$L$21</c:f>
+              <c:f>omp_godel!$L$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14292,7 +14930,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>omp_godel!$M$21:$U$21</c:f>
+              <c:f>omp_godel!$M$22:$U$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -14333,7 +14971,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>omp_godel!$L$26</c:f>
+              <c:f>omp_godel!$L$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14393,7 +15031,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>omp_godel!$M$26:$U$26</c:f>
+              <c:f>omp_godel!$M$27:$U$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -14438,998 +15076,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="248190640"/>
-        <c:axId val="248191200"/>
+        <c:axId val="254322080"/>
+        <c:axId val="254322640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="248190640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Number of Threads</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="248191200"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="248191200"/>
-        <c:scaling>
-          <c:logBase val="2"/>
-          <c:orientation val="minMax"/>
-          <c:min val="0.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Speedup</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="248190640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800"/>
-              <a:t>Scalability of Conv-Engine on pthreads</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SIFT-DOG pthread'!$J$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DOG 512</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'SIFT-DOG pthread'!$K$10:$S$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SIFT-DOG pthread'!$K$12:$S$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6952221335360687</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3305336000573411</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4645981732448552</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90741780950162809</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.58642698462641796</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.32708034291583815</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.20613361326530835</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.6840601766622111E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SIFT-DOG pthread'!$J$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DOG 2048</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'SIFT-DOG pthread'!$K$10:$S$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SIFT-DOG pthread'!$K$13:$S$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8831880540619144</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5508502924100878</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9615699849640817</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0456769312886385</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1291808941563435</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8338158625148222</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2035330231347299</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4369171496195308</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SIFT-DOG pthread'!$J$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DOG 8192</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'SIFT-DOG pthread'!$K$10:$S$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SIFT-DOG pthread'!$K$14:$S$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7861482892963445</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5873704822972972</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6794160925109392</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7248366965046169</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2298977481361293</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5303566911774498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1315504788852699</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.74815217997747996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SIFT-DOG pthread'!$J$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SAD 512</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'SIFT-DOG pthread'!$K$10:$S$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SIFT-DOG pthread'!$K$16:$S$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5596253068994677</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7044237219087799</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2246144371166825</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.66035216383574913</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.40512035128201113</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1818972942267682</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.3213960852314343E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5849084939208015E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SIFT-DOG pthread'!$J$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SAD 2048</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'SIFT-DOG pthread'!$K$10:$S$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SIFT-DOG pthread'!$K$17:$S$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.87581650439546</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9393456274026928</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5132299727185998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3373817223619597</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0859199564559048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2973334738643256</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.82025347387485115</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4632196242350558</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'SIFT-DOG pthread'!$J$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SAD 8192</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'SIFT-DOG pthread'!$K$10:$S$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SIFT-DOG pthread'!$K$18:$S$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9894461196994389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7139553194678041</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.2931355614752347</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.65430022275047</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.211437685703295</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.083364224845544</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.8143688158658531</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.1037674072764894</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="248546208"/>
-        <c:axId val="248546768"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="248546208"/>
+        <c:axId val="254322080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15528,7 +15179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248546768"/>
+        <c:crossAx val="254322640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15536,7 +15187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248546768"/>
+        <c:axId val="254322640"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -15645,7 +15296,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248546208"/>
+        <c:crossAx val="254322080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15660,6 +15311,992 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Scalability of Conv-Engine on pthreads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SIFT-DOG pthread'!$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DOG 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SIFT-DOG pthread'!$K$10:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SIFT-DOG pthread'!$K$12:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6952221335360687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3305336000573411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4645981732448552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90741780950162809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58642698462641796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32708034291583815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20613361326530835</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6840601766622111E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SIFT-DOG pthread'!$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DOG 2048</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SIFT-DOG pthread'!$K$10:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SIFT-DOG pthread'!$K$13:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8831880540619144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5508502924100878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9615699849640817</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0456769312886385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1291808941563435</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8338158625148222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2035330231347299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4369171496195308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SIFT-DOG pthread'!$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DOG 8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SIFT-DOG pthread'!$K$10:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SIFT-DOG pthread'!$K$14:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7861482892963445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5873704822972972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6794160925109392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7248366965046169</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2298977481361293</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5303566911774498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1315504788852699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74815217997747996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SIFT-DOG pthread'!$J$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SAD 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SIFT-DOG pthread'!$K$10:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SIFT-DOG pthread'!$K$16:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5596253068994677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7044237219087799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2246144371166825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66035216383574913</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40512035128201113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1818972942267682</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3213960852314343E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5849084939208015E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SIFT-DOG pthread'!$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SAD 2048</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SIFT-DOG pthread'!$K$10:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SIFT-DOG pthread'!$K$17:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.87581650439546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9393456274026928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5132299727185998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3373817223619597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0859199564559048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2973334738643256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82025347387485115</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4632196242350558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SIFT-DOG pthread'!$J$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SAD 8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SIFT-DOG pthread'!$K$10:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SIFT-DOG pthread'!$K$18:$S$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9894461196994389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7139553194678041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2931355614752347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.65430022275047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.211437685703295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.083364224845544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8143688158658531</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1037674072764894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="254396128"/>
+        <c:axId val="253124784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="254396128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253124784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="253124784"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254396128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15741,7 +16378,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16186,11 +16822,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="248893824"/>
-        <c:axId val="248894384"/>
+        <c:axId val="253337792"/>
+        <c:axId val="253338352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="248893824"/>
+        <c:axId val="253337792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16233,7 +16869,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248894384"/>
+        <c:crossAx val="253338352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16241,7 +16877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248894384"/>
+        <c:axId val="253338352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16292,7 +16928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248893824"/>
+        <c:crossAx val="253337792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16306,7 +16942,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16388,7 +17023,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16833,11 +17467,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="98237040"/>
-        <c:axId val="98237600"/>
+        <c:axId val="254865952"/>
+        <c:axId val="254866512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98237040"/>
+        <c:axId val="254865952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16880,7 +17514,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98237600"/>
+        <c:crossAx val="254866512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16888,7 +17522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98237600"/>
+        <c:axId val="254866512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16939,7 +17573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98237040"/>
+        <c:crossAx val="254865952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16953,7 +17587,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17035,7 +17668,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17469,11 +18101,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="248726544"/>
-        <c:axId val="248727104"/>
+        <c:axId val="255187056"/>
+        <c:axId val="255187616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="248726544"/>
+        <c:axId val="255187056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17516,7 +18148,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248727104"/>
+        <c:crossAx val="255187616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17524,7 +18156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248727104"/>
+        <c:axId val="255187616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17575,7 +18207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248726544"/>
+        <c:crossAx val="255187056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17589,7 +18221,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17671,7 +18302,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18116,11 +18746,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="249225168"/>
-        <c:axId val="249225728"/>
+        <c:axId val="255346144"/>
+        <c:axId val="255346704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="249225168"/>
+        <c:axId val="255346144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18163,7 +18793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249225728"/>
+        <c:crossAx val="255346704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18171,7 +18801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="249225728"/>
+        <c:axId val="255346704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18222,7 +18852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249225168"/>
+        <c:crossAx val="255346144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18236,7 +18866,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18944,6 +19573,86 @@
 </file>
 
 <file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -28035,6 +28744,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -31653,13 +33394,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -31683,13 +33424,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -31713,13 +33454,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -32034,20 +33775,85 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32491,15 +34297,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42940,8 +44746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44093,12 +45899,787 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">B3/3500000000+C3/500000000</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>F3/10^10</f>
+        <v>4.3006200000000002E-5</v>
+      </c>
+      <c r="F3">
+        <v>430062</v>
+      </c>
+      <c r="G3">
+        <f>D3/E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="e">
+        <f>$D$3/D3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3">
+        <f>$E$3/E3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E10" si="1">F4/10^10</f>
+        <v>4.2544099999999998E-5</v>
+      </c>
+      <c r="F4">
+        <v>425441</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G10" si="2">D4/E4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" t="e">
+        <f t="shared" ref="H4:H10" si="3">$D$3/D4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I10" si="4">$E$3/E4</f>
+        <v>1.0108616705959228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>6.56855E-5</v>
+      </c>
+      <c r="F5">
+        <v>656855</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>0.65472897366998806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1.606201E-4</v>
+      </c>
+      <c r="F6">
+        <v>1606201</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>0.26775104734712529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <f>B7/3500000000+C7/500000000</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2.23117E-4</v>
+      </c>
+      <c r="F7">
+        <v>2231170</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>0.19275178493794737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1">
+        <f>B8/3500000000+C8/500000000</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>4.2567879999999997E-4</v>
+      </c>
+      <c r="F8">
+        <v>4256788</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>0.1010296965693382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1">
+        <f>B9/3500000000+C9/500000000</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>8.7045229999999996E-4</v>
+      </c>
+      <c r="F9">
+        <v>8704523</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>4.9406727973491486E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>128</v>
+      </c>
+      <c r="D10" s="1">
+        <f>B10/3500000000+C10/500000000</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.6717745E-3</v>
+      </c>
+      <c r="F10">
+        <v>16717745</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>2.5724880957330071E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>31717896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>122707</v>
+      </c>
+      <c r="C15">
+        <v>6265537</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D18" si="5">B15/3500000000+C15/500000000</f>
+        <v>1.2566133142857143E-2</v>
+      </c>
+      <c r="E15">
+        <f>$D$15/D15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>125648</v>
+      </c>
+      <c r="C16">
+        <v>3148899</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>6.3336974285714285E-3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E22" si="6">$D$15/D16</f>
+        <v>1.9840122273872887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>125136</v>
+      </c>
+      <c r="C17">
+        <v>1576289</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>3.1883311428571428E-3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="6"/>
+        <v>3.9412885863531475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>124011</v>
+      </c>
+      <c r="C18">
+        <v>790116</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>1.6156637142857142E-3</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="6"/>
+        <v>7.7776910081889392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>122797</v>
+      </c>
+      <c r="C19">
+        <v>398612</v>
+      </c>
+      <c r="D19">
+        <f>B19/3500000000+C19/500000000</f>
+        <v>8.3230885714285715E-4</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="6"/>
+        <v>15.097920723797245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>117818</v>
+      </c>
+      <c r="C20">
+        <v>202338</v>
+      </c>
+      <c r="D20" s="1">
+        <f>B20/3500000000+C20/500000000</f>
+        <v>4.3833828571428576E-4</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="6"/>
+        <v>28.667660463151744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>103146</v>
+      </c>
+      <c r="C21">
+        <v>103178</v>
+      </c>
+      <c r="D21" s="1">
+        <f>B21/3500000000+C21/500000000</f>
+        <v>2.3582628571428569E-4</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>53.28554916936438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>128</v>
+      </c>
+      <c r="B22">
+        <v>68141</v>
+      </c>
+      <c r="C22">
+        <v>49778</v>
+      </c>
+      <c r="D22" s="1">
+        <f>B22/3500000000+C22/500000000</f>
+        <v>1.1902485714285714E-4</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
+        <v>105.57570447469556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>122190</v>
+      </c>
+      <c r="C26">
+        <v>1454879548</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D29" si="7">B26/3500000000+C26/500000000</f>
+        <v>2.9097940074285717</v>
+      </c>
+      <c r="E26">
+        <f>$D$26/D26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>121060</v>
+      </c>
+      <c r="C27">
+        <v>732003463</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="7"/>
+        <v>1.4640415145714285</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:E33" si="8">$D$26/D27</f>
+        <v>1.9875078530681973</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>119233</v>
+      </c>
+      <c r="C28">
+        <v>366003217</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="7"/>
+        <v>0.73204050057142855</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="8"/>
+        <v>3.974908499129755</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>118510</v>
+      </c>
+      <c r="C29">
+        <v>147602131</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="7"/>
+        <v>0.29523812199999999</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="8"/>
+        <v>9.8557530027527136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>117889</v>
+      </c>
+      <c r="C30">
+        <v>74402062</v>
+      </c>
+      <c r="D30">
+        <f>B30/3500000000+C30/500000000</f>
+        <v>0.14883780657142859</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="8"/>
+        <v>19.550100034779373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>101652</v>
+      </c>
+      <c r="C31">
+        <v>2337</v>
+      </c>
+      <c r="D31" s="1">
+        <f>B31/3500000000+C31/500000000</f>
+        <v>3.3717428571428572E-5</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="8"/>
+        <v>86299.404513138608</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>64</v>
+      </c>
+      <c r="B32">
+        <v>87568</v>
+      </c>
+      <c r="C32">
+        <v>2405</v>
+      </c>
+      <c r="D32" s="1">
+        <f>B32/3500000000+C32/500000000</f>
+        <v>2.9829428571428571E-5</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="8"/>
+        <v>97547.762286524347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>128</v>
+      </c>
+      <c r="B33">
+        <v>62626</v>
+      </c>
+      <c r="C33">
+        <v>2333</v>
+      </c>
+      <c r="D33" s="1">
+        <f>B33/3500000000+C33/500000000</f>
+        <v>2.2559142857142855E-5</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="8"/>
+        <v>128985.13147662654</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>144649</v>
+      </c>
+      <c r="C39">
+        <v>797117614</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D42" si="9">B39/3500000000+C39/500000000</f>
+        <v>1.5942765562857144</v>
+      </c>
+      <c r="E39">
+        <f>$D$39/D39</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>153696</v>
+      </c>
+      <c r="C40">
+        <v>400233273</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="9"/>
+        <v>0.80051045914285712</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40:E46" si="10">$D$39/D40</f>
+        <v>1.9915749233217748</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>154055</v>
+      </c>
+      <c r="C41">
+        <v>200118075</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="9"/>
+        <v>0.40028016571428571</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="10"/>
+        <v>3.9829017094583854</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>150234</v>
+      </c>
+      <c r="C42">
+        <v>100882749</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="9"/>
+        <v>0.20180842199999999</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="10"/>
+        <v>7.8999505594752355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>151794</v>
+      </c>
+      <c r="C43">
+        <v>50853848</v>
+      </c>
+      <c r="D43">
+        <f>B43/3500000000+C43/500000000</f>
+        <v>0.10175106571428572</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="10"/>
+        <v>15.668401555246611</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>32</v>
+      </c>
+      <c r="B44">
+        <v>144421</v>
+      </c>
+      <c r="C44">
+        <v>26246060</v>
+      </c>
+      <c r="D44" s="1">
+        <f>B44/3500000000+C44/500000000</f>
+        <v>5.2533383142857146E-2</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="10"/>
+        <v>30.347875215847104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>64</v>
+      </c>
+      <c r="B45">
+        <v>149798</v>
+      </c>
+      <c r="C45">
+        <v>14518644</v>
+      </c>
+      <c r="D45" s="1">
+        <f>B45/3500000000+C45/500000000</f>
+        <v>2.9080087428571429E-2</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="10"/>
+        <v>54.823650726693636</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>128</v>
+      </c>
+      <c r="B46">
+        <v>157304</v>
+      </c>
+      <c r="C46">
+        <v>9899725</v>
+      </c>
+      <c r="D46" s="1">
+        <f>B46/3500000000+C46/500000000</f>
+        <v>1.9844394000000001E-2</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="10"/>
+        <v>80.338888468235126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U26"/>
+  <dimension ref="A2:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:I10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44202,7 +46783,7 @@
         <v>32</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M26" si="0">$B3/B3</f>
+        <f t="shared" ref="M3:M27" si="0">$B3/B3</f>
         <v>1</v>
       </c>
       <c r="N3">
@@ -44277,35 +46858,35 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N26" si="2">$B4/C4</f>
+        <f t="shared" ref="N4:N27" si="2">$B4/C4</f>
         <v>1.1067023254780231</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O26" si="3">$B4/D4</f>
+        <f t="shared" ref="O4:O27" si="3">$B4/D4</f>
         <v>0.63785653287788213</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P26" si="4">$B4/E4</f>
+        <f t="shared" ref="P4:P27" si="4">$B4/E4</f>
         <v>0.31613096187027118</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q26" si="5">$B4/F4</f>
+        <f t="shared" ref="Q4:Q27" si="5">$B4/F4</f>
         <v>0.20052906691103498</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R26" si="6">$B4/G4</f>
+        <f t="shared" ref="R4:R27" si="6">$B4/G4</f>
         <v>0.10943061932009918</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S26" si="7">$B4/H4</f>
+        <f t="shared" ref="S4:S27" si="7">$B4/H4</f>
         <v>5.5910870568426807E-2</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T26" si="8">$B4/I4</f>
+        <f t="shared" ref="T4:T27" si="8">$B4/I4</f>
         <v>2.7114839566085607E-2</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U26" si="9">$B4/J4</f>
+        <f t="shared" ref="U4:U27" si="9">$B4/J4</f>
         <v>1.451057480342189E-2</v>
       </c>
     </row>
@@ -44741,116 +47322,112 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>397441430</v>
+      </c>
+      <c r="C11">
+        <v>149732910</v>
+      </c>
+      <c r="D11">
+        <v>120199625</v>
+      </c>
+      <c r="E11">
+        <v>59080500</v>
+      </c>
+      <c r="F11">
+        <v>19279520</v>
+      </c>
+      <c r="G11">
+        <v>12389216</v>
+      </c>
+      <c r="H11">
+        <v>12342970</v>
+      </c>
+      <c r="I11">
+        <v>18907855</v>
+      </c>
+      <c r="J11">
+        <v>35201804</v>
+      </c>
+      <c r="L11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11">
+        <f>$B11/B11</f>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>2.6543358437366908</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>3.3065113971861395</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>6.7271168998231223</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>20.614695282870112</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>32.079627153162882</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="7"/>
+        <v>32.199821436817878</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="8"/>
+        <v>21.019911036973788</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="9"/>
+        <v>11.290371084391015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>3088191</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1963752</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>1512653</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>2819189</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>4094621</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>6348260</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>10749484</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>18767426</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>33878898</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <f>G10/10^9</f>
         <v>4.079961E-3</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L12" t="s">
         <v>40</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="2"/>
-        <v>1.5725972526062355</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="3"/>
-        <v>2.0415726541381267</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="4"/>
-        <v>1.0954182213395414</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="5"/>
-        <v>0.7542067996036752</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="6"/>
-        <v>0.48646258974900208</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="7"/>
-        <v>0.28728737118916592</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="8"/>
-        <v>0.16455058887670584</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="9"/>
-        <v>9.1153820882839812E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12">
-        <v>496879</v>
-      </c>
-      <c r="C12">
-        <v>583876</v>
-      </c>
-      <c r="D12">
-        <v>698993</v>
-      </c>
-      <c r="E12">
-        <v>1419855</v>
-      </c>
-      <c r="F12">
-        <v>2588471</v>
-      </c>
-      <c r="G12">
-        <v>4233350</v>
-      </c>
-      <c r="H12">
-        <v>7678805</v>
-      </c>
-      <c r="I12">
-        <v>16251350</v>
-      </c>
-      <c r="J12">
-        <v>32729928</v>
-      </c>
-      <c r="K12">
-        <f>K10/K11</f>
-        <v>8.5351681057735611</v>
-      </c>
-      <c r="L12" t="s">
-        <v>41</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
@@ -44858,70 +47435,74 @@
       </c>
       <c r="N12">
         <f t="shared" si="2"/>
-        <v>0.85100089745082863</v>
+        <v>1.5725972526062355</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>0.71084975099893699</v>
+        <v>2.0415726541381267</v>
       </c>
       <c r="P12">
         <f t="shared" si="4"/>
-        <v>0.34995052311679714</v>
+        <v>1.0954182213395414</v>
       </c>
       <c r="Q12">
         <f t="shared" si="5"/>
-        <v>0.19195849596151551</v>
+        <v>0.7542067996036752</v>
       </c>
       <c r="R12">
         <f t="shared" si="6"/>
-        <v>0.11737253002940934</v>
+        <v>0.48646258974900208</v>
       </c>
       <c r="S12">
         <f t="shared" si="7"/>
-        <v>6.4707854933156922E-2</v>
+        <v>0.28728737118916592</v>
       </c>
       <c r="T12">
         <f t="shared" si="8"/>
-        <v>3.0574629184652351E-2</v>
+        <v>0.16455058887670584</v>
       </c>
       <c r="U12">
         <f t="shared" si="9"/>
-        <v>1.5181182188973956E-2</v>
+        <v>9.1153820882839812E-2</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13">
-        <v>21055373</v>
+        <v>496879</v>
       </c>
       <c r="C13">
-        <v>11588506</v>
+        <v>583876</v>
       </c>
       <c r="D13">
-        <v>6888026</v>
+        <v>698993</v>
       </c>
       <c r="E13">
-        <v>5435980</v>
+        <v>1419855</v>
       </c>
       <c r="F13">
-        <v>7230200</v>
+        <v>2588471</v>
       </c>
       <c r="G13">
-        <v>9608960</v>
+        <v>4233350</v>
       </c>
       <c r="H13">
-        <v>14657001</v>
+        <v>7678805</v>
       </c>
       <c r="I13">
-        <v>22896048</v>
+        <v>16251350</v>
       </c>
       <c r="J13">
-        <v>39754830</v>
+        <v>32729928</v>
+      </c>
+      <c r="K13">
+        <f>K10/K12</f>
+        <v>8.5351681057735611</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
@@ -44929,70 +47510,70 @@
       </c>
       <c r="N13">
         <f t="shared" si="2"/>
-        <v>1.8169186778692612</v>
+        <v>0.85100089745082863</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>3.0568080027572484</v>
+        <v>0.71084975099893699</v>
       </c>
       <c r="P13">
         <f t="shared" si="4"/>
-        <v>3.8733352587757865</v>
+        <v>0.34995052311679714</v>
       </c>
       <c r="Q13">
         <f t="shared" si="5"/>
-        <v>2.9121425410085475</v>
+        <v>0.19195849596151551</v>
       </c>
       <c r="R13">
         <f t="shared" si="6"/>
-        <v>2.1912228794791528</v>
+        <v>0.11737253002940934</v>
       </c>
       <c r="S13">
         <f t="shared" si="7"/>
-        <v>1.4365403263600787</v>
+        <v>6.4707854933156922E-2</v>
       </c>
       <c r="T13">
         <f t="shared" si="8"/>
-        <v>0.91960730515589417</v>
+        <v>3.0574629184652351E-2</v>
       </c>
       <c r="U13">
         <f t="shared" si="9"/>
-        <v>0.52963056312905876</v>
+        <v>1.5181182188973956E-2</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>4026106</v>
+        <v>21055373</v>
       </c>
       <c r="C14">
-        <v>2389836</v>
+        <v>11588506</v>
       </c>
       <c r="D14">
-        <v>1835762</v>
+        <v>6888026</v>
       </c>
       <c r="E14">
-        <v>2602297</v>
+        <v>5435980</v>
       </c>
       <c r="F14">
-        <v>4160155</v>
+        <v>7230200</v>
       </c>
       <c r="G14">
-        <v>5983724</v>
+        <v>9608960</v>
       </c>
       <c r="H14">
-        <v>9215211</v>
+        <v>14657001</v>
       </c>
       <c r="I14">
-        <v>18745024</v>
+        <v>22896048</v>
       </c>
       <c r="J14">
-        <v>34128110</v>
+        <v>39754830</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
@@ -45000,70 +47581,70 @@
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>1.6846787813054955</v>
+        <v>1.8169186778692612</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>2.1931524892660379</v>
+        <v>3.0568080027572484</v>
       </c>
       <c r="P14">
         <f t="shared" si="4"/>
-        <v>1.5471354730071165</v>
+        <v>3.8733352587757865</v>
       </c>
       <c r="Q14">
         <f t="shared" si="5"/>
-        <v>0.96777788327598369</v>
+        <v>2.9121425410085475</v>
       </c>
       <c r="R14">
         <f t="shared" si="6"/>
-        <v>0.67284286507867008</v>
+        <v>2.1912228794791528</v>
       </c>
       <c r="S14">
         <f t="shared" si="7"/>
-        <v>0.43689786376025463</v>
+        <v>1.4365403263600787</v>
       </c>
       <c r="T14">
         <f t="shared" si="8"/>
-        <v>0.21478265378587938</v>
+        <v>0.91960730515589417</v>
       </c>
       <c r="U14">
         <f t="shared" si="9"/>
-        <v>0.11797037691217005</v>
+        <v>0.52963056312905876</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15">
-        <v>434210</v>
+        <v>4026106</v>
       </c>
       <c r="C15">
-        <v>468923</v>
+        <v>2389836</v>
       </c>
       <c r="D15">
-        <v>739041</v>
+        <v>1835762</v>
       </c>
       <c r="E15">
-        <v>1241782</v>
+        <v>2602297</v>
       </c>
       <c r="F15">
-        <v>2416694</v>
+        <v>4160155</v>
       </c>
       <c r="G15">
-        <v>4266770</v>
+        <v>5983724</v>
       </c>
       <c r="H15">
-        <v>8198863</v>
+        <v>9215211</v>
       </c>
       <c r="I15">
-        <v>16516025</v>
+        <v>18745024</v>
       </c>
       <c r="J15">
-        <v>32569209</v>
+        <v>34128110</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
@@ -45071,70 +47652,70 @@
       </c>
       <c r="N15">
         <f t="shared" si="2"/>
-        <v>0.92597292092731642</v>
+        <v>1.6846787813054955</v>
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>0.58753167956852193</v>
+        <v>2.1931524892660379</v>
       </c>
       <c r="P15">
         <f t="shared" si="4"/>
-        <v>0.34966684973691037</v>
+        <v>1.5471354730071165</v>
       </c>
       <c r="Q15">
         <f t="shared" si="5"/>
-        <v>0.17967107130650384</v>
+        <v>0.96777788327598369</v>
       </c>
       <c r="R15">
         <f t="shared" si="6"/>
-        <v>0.10176550411669717</v>
+        <v>0.67284286507867008</v>
       </c>
       <c r="S15">
         <f t="shared" si="7"/>
-        <v>5.2959782350308821E-2</v>
+        <v>0.43689786376025463</v>
       </c>
       <c r="T15">
         <f t="shared" si="8"/>
-        <v>2.6290224191353549E-2</v>
+        <v>0.21478265378587938</v>
       </c>
       <c r="U15">
         <f t="shared" si="9"/>
-        <v>1.3331917271923921E-2</v>
+        <v>0.11797037691217005</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16">
-        <v>21290741</v>
+        <v>434210</v>
       </c>
       <c r="C16">
-        <v>11219442</v>
+        <v>468923</v>
       </c>
       <c r="D16">
-        <v>6402299</v>
+        <v>739041</v>
       </c>
       <c r="E16">
-        <v>5617650</v>
+        <v>1241782</v>
       </c>
       <c r="F16">
-        <v>6342166</v>
+        <v>2416694</v>
       </c>
       <c r="G16">
-        <v>10162457</v>
+        <v>4266770</v>
       </c>
       <c r="H16">
-        <v>14206507</v>
+        <v>8198863</v>
       </c>
       <c r="I16">
-        <v>22473460</v>
+        <v>16516025</v>
       </c>
       <c r="J16">
-        <v>40592380</v>
+        <v>32569209</v>
       </c>
       <c r="L16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
@@ -45142,70 +47723,70 @@
       </c>
       <c r="N16">
         <f t="shared" si="2"/>
-        <v>1.8976648749554568</v>
+        <v>0.92597292092731642</v>
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>3.3254837051502903</v>
+        <v>0.58753167956852193</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
-        <v>3.7899728534173542</v>
+        <v>0.34966684973691037</v>
       </c>
       <c r="Q16">
         <f t="shared" si="5"/>
-        <v>3.3570141494246601</v>
+        <v>0.17967107130650384</v>
       </c>
       <c r="R16">
         <f t="shared" si="6"/>
-        <v>2.0950387293151644</v>
+        <v>0.10176550411669717</v>
       </c>
       <c r="S16">
         <f t="shared" si="7"/>
-        <v>1.4986612120769729</v>
+        <v>5.2959782350308821E-2</v>
       </c>
       <c r="T16">
         <f t="shared" si="8"/>
-        <v>0.94737263420941853</v>
+        <v>2.6290224191353549E-2</v>
       </c>
       <c r="U16">
         <f t="shared" si="9"/>
-        <v>0.52450092849938834</v>
+        <v>1.3331917271923921E-2</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17">
-        <v>21194836</v>
+        <v>21290741</v>
       </c>
       <c r="C17">
-        <v>11352510</v>
+        <v>11219442</v>
       </c>
       <c r="D17">
-        <v>6660812</v>
+        <v>6402299</v>
       </c>
       <c r="E17">
-        <v>5117802</v>
+        <v>5617650</v>
       </c>
       <c r="F17">
-        <v>7048286</v>
+        <v>6342166</v>
       </c>
       <c r="G17">
-        <v>10325560</v>
+        <v>10162457</v>
       </c>
       <c r="H17">
-        <v>14276591</v>
+        <v>14206507</v>
       </c>
       <c r="I17">
-        <v>22761150</v>
+        <v>22473460</v>
       </c>
       <c r="J17">
-        <v>39880820</v>
+        <v>40592380</v>
       </c>
       <c r="L17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
@@ -45213,70 +47794,70 @@
       </c>
       <c r="N17">
         <f t="shared" si="2"/>
-        <v>1.8669735591512362</v>
+        <v>1.8976648749554568</v>
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>3.1820198498321224</v>
+        <v>3.3254837051502903</v>
       </c>
       <c r="P17">
         <f t="shared" si="4"/>
-        <v>4.1413942938785047</v>
+        <v>3.7899728534173542</v>
       </c>
       <c r="Q17">
         <f t="shared" si="5"/>
-        <v>3.0070908019339737</v>
+        <v>3.3570141494246601</v>
       </c>
       <c r="R17">
         <f t="shared" si="6"/>
-        <v>2.0526572892898787</v>
+        <v>2.0950387293151644</v>
       </c>
       <c r="S17">
         <f t="shared" si="7"/>
-        <v>1.484586621554123</v>
+        <v>1.4986612120769729</v>
       </c>
       <c r="T17">
         <f t="shared" si="8"/>
-        <v>0.93118475999674888</v>
+        <v>0.94737263420941853</v>
       </c>
       <c r="U17">
         <f t="shared" si="9"/>
-        <v>0.531454368290321</v>
+        <v>0.52450092849938834</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18">
-        <v>92698143030</v>
+        <v>21194836</v>
       </c>
       <c r="C18">
-        <v>46423238218</v>
+        <v>11352510</v>
       </c>
       <c r="D18">
-        <v>23215904883</v>
+        <v>6660812</v>
       </c>
       <c r="E18">
-        <v>11390715777</v>
+        <v>5117802</v>
       </c>
       <c r="F18">
-        <v>6171858096</v>
+        <v>7048286</v>
       </c>
       <c r="G18">
-        <v>3356506820</v>
+        <v>10325560</v>
       </c>
       <c r="H18">
-        <v>1933264320</v>
+        <v>14276591</v>
       </c>
       <c r="I18">
-        <v>1125774889</v>
+        <v>22761150</v>
       </c>
       <c r="J18">
-        <v>931246653</v>
+        <v>39880820</v>
       </c>
       <c r="L18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
@@ -45284,70 +47865,70 @@
       </c>
       <c r="N18">
         <f t="shared" si="2"/>
-        <v>1.9968047596054495</v>
+        <v>1.8669735591512362</v>
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>3.9928722786023658</v>
+        <v>3.1820198498321224</v>
       </c>
       <c r="P18">
         <f t="shared" si="4"/>
-        <v>8.1380437230446052</v>
+        <v>4.1413942938785047</v>
       </c>
       <c r="Q18">
         <f t="shared" si="5"/>
-        <v>15.019487095803118</v>
+        <v>3.0070908019339737</v>
       </c>
       <c r="R18">
         <f t="shared" si="6"/>
-        <v>27.617445159846273</v>
+        <v>2.0526572892898787</v>
       </c>
       <c r="S18">
         <f t="shared" si="7"/>
-        <v>47.949026975266371</v>
+        <v>1.484586621554123</v>
       </c>
       <c r="T18">
         <f t="shared" si="8"/>
-        <v>82.341633248136873</v>
+        <v>0.93118475999674888</v>
       </c>
       <c r="U18">
         <f t="shared" si="9"/>
-        <v>99.541987862586183</v>
+        <v>0.531454368290321</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19">
-        <v>8367889628</v>
+        <v>92698143030</v>
       </c>
       <c r="C19">
-        <v>4246328153</v>
+        <v>46423238218</v>
       </c>
       <c r="D19">
-        <v>2147228244</v>
+        <v>23215904883</v>
       </c>
       <c r="E19">
-        <v>1020220638</v>
+        <v>11390715777</v>
       </c>
       <c r="F19">
-        <v>483647219</v>
+        <v>6171858096</v>
       </c>
       <c r="G19">
-        <v>320559659</v>
+        <v>3356506820</v>
       </c>
       <c r="H19">
-        <v>190723962</v>
+        <v>1933264320</v>
       </c>
       <c r="I19">
-        <v>105486308</v>
+        <v>1125774889</v>
       </c>
       <c r="J19">
-        <v>33325394</v>
+        <v>931246653</v>
       </c>
       <c r="L19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
@@ -45355,70 +47936,70 @@
       </c>
       <c r="N19">
         <f t="shared" si="2"/>
-        <v>1.9706177493814618</v>
+        <v>1.9968047596054495</v>
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
-        <v>3.8970657410931486</v>
+        <v>3.9928722786023658</v>
       </c>
       <c r="P19">
         <f t="shared" si="4"/>
-        <v>8.2020391632187319</v>
+        <v>8.1380437230446052</v>
       </c>
       <c r="Q19">
         <f t="shared" si="5"/>
-        <v>17.301639085823009</v>
+        <v>15.019487095803118</v>
       </c>
       <c r="R19">
         <f t="shared" si="6"/>
-        <v>26.104000902995718</v>
+        <v>27.617445159846273</v>
       </c>
       <c r="S19">
         <f t="shared" si="7"/>
-        <v>43.874348772179971</v>
+        <v>47.949026975266371</v>
       </c>
       <c r="T19">
         <f t="shared" si="8"/>
-        <v>79.326784552929851</v>
+        <v>82.341633248136873</v>
       </c>
       <c r="U19">
         <f t="shared" si="9"/>
-        <v>251.09649500317985</v>
+        <v>99.541987862586183</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20">
-        <v>1429651811</v>
+        <v>8367889628</v>
       </c>
       <c r="C20">
-        <v>713164050</v>
+        <v>4246328153</v>
       </c>
       <c r="D20">
-        <v>356730625</v>
+        <v>2147228244</v>
       </c>
       <c r="E20">
-        <v>187221771</v>
+        <v>1020220638</v>
       </c>
       <c r="F20">
-        <v>116177540</v>
+        <v>483647219</v>
       </c>
       <c r="G20">
-        <v>70946706</v>
+        <v>320559659</v>
       </c>
       <c r="H20">
-        <v>7990430</v>
+        <v>190723962</v>
       </c>
       <c r="I20">
-        <v>15750030</v>
+        <v>105486308</v>
       </c>
       <c r="J20">
-        <v>31257320</v>
+        <v>33325394</v>
       </c>
       <c r="L20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
@@ -45426,70 +48007,70 @@
       </c>
       <c r="N20">
         <f t="shared" si="2"/>
-        <v>2.004660513944863</v>
+        <v>1.9706177493814618</v>
       </c>
       <c r="O20">
         <f t="shared" si="3"/>
-        <v>4.0076509018534647</v>
+        <v>3.8970657410931486</v>
       </c>
       <c r="P20">
         <f t="shared" si="4"/>
-        <v>7.6361408364201404</v>
+        <v>8.2020391632187319</v>
       </c>
       <c r="Q20">
         <f t="shared" si="5"/>
-        <v>12.305750414408843</v>
+        <v>17.301639085823009</v>
       </c>
       <c r="R20">
         <f t="shared" si="6"/>
-        <v>20.151066788076108</v>
+        <v>26.104000902995718</v>
       </c>
       <c r="S20">
         <f t="shared" si="7"/>
-        <v>178.92051003512952</v>
+        <v>43.874348772179971</v>
       </c>
       <c r="T20">
         <f t="shared" si="8"/>
-        <v>90.771370657706683</v>
+        <v>79.326784552929851</v>
       </c>
       <c r="U20">
         <f t="shared" si="9"/>
-        <v>45.738144249091093</v>
+        <v>251.09649500317985</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21">
-        <v>1753244360</v>
+        <v>1429651811</v>
       </c>
       <c r="C21">
-        <v>887206600</v>
+        <v>713164050</v>
       </c>
       <c r="D21">
-        <v>493123872</v>
+        <v>356730625</v>
       </c>
       <c r="E21">
-        <v>232765333</v>
+        <v>187221771</v>
       </c>
       <c r="F21">
-        <v>136638801</v>
+        <v>116177540</v>
       </c>
       <c r="G21">
-        <v>73960296</v>
+        <v>70946706</v>
       </c>
       <c r="H21">
-        <v>8936071</v>
+        <v>7990430</v>
       </c>
       <c r="I21">
-        <v>16158880</v>
+        <v>15750030</v>
       </c>
       <c r="J21">
-        <v>32136790</v>
+        <v>31257320</v>
       </c>
       <c r="L21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
@@ -45497,70 +48078,70 @@
       </c>
       <c r="N21">
         <f t="shared" si="2"/>
-        <v>1.9761398979673956</v>
+        <v>2.004660513944863</v>
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
-        <v>3.5553832607803662</v>
+        <v>4.0076509018534647</v>
       </c>
       <c r="P21">
         <f t="shared" si="4"/>
-        <v>7.5322400350742953</v>
+        <v>7.6361408364201404</v>
       </c>
       <c r="Q21">
         <f t="shared" si="5"/>
-        <v>12.831233494210769</v>
+        <v>12.305750414408843</v>
       </c>
       <c r="R21">
         <f t="shared" si="6"/>
-        <v>23.70521015762295</v>
+        <v>20.151066788076108</v>
       </c>
       <c r="S21">
         <f t="shared" si="7"/>
-        <v>196.19857093794354</v>
+        <v>178.92051003512952</v>
       </c>
       <c r="T21">
         <f t="shared" si="8"/>
-        <v>108.500363886606</v>
+        <v>90.771370657706683</v>
       </c>
       <c r="U21">
         <f t="shared" si="9"/>
-        <v>54.555677776156237</v>
+        <v>45.738144249091093</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22">
-        <v>69913530464</v>
+        <v>1753244360</v>
       </c>
       <c r="C22">
-        <v>34925460842</v>
+        <v>887206600</v>
       </c>
       <c r="D22">
-        <v>17480435810</v>
+        <v>493123872</v>
       </c>
       <c r="E22">
-        <v>8822810141</v>
+        <v>232765333</v>
       </c>
       <c r="F22">
-        <v>4511264200</v>
+        <v>136638801</v>
       </c>
       <c r="G22">
-        <v>2706271849</v>
+        <v>73960296</v>
       </c>
       <c r="H22">
-        <v>1433988675</v>
+        <v>8936071</v>
       </c>
       <c r="I22">
-        <v>844914163</v>
+        <v>16158880</v>
       </c>
       <c r="J22">
-        <v>694248190</v>
+        <v>32136790</v>
       </c>
       <c r="L22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
@@ -45568,70 +48149,70 @@
       </c>
       <c r="N22">
         <f t="shared" si="2"/>
-        <v>2.0017926400537198</v>
+        <v>1.9761398979673956</v>
       </c>
       <c r="O22">
         <f t="shared" si="3"/>
-        <v>3.9995301732697475</v>
+        <v>3.5553832607803662</v>
       </c>
       <c r="P22">
         <f t="shared" si="4"/>
-        <v>7.9241794107195673</v>
+        <v>7.5322400350742953</v>
       </c>
       <c r="Q22">
         <f t="shared" si="5"/>
-        <v>15.497547331411004</v>
+        <v>12.831233494210769</v>
       </c>
       <c r="R22">
         <f t="shared" si="6"/>
-        <v>25.833890445940931</v>
+        <v>23.70521015762295</v>
       </c>
       <c r="S22">
         <f t="shared" si="7"/>
-        <v>48.754590383358504</v>
+        <v>196.19857093794354</v>
       </c>
       <c r="T22">
         <f t="shared" si="8"/>
-        <v>82.746311430928159</v>
+        <v>108.500363886606</v>
       </c>
       <c r="U22">
         <f t="shared" si="9"/>
-        <v>100.70394344708339</v>
+        <v>54.555677776156237</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23">
-        <v>8843462280</v>
+        <v>69913530464</v>
       </c>
       <c r="C23">
-        <v>3573876517</v>
+        <v>34925460842</v>
       </c>
       <c r="D23">
-        <v>1757537029</v>
+        <v>17480435810</v>
       </c>
       <c r="E23">
-        <v>760159404</v>
+        <v>8822810141</v>
       </c>
       <c r="F23">
-        <v>528738354</v>
+        <v>4511264200</v>
       </c>
       <c r="G23">
-        <v>257038146</v>
+        <v>2706271849</v>
       </c>
       <c r="H23">
-        <v>176887200</v>
+        <v>1433988675</v>
       </c>
       <c r="I23">
-        <v>81999790</v>
+        <v>844914163</v>
       </c>
       <c r="J23">
-        <v>32765145</v>
+        <v>694248190</v>
       </c>
       <c r="L23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
@@ -45639,70 +48220,70 @@
       </c>
       <c r="N23">
         <f t="shared" si="2"/>
-        <v>2.4744733730821289</v>
+        <v>2.0017926400537198</v>
       </c>
       <c r="O23">
         <f t="shared" si="3"/>
-        <v>5.0317359657746366</v>
+        <v>3.9995301732697475</v>
       </c>
       <c r="P23">
         <f t="shared" si="4"/>
-        <v>11.633694503370243</v>
+        <v>7.9241794107195673</v>
       </c>
       <c r="Q23">
         <f t="shared" si="5"/>
-        <v>16.725592560285499</v>
+        <v>15.497547331411004</v>
       </c>
       <c r="R23">
         <f t="shared" si="6"/>
-        <v>34.405252362814664</v>
+        <v>25.833890445940931</v>
       </c>
       <c r="S23">
         <f t="shared" si="7"/>
-        <v>49.994924901293025</v>
+        <v>48.754590383358504</v>
       </c>
       <c r="T23">
         <f t="shared" si="8"/>
-        <v>107.84737717011227</v>
+        <v>82.746311430928159</v>
       </c>
       <c r="U23">
         <f t="shared" si="9"/>
-        <v>269.90456718564803</v>
+        <v>100.70394344708339</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24">
-        <v>1172509640</v>
+        <v>8843462280</v>
       </c>
       <c r="C24">
-        <v>633281626</v>
+        <v>3573876517</v>
       </c>
       <c r="D24">
-        <v>293911500</v>
+        <v>1757537029</v>
       </c>
       <c r="E24">
-        <v>147854480</v>
+        <v>760159404</v>
       </c>
       <c r="F24">
-        <v>95966274</v>
+        <v>528738354</v>
       </c>
       <c r="G24">
-        <v>62768750</v>
+        <v>257038146</v>
       </c>
       <c r="H24">
-        <v>8112470</v>
+        <v>176887200</v>
       </c>
       <c r="I24">
-        <v>16326831</v>
+        <v>81999790</v>
       </c>
       <c r="J24">
-        <v>32649200</v>
+        <v>32765145</v>
       </c>
       <c r="L24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
@@ -45710,70 +48291,70 @@
       </c>
       <c r="N24">
         <f t="shared" si="2"/>
-        <v>1.8514821713775729</v>
+        <v>2.4744733730821289</v>
       </c>
       <c r="O24">
         <f t="shared" si="3"/>
-        <v>3.9893288966236433</v>
+        <v>5.0317359657746366</v>
       </c>
       <c r="P24">
         <f t="shared" si="4"/>
-        <v>7.93015970838354</v>
+        <v>11.633694503370243</v>
       </c>
       <c r="Q24">
         <f t="shared" si="5"/>
-        <v>12.217934396410973</v>
+        <v>16.725592560285499</v>
       </c>
       <c r="R24">
         <f t="shared" si="6"/>
-        <v>18.679830966842577</v>
+        <v>34.405252362814664</v>
       </c>
       <c r="S24">
         <f t="shared" si="7"/>
-        <v>144.53176899267424</v>
+        <v>49.994924901293025</v>
       </c>
       <c r="T24">
         <f t="shared" si="8"/>
-        <v>71.814894145716337</v>
+        <v>107.84737717011227</v>
       </c>
       <c r="U24">
         <f t="shared" si="9"/>
-        <v>35.91235436090318</v>
+        <v>269.90456718564803</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25">
-        <v>1786472222</v>
+        <v>1172509640</v>
       </c>
       <c r="C25">
-        <v>890853476</v>
+        <v>633281626</v>
       </c>
       <c r="D25">
-        <v>566608940</v>
+        <v>293911500</v>
       </c>
       <c r="E25">
-        <v>253999136</v>
+        <v>147854480</v>
       </c>
       <c r="F25">
-        <v>144166117</v>
+        <v>95966274</v>
       </c>
       <c r="G25">
-        <v>77046622</v>
+        <v>62768750</v>
       </c>
       <c r="H25">
-        <v>9125379</v>
+        <v>8112470</v>
       </c>
       <c r="I25">
-        <v>16006270</v>
+        <v>16326831</v>
       </c>
       <c r="J25">
-        <v>32689910</v>
+        <v>32649200</v>
       </c>
       <c r="L25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
@@ -45781,77 +48362,148 @@
       </c>
       <c r="N25">
         <f t="shared" si="2"/>
-        <v>2.0053491063663986</v>
+        <v>1.8514821713775729</v>
       </c>
       <c r="O25">
         <f t="shared" si="3"/>
-        <v>3.1529192285600014</v>
+        <v>3.9893288966236433</v>
       </c>
       <c r="P25">
         <f t="shared" si="4"/>
-        <v>7.0333791292896368</v>
+        <v>7.93015970838354</v>
       </c>
       <c r="Q25">
         <f t="shared" si="5"/>
-        <v>12.39176208096109</v>
+        <v>12.217934396410973</v>
       </c>
       <c r="R25">
         <f t="shared" si="6"/>
-        <v>23.186898732562213</v>
+        <v>18.679830966842577</v>
       </c>
       <c r="S25">
         <f t="shared" si="7"/>
-        <v>195.76964660865045</v>
+        <v>144.53176899267424</v>
       </c>
       <c r="T25">
         <f t="shared" si="8"/>
-        <v>111.61077640199747</v>
+        <v>71.814894145716337</v>
       </c>
       <c r="U25">
         <f t="shared" si="9"/>
-        <v>54.649040697878945</v>
+        <v>35.91235436090318</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>1786472222</v>
+      </c>
+      <c r="C26">
+        <v>890853476</v>
+      </c>
+      <c r="D26">
+        <v>566608940</v>
+      </c>
+      <c r="E26">
+        <v>253999136</v>
+      </c>
+      <c r="F26">
+        <v>144166117</v>
+      </c>
+      <c r="G26">
+        <v>77046622</v>
+      </c>
+      <c r="H26">
+        <v>9125379</v>
+      </c>
+      <c r="I26">
+        <v>16006270</v>
+      </c>
+      <c r="J26">
+        <v>32689910</v>
+      </c>
+      <c r="L26" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>2.0053491063663986</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>3.1529192285600014</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>7.0333791292896368</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>12.39176208096109</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="6"/>
+        <v>23.186898732562213</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="7"/>
+        <v>195.76964660865045</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="8"/>
+        <v>111.61077640199747</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="9"/>
+        <v>54.649040697878945</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L27" t="s">
         <v>55</v>
       </c>
-      <c r="M26" t="e">
+      <c r="M27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N26" t="e">
+      <c r="N27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O26" t="e">
+      <c r="O27" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P26" t="e">
+      <c r="P27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q26" t="e">
+      <c r="Q27" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R26" t="e">
+      <c r="R27" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S26" t="e">
+      <c r="S27" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T26" t="e">
+      <c r="T27" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U26" t="e">
+      <c r="U27" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -45864,10 +48516,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U26"/>
+  <dimension ref="A2:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:U26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46253,7 +48905,7 @@
         <v>4</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:U10" si="2">$B7/B7</f>
+        <f t="shared" ref="M7:U11" si="2">$B7/B7</f>
         <v>1</v>
       </c>
       <c r="N7">
@@ -46504,179 +49156,179 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>278143693</v>
+      </c>
+      <c r="C11">
+        <v>139428482</v>
+      </c>
+      <c r="D11">
+        <v>68838044</v>
+      </c>
+      <c r="E11">
+        <v>35241811</v>
+      </c>
+      <c r="F11">
+        <v>18816119</v>
+      </c>
+      <c r="G11">
+        <v>11699957</v>
+      </c>
+      <c r="H11">
+        <v>10491468</v>
+      </c>
+      <c r="I11">
+        <v>20535111</v>
+      </c>
+      <c r="J11">
+        <v>42221793</v>
+      </c>
+      <c r="L11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11">
+        <f>$B11/B11</f>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>1.9948843235631011</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>4.0405519511855976</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>7.8924347276023923</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>14.7822031206329</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>23.773052584723175</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>26.51141794456219</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>13.544786439187011</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>6.5876807505545774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>5680428</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>5899640</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>5700967</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>6392811</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>6717856</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>8552122</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>13481868</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>27747309</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>3680199201</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L12" t="s">
         <v>11</v>
       </c>
-      <c r="M11">
-        <f t="shared" ref="M11:U14" si="3">$B14/B14</f>
+      <c r="M12">
+        <f t="shared" ref="M12:U15" si="3">$B15/B15</f>
         <v>1</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <f t="shared" si="3"/>
         <v>1.1304533006439637</v>
       </c>
-      <c r="O11">
+      <c r="O12">
         <f t="shared" si="3"/>
         <v>1.0665683557201666</v>
       </c>
-      <c r="P11">
+      <c r="P12">
         <f t="shared" si="3"/>
         <v>0.89717288439043441</v>
       </c>
-      <c r="Q11">
+      <c r="Q12">
         <f t="shared" si="3"/>
         <v>0.69776072799003386</v>
       </c>
-      <c r="R11">
+      <c r="R12">
         <f t="shared" si="3"/>
         <v>0.51046266145843699</v>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f t="shared" si="3"/>
         <v>0.30799815042882484</v>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f t="shared" si="3"/>
         <v>0.15941864427592559</v>
       </c>
-      <c r="U11">
+      <c r="U12">
         <f t="shared" si="3"/>
         <v>9.4785637938592444E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>177956</v>
-      </c>
-      <c r="C12">
-        <v>390773</v>
-      </c>
-      <c r="D12">
-        <v>575902</v>
-      </c>
-      <c r="E12">
-        <v>913814</v>
-      </c>
-      <c r="F12">
-        <v>1692655</v>
-      </c>
-      <c r="G12">
-        <v>3125935</v>
-      </c>
-      <c r="H12">
-        <v>6185375</v>
-      </c>
-      <c r="I12">
-        <v>14430241</v>
-      </c>
-      <c r="J12">
-        <v>175171861</v>
-      </c>
-      <c r="L12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="3"/>
-        <v>0.40967734198232003</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="3"/>
-        <v>0.27797729483799333</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="3"/>
-        <v>0.16159490370868723</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="3"/>
-        <v>9.1285365789930004E-2</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="3"/>
-        <v>4.9275241532731134E-2</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="3"/>
-        <v>2.4489888254788386E-2</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="3"/>
-        <v>1.0306354617658796E-2</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="3"/>
-        <v>8.5845982159859938E-4</v>
-      </c>
-    </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>13226787</v>
+        <v>177956</v>
       </c>
       <c r="C13">
-        <v>8552750</v>
+        <v>390773</v>
       </c>
       <c r="D13">
-        <v>5733726</v>
+        <v>575902</v>
       </c>
       <c r="E13">
-        <v>5923788</v>
+        <v>913814</v>
       </c>
       <c r="F13">
-        <v>6447577</v>
+        <v>1692655</v>
       </c>
       <c r="G13">
-        <v>7505482</v>
+        <v>3125935</v>
       </c>
       <c r="H13">
-        <v>10410740</v>
+        <v>6185375</v>
       </c>
       <c r="I13">
-        <v>24385621</v>
+        <v>14430241</v>
       </c>
       <c r="J13">
-        <v>69202803</v>
+        <v>175171861</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13">
         <f t="shared" si="3"/>
@@ -46684,70 +49336,70 @@
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>1.6322850083257239</v>
+        <v>0.40967734198232003</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>2.2015966259491742</v>
+        <v>0.27797729483799333</v>
       </c>
       <c r="P13">
         <f t="shared" si="3"/>
-        <v>2.4284138961438804</v>
+        <v>0.16159490370868723</v>
       </c>
       <c r="Q13">
         <f t="shared" si="3"/>
-        <v>2.2901002407190281</v>
+        <v>9.1285365789930004E-2</v>
       </c>
       <c r="R13">
         <f t="shared" si="3"/>
-        <v>1.727490461261409</v>
+        <v>4.9275241532731134E-2</v>
       </c>
       <c r="S13">
         <f t="shared" si="3"/>
-        <v>1.309295551634468</v>
+        <v>2.4489888254788386E-2</v>
       </c>
       <c r="T13">
         <f t="shared" si="3"/>
-        <v>0.64518806818249141</v>
+        <v>1.0306354617658796E-2</v>
       </c>
       <c r="U13">
         <f t="shared" si="3"/>
-        <v>0.22522549290600882</v>
+        <v>8.5845982159859938E-4</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>3463701</v>
+        <v>13226787</v>
       </c>
       <c r="C14">
-        <v>3063993</v>
+        <v>8552750</v>
       </c>
       <c r="D14">
-        <v>3247519</v>
+        <v>5733726</v>
       </c>
       <c r="E14">
-        <v>3860684</v>
+        <v>5923788</v>
       </c>
       <c r="F14">
-        <v>4964024</v>
+        <v>6447577</v>
       </c>
       <c r="G14">
-        <v>6785415</v>
+        <v>7505482</v>
       </c>
       <c r="H14">
-        <v>11245850</v>
+        <v>10410740</v>
       </c>
       <c r="I14">
-        <v>21727076</v>
+        <v>24385621</v>
       </c>
       <c r="J14">
-        <v>3654246651</v>
+        <v>69202803</v>
       </c>
       <c r="L14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M14">
         <f t="shared" si="3"/>
@@ -46755,212 +49407,212 @@
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>1.6137688435927096</v>
+        <v>1.6322850083257239</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>2.2326313252653529</v>
+        <v>2.2015966259491742</v>
       </c>
       <c r="P14">
         <f t="shared" si="3"/>
-        <v>2.324317509307694</v>
+        <v>2.4284138961438804</v>
       </c>
       <c r="Q14">
         <f t="shared" si="3"/>
-        <v>2.1584477795674375</v>
+        <v>2.2901002407190281</v>
       </c>
       <c r="R14">
         <f t="shared" si="3"/>
-        <v>1.6847975969558795</v>
+        <v>1.727490461261409</v>
       </c>
       <c r="S14">
         <f t="shared" si="3"/>
-        <v>1.2276837714720175</v>
+        <v>1.309295551634468</v>
       </c>
       <c r="T14">
         <f t="shared" si="3"/>
-        <v>0.58205352414664713</v>
+        <v>0.64518806818249141</v>
       </c>
       <c r="U14">
         <f t="shared" si="3"/>
-        <v>0.18488297001833973</v>
+        <v>0.22522549290600882</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>3463701</v>
+      </c>
+      <c r="C15">
+        <v>3063993</v>
+      </c>
+      <c r="D15">
+        <v>3247519</v>
+      </c>
+      <c r="E15">
+        <v>3860684</v>
+      </c>
+      <c r="F15">
+        <v>4964024</v>
+      </c>
+      <c r="G15">
+        <v>6785415</v>
+      </c>
+      <c r="H15">
+        <v>11245850</v>
+      </c>
+      <c r="I15">
+        <v>21727076</v>
+      </c>
+      <c r="J15">
+        <v>3654246651</v>
+      </c>
+      <c r="L15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>1.6137688435927096</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>2.2326313252653529</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>2.324317509307694</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>2.1584477795674375</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>1.6847975969558795</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>1.2276837714720175</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="3"/>
+        <v>0.58205352414664713</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="3"/>
+        <v>0.18488297001833973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>153722</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>375227</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>553002</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>951280</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>1683972</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>3119660</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>6276958</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>14915264</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>179067204</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L16" t="s">
         <v>9</v>
       </c>
-      <c r="M15">
-        <f t="shared" ref="M15:U17" si="4">$B11/B11</f>
+      <c r="M16">
+        <f t="shared" ref="M16:U18" si="4">$B12/B12</f>
         <v>1</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <f t="shared" si="4"/>
         <v>0.96284315653158503</v>
       </c>
-      <c r="O15">
+      <c r="O16">
         <f t="shared" si="4"/>
         <v>0.99639727786531651</v>
       </c>
-      <c r="P15">
+      <c r="P16">
         <f t="shared" si="4"/>
         <v>0.88856498338524326</v>
       </c>
-      <c r="Q15">
+      <c r="Q16">
         <f t="shared" si="4"/>
         <v>0.84557156330829364</v>
       </c>
-      <c r="R15">
+      <c r="R16">
         <f t="shared" si="4"/>
         <v>0.66421269481422274</v>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f t="shared" si="4"/>
         <v>0.42133834866206965</v>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f t="shared" si="4"/>
         <v>0.20471996041129611</v>
       </c>
-      <c r="U15">
+      <c r="U16">
         <f t="shared" si="4"/>
         <v>1.5435110138756862E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>13613936</v>
-      </c>
-      <c r="C16">
-        <v>8340416</v>
-      </c>
-      <c r="D16">
-        <v>6183665</v>
-      </c>
-      <c r="E16">
-        <v>5606102</v>
-      </c>
-      <c r="F16">
-        <v>5944690</v>
-      </c>
-      <c r="G16">
-        <v>7880759</v>
-      </c>
-      <c r="H16">
-        <v>10397909</v>
-      </c>
-      <c r="I16">
-        <v>21100725</v>
-      </c>
-      <c r="J16">
-        <v>60445804</v>
-      </c>
-      <c r="L16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="4"/>
-        <v>0.45539482001059439</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="4"/>
-        <v>0.30900396247972745</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="4"/>
-        <v>0.19473984859063223</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="4"/>
-        <v>0.10513424176810986</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="4"/>
-        <v>5.6928886877046385E-2</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="4"/>
-        <v>2.8770446415940829E-2</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="4"/>
-        <v>1.2332157169100641E-2</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="4"/>
-        <v>1.0158937570458305E-3</v>
-      </c>
-    </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>12904906</v>
+        <v>13613936</v>
       </c>
       <c r="C17">
-        <v>7996750</v>
+        <v>8340416</v>
       </c>
       <c r="D17">
-        <v>5780133</v>
+        <v>6183665</v>
       </c>
       <c r="E17">
-        <v>5552127</v>
+        <v>5606102</v>
       </c>
       <c r="F17">
-        <v>5978790</v>
+        <v>5944690</v>
       </c>
       <c r="G17">
-        <v>7659618</v>
+        <v>7880759</v>
       </c>
       <c r="H17">
-        <v>10511588</v>
+        <v>10397909</v>
       </c>
       <c r="I17">
-        <v>22171339</v>
+        <v>21100725</v>
       </c>
       <c r="J17">
-        <v>69800404</v>
+        <v>60445804</v>
       </c>
       <c r="L17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M17">
         <f t="shared" si="4"/>
@@ -46968,283 +49620,283 @@
       </c>
       <c r="N17">
         <f t="shared" si="4"/>
-        <v>1.5464952208354039</v>
+        <v>0.45539482001059439</v>
       </c>
       <c r="O17">
         <f t="shared" si="4"/>
-        <v>2.3068397408596084</v>
+        <v>0.30900396247972745</v>
       </c>
       <c r="P17">
         <f t="shared" si="4"/>
-        <v>2.2328258539974759</v>
+        <v>0.19473984859063223</v>
       </c>
       <c r="Q17">
         <f t="shared" si="4"/>
-        <v>2.0514352911178881</v>
+        <v>0.10513424176810986</v>
       </c>
       <c r="R17">
         <f t="shared" si="4"/>
-        <v>1.7622834882556511</v>
+        <v>5.6928886877046385E-2</v>
       </c>
       <c r="S17">
         <f t="shared" si="4"/>
-        <v>1.2704944125009365</v>
+        <v>2.8770446415940829E-2</v>
       </c>
       <c r="T17">
         <f t="shared" si="4"/>
-        <v>0.54240107315700514</v>
+        <v>1.2332157169100641E-2</v>
       </c>
       <c r="U17">
         <f t="shared" si="4"/>
-        <v>0.19113079856028375</v>
+        <v>1.0158937570458305E-3</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>12904906</v>
+      </c>
+      <c r="C18">
+        <v>7996750</v>
+      </c>
+      <c r="D18">
+        <v>5780133</v>
+      </c>
+      <c r="E18">
+        <v>5552127</v>
+      </c>
+      <c r="F18">
+        <v>5978790</v>
+      </c>
+      <c r="G18">
+        <v>7659618</v>
+      </c>
+      <c r="H18">
+        <v>10511588</v>
+      </c>
+      <c r="I18">
+        <v>22171339</v>
+      </c>
+      <c r="J18">
+        <v>69800404</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>1.5464952208354039</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>2.3068397408596084</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>2.2328258539974759</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>2.0514352911178881</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>1.7622834882556511</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>1.2704944125009365</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="4"/>
+        <v>0.54240107315700514</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="4"/>
+        <v>0.19113079856028375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>100676207053</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>60468042134</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>35084498504</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>36280619727</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>31448465710</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>28887101000</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>23680934184</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>26433726828</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>31778758717</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L19" t="s">
         <v>15</v>
       </c>
-      <c r="M18">
-        <f t="shared" ref="M18:M26" si="5">$B18/B18</f>
+      <c r="M19">
+        <f t="shared" ref="M19:M27" si="5">$B19/B19</f>
         <v>1</v>
       </c>
-      <c r="N18">
-        <f t="shared" ref="N18:U18" si="6">$B18/C18</f>
+      <c r="N19">
+        <f t="shared" ref="N19:U19" si="6">$B19/C19</f>
         <v>1.6649490127346414</v>
       </c>
-      <c r="O18">
+      <c r="O19">
         <f t="shared" si="6"/>
         <v>2.8695353032200774</v>
       </c>
-      <c r="P18">
+      <c r="P19">
         <f t="shared" si="6"/>
         <v>2.7749307429298642</v>
       </c>
-      <c r="Q18">
+      <c r="Q19">
         <f t="shared" si="6"/>
         <v>3.2013074336083407</v>
       </c>
-      <c r="R18">
+      <c r="R19">
         <f t="shared" si="6"/>
         <v>3.4851613200300022</v>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f t="shared" si="6"/>
         <v>4.2513612964230854</v>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f t="shared" si="6"/>
         <v>3.8086270508916074</v>
       </c>
-      <c r="U18">
+      <c r="U19">
         <f t="shared" si="6"/>
         <v>3.168034596616998</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>9059318748</v>
-      </c>
-      <c r="C19">
-        <v>5134934757</v>
-      </c>
-      <c r="D19">
-        <v>3277433520</v>
-      </c>
-      <c r="E19">
-        <v>2704252240</v>
-      </c>
-      <c r="F19">
-        <v>2395832831</v>
-      </c>
-      <c r="G19">
-        <v>2078268781</v>
-      </c>
-      <c r="H19">
-        <v>1168616483</v>
-      </c>
-      <c r="I19">
-        <v>1550038029</v>
-      </c>
-      <c r="J19">
-        <v>1320734851</v>
-      </c>
-      <c r="L19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <f t="shared" ref="N19:U25" si="7">$B19/C19</f>
-        <v>1.7642519674958355</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="7"/>
-        <v>2.7641502696292677</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="7"/>
-        <v>3.3500272696455267</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="7"/>
-        <v>3.7812816615501168</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="7"/>
-        <v>4.3590698329409205</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="7"/>
-        <v>7.7521743701094108</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="7"/>
-        <v>5.8445783771154174</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="7"/>
-        <v>6.8593016540304808</v>
-      </c>
-    </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>1899743344</v>
+        <v>9059318748</v>
       </c>
       <c r="C20">
-        <v>982774380</v>
+        <v>5134934757</v>
       </c>
       <c r="D20">
-        <v>539907404</v>
+        <v>3277433520</v>
       </c>
       <c r="E20">
-        <v>309180965</v>
+        <v>2704252240</v>
       </c>
       <c r="F20">
-        <v>191087255</v>
+        <v>2395832831</v>
       </c>
       <c r="G20">
-        <v>143502370</v>
+        <v>2078268781</v>
       </c>
       <c r="H20">
-        <v>147717368</v>
+        <v>1168616483</v>
       </c>
       <c r="I20">
-        <v>156216124</v>
+        <v>1550038029</v>
       </c>
       <c r="J20">
-        <v>177837863</v>
+        <v>1320734851</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M20">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N20">
-        <f t="shared" si="7"/>
-        <v>1.9330411767551368</v>
+        <f t="shared" ref="N20:U26" si="7">$B20/C20</f>
+        <v>1.7642519674958355</v>
       </c>
       <c r="O20">
         <f t="shared" si="7"/>
-        <v>3.5186465862950085</v>
+        <v>2.7641502696292677</v>
       </c>
       <c r="P20">
         <f t="shared" si="7"/>
-        <v>6.1444382386218379</v>
+        <v>3.3500272696455267</v>
       </c>
       <c r="Q20">
         <f t="shared" si="7"/>
-        <v>9.9417585123612771</v>
+        <v>3.7812816615501168</v>
       </c>
       <c r="R20">
         <f t="shared" si="7"/>
-        <v>13.238410933561585</v>
+        <v>4.3590698329409205</v>
       </c>
       <c r="S20">
         <f t="shared" si="7"/>
-        <v>12.860663371689645</v>
+        <v>7.7521743701094108</v>
       </c>
       <c r="T20">
         <f t="shared" si="7"/>
-        <v>12.160993982925859</v>
+        <v>5.8445783771154174</v>
       </c>
       <c r="U20">
         <f t="shared" si="7"/>
-        <v>10.682445863623542</v>
+        <v>6.8593016540304808</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>1096967193</v>
+        <v>1899743344</v>
       </c>
       <c r="C21">
-        <v>721439467</v>
+        <v>982774380</v>
       </c>
       <c r="D21">
-        <v>349767884</v>
+        <v>539907404</v>
       </c>
       <c r="E21">
-        <v>217778739</v>
+        <v>309180965</v>
       </c>
       <c r="F21">
-        <v>282478736</v>
+        <v>191087255</v>
       </c>
       <c r="G21">
-        <v>252532972</v>
+        <v>143502370</v>
       </c>
       <c r="H21">
-        <v>271087300</v>
+        <v>147717368</v>
       </c>
       <c r="I21">
-        <v>275706443</v>
+        <v>156216124</v>
       </c>
       <c r="J21">
-        <v>281316431</v>
+        <v>177837863</v>
       </c>
       <c r="L21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M21">
         <f t="shared" si="5"/>
@@ -47252,70 +49904,70 @@
       </c>
       <c r="N21">
         <f t="shared" si="7"/>
-        <v>1.5205256202042521</v>
+        <v>1.9330411767551368</v>
       </c>
       <c r="O21">
         <f t="shared" si="7"/>
-        <v>3.1362719196940336</v>
+        <v>3.5186465862950085</v>
       </c>
       <c r="P21">
         <f t="shared" si="7"/>
-        <v>5.0370720210662991</v>
+        <v>6.1444382386218379</v>
       </c>
       <c r="Q21">
         <f t="shared" si="7"/>
-        <v>3.8833620134862117</v>
+        <v>9.9417585123612771</v>
       </c>
       <c r="R21">
         <f t="shared" si="7"/>
-        <v>4.3438572963850444</v>
+        <v>13.238410933561585</v>
       </c>
       <c r="S21">
         <f t="shared" si="7"/>
-        <v>4.0465458654831856</v>
+        <v>12.860663371689645</v>
       </c>
       <c r="T21">
         <f t="shared" si="7"/>
-        <v>3.9787506634366174</v>
+        <v>12.160993982925859</v>
       </c>
       <c r="U21">
         <f t="shared" si="7"/>
-        <v>3.8994067609225427</v>
+        <v>10.682445863623542</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>82616663182</v>
+        <v>1096967193</v>
       </c>
       <c r="C22">
-        <v>44739867234</v>
+        <v>721439467</v>
       </c>
       <c r="D22">
-        <v>34391413863</v>
+        <v>349767884</v>
       </c>
       <c r="E22">
-        <v>31930079421</v>
+        <v>217778739</v>
       </c>
       <c r="F22">
-        <v>32387209006</v>
+        <v>282478736</v>
       </c>
       <c r="G22">
-        <v>26974666497</v>
+        <v>252532972</v>
       </c>
       <c r="H22">
-        <v>21037036624</v>
+        <v>271087300</v>
       </c>
       <c r="I22">
-        <v>24810853831</v>
+        <v>275706443</v>
       </c>
       <c r="J22">
-        <v>29384015611</v>
+        <v>281316431</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M22">
         <f t="shared" si="5"/>
@@ -47323,70 +49975,70 @@
       </c>
       <c r="N22">
         <f t="shared" si="7"/>
-        <v>1.846600544205808</v>
+        <v>1.5205256202042521</v>
       </c>
       <c r="O22">
         <f t="shared" si="7"/>
-        <v>2.402246779126552</v>
+        <v>3.1362719196940336</v>
       </c>
       <c r="P22">
         <f t="shared" si="7"/>
-        <v>2.5874242933346445</v>
+        <v>5.0370720210662991</v>
       </c>
       <c r="Q22">
         <f t="shared" si="7"/>
-        <v>2.5509040673030694</v>
+        <v>3.8833620134862117</v>
       </c>
       <c r="R22">
         <f t="shared" si="7"/>
-        <v>3.0627501248695048</v>
+        <v>4.3438572963850444</v>
       </c>
       <c r="S22">
         <f t="shared" si="7"/>
-        <v>3.9272006156868686</v>
+        <v>4.0465458654831856</v>
       </c>
       <c r="T22">
         <f t="shared" si="7"/>
-        <v>3.3298597357731539</v>
+        <v>3.9787506634366174</v>
       </c>
       <c r="U22">
         <f t="shared" si="7"/>
-        <v>2.8116192244014528</v>
+        <v>3.8994067609225427</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>4548908252</v>
+        <v>82616663182</v>
       </c>
       <c r="C23">
-        <v>2416506946</v>
+        <v>44739867234</v>
       </c>
       <c r="D23">
-        <v>1597107727</v>
+        <v>34391413863</v>
       </c>
       <c r="E23">
-        <v>1354070952</v>
+        <v>31930079421</v>
       </c>
       <c r="F23">
-        <v>1197073203</v>
+        <v>32387209006</v>
       </c>
       <c r="G23">
-        <v>1173714743</v>
+        <v>26974666497</v>
       </c>
       <c r="H23">
-        <v>728747908</v>
+        <v>21037036624</v>
       </c>
       <c r="I23">
-        <v>816737289</v>
+        <v>24810853831</v>
       </c>
       <c r="J23">
-        <v>1026518519</v>
+        <v>29384015611</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M23">
         <f t="shared" si="5"/>
@@ -47394,70 +50046,70 @@
       </c>
       <c r="N23">
         <f t="shared" si="7"/>
-        <v>1.8824312752461669</v>
+        <v>1.846600544205808</v>
       </c>
       <c r="O23">
         <f t="shared" si="7"/>
-        <v>2.8482162944290859</v>
+        <v>2.402246779126552</v>
       </c>
       <c r="P23">
         <f t="shared" si="7"/>
-        <v>3.359431236067163</v>
+        <v>2.5874242933346445</v>
       </c>
       <c r="Q23">
         <f t="shared" si="7"/>
-        <v>3.8000251284549051</v>
+        <v>2.5509040673030694</v>
       </c>
       <c r="R23">
         <f t="shared" si="7"/>
-        <v>3.8756506034618328</v>
+        <v>3.0627501248695048</v>
       </c>
       <c r="S23">
         <f t="shared" si="7"/>
-        <v>6.2420875615055627</v>
+        <v>3.9272006156868686</v>
       </c>
       <c r="T23">
         <f t="shared" si="7"/>
-        <v>5.569610097721398</v>
+        <v>3.3298597357731539</v>
       </c>
       <c r="U23">
         <f t="shared" si="7"/>
-        <v>4.4313942396591095</v>
+        <v>2.8116192244014528</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>1444720479</v>
+        <v>4548908252</v>
       </c>
       <c r="C24">
-        <v>771962966</v>
+        <v>2416506946</v>
       </c>
       <c r="D24">
-        <v>415987419</v>
+        <v>1597107727</v>
       </c>
       <c r="E24">
-        <v>243301262</v>
+        <v>1354070952</v>
       </c>
       <c r="F24">
-        <v>144875292</v>
+        <v>1197073203</v>
       </c>
       <c r="G24">
-        <v>120463426</v>
+        <v>1173714743</v>
       </c>
       <c r="H24">
-        <v>127903854</v>
+        <v>728747908</v>
       </c>
       <c r="I24">
-        <v>125983094</v>
+        <v>816737289</v>
       </c>
       <c r="J24">
-        <v>172827502</v>
+        <v>1026518519</v>
       </c>
       <c r="L24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M24">
         <f t="shared" si="5"/>
@@ -47465,70 +50117,70 @@
       </c>
       <c r="N24">
         <f t="shared" si="7"/>
-        <v>1.8714893623536857</v>
+        <v>1.8824312752461669</v>
       </c>
       <c r="O24">
         <f t="shared" si="7"/>
-        <v>3.472990799753009</v>
+        <v>2.8482162944290859</v>
       </c>
       <c r="P24">
         <f t="shared" si="7"/>
-        <v>5.9379900750370957</v>
+        <v>3.359431236067163</v>
       </c>
       <c r="Q24">
         <f t="shared" si="7"/>
-        <v>9.9721661233994272</v>
+        <v>3.8000251284549051</v>
       </c>
       <c r="R24">
         <f t="shared" si="7"/>
-        <v>11.993021674479024</v>
+        <v>3.8756506034618328</v>
       </c>
       <c r="S24">
         <f t="shared" si="7"/>
-        <v>11.295363148322332</v>
+        <v>6.2420875615055627</v>
       </c>
       <c r="T24">
         <f t="shared" si="7"/>
-        <v>11.467574204837357</v>
+        <v>5.569610097721398</v>
       </c>
       <c r="U24">
         <f t="shared" si="7"/>
-        <v>8.359320491712019</v>
+        <v>4.4313942396591095</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>1148573756</v>
+        <v>1444720479</v>
       </c>
       <c r="C25">
-        <v>1567677961</v>
+        <v>771962966</v>
       </c>
       <c r="D25">
-        <v>684783750</v>
+        <v>415987419</v>
       </c>
       <c r="E25">
-        <v>372886540</v>
+        <v>243301262</v>
       </c>
       <c r="F25">
-        <v>296936398</v>
+        <v>144875292</v>
       </c>
       <c r="G25">
-        <v>279578654</v>
+        <v>120463426</v>
       </c>
       <c r="H25">
-        <v>300393250</v>
+        <v>127903854</v>
       </c>
       <c r="I25">
-        <v>285343119</v>
+        <v>125983094</v>
       </c>
       <c r="J25">
-        <v>308265183</v>
+        <v>172827502</v>
       </c>
       <c r="L25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M25">
         <f t="shared" si="5"/>
@@ -47536,96 +50188,167 @@
       </c>
       <c r="N25">
         <f t="shared" si="7"/>
-        <v>0.73265924799206894</v>
+        <v>1.8714893623536857</v>
       </c>
       <c r="O25">
         <f t="shared" si="7"/>
-        <v>1.6772795148833481</v>
+        <v>3.472990799753009</v>
       </c>
       <c r="P25">
         <f t="shared" si="7"/>
-        <v>3.0802231584974882</v>
+        <v>5.9379900750370957</v>
       </c>
       <c r="Q25">
         <f t="shared" si="7"/>
-        <v>3.8680800458824183</v>
+        <v>9.9721661233994272</v>
       </c>
       <c r="R25">
         <f t="shared" si="7"/>
-        <v>4.108231224262207</v>
+        <v>11.993021674479024</v>
       </c>
       <c r="S25">
         <f t="shared" si="7"/>
-        <v>3.8235671274238019</v>
+        <v>11.295363148322332</v>
       </c>
       <c r="T25">
         <f t="shared" si="7"/>
-        <v>4.0252372653149555</v>
+        <v>11.467574204837357</v>
       </c>
       <c r="U25">
         <f t="shared" si="7"/>
-        <v>3.7259276082437114</v>
+        <v>8.359320491712019</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>3240705497965</v>
+        <v>1148573756</v>
+      </c>
+      <c r="C26">
+        <v>1567677961</v>
+      </c>
+      <c r="D26">
+        <v>684783750</v>
       </c>
       <c r="E26">
-        <v>504988396173</v>
+        <v>372886540</v>
       </c>
       <c r="F26">
-        <v>163889639648</v>
+        <v>296936398</v>
       </c>
       <c r="G26">
-        <v>163889639648</v>
+        <v>279578654</v>
       </c>
       <c r="H26">
-        <v>89180929454</v>
+        <v>300393250</v>
       </c>
       <c r="I26">
-        <v>116466535294</v>
+        <v>285343119</v>
       </c>
       <c r="J26">
-        <v>176068091163</v>
+        <v>308265183</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N26">
+        <f t="shared" si="7"/>
+        <v>0.73265924799206894</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>1.6772795148833481</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="7"/>
+        <v>3.0802231584974882</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="7"/>
+        <v>3.8680800458824183</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="7"/>
+        <v>4.108231224262207</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="7"/>
+        <v>3.8235671274238019</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="7"/>
+        <v>4.0252372653149555</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="7"/>
+        <v>3.7259276082437114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>3240705497965</v>
+      </c>
+      <c r="E27">
+        <v>504988396173</v>
+      </c>
+      <c r="F27">
+        <v>163889639648</v>
+      </c>
+      <c r="G27">
+        <v>163889639648</v>
+      </c>
+      <c r="H27">
+        <v>89180929454</v>
+      </c>
+      <c r="I27">
+        <v>116466535294</v>
+      </c>
+      <c r="J27">
+        <v>176068091163</v>
+      </c>
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N27">
         <v>1.9330411767551368</v>
       </c>
-      <c r="O26">
+      <c r="O27">
         <v>3.5186465862950085</v>
       </c>
-      <c r="P26">
-        <f t="shared" ref="P26:U26" si="8">$B26/E26</f>
+      <c r="P27">
+        <f t="shared" ref="P27:U27" si="8">$B27/E27</f>
         <v>6.4173860677281622</v>
       </c>
-      <c r="Q26">
+      <c r="Q27">
         <f t="shared" si="8"/>
         <v>19.773705677340828</v>
       </c>
-      <c r="R26">
+      <c r="R27">
         <f t="shared" si="8"/>
         <v>19.773705677340828</v>
       </c>
-      <c r="S26">
+      <c r="S27">
         <f t="shared" si="8"/>
         <v>36.338548138103597</v>
       </c>
-      <c r="T26">
+      <c r="T27">
         <f t="shared" si="8"/>
         <v>27.825207384974483</v>
       </c>
-      <c r="U26">
+      <c r="U27">
         <f t="shared" si="8"/>
         <v>18.405978485703155</v>
       </c>
